--- a/app/data/schedule/schedule_2020-12-03.xlsx
+++ b/app/data/schedule/schedule_2020-12-03.xlsx
@@ -29,12 +29,17 @@
       <sz val="7"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -48,7 +53,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="0095b3d7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffff00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f0b8b7"/>
       </patternFill>
     </fill>
     <fill>
@@ -78,17 +98,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffff00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0092d050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ff0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -117,6 +127,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -227,108 +276,78 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -702,10 +721,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="1.2" customWidth="1" min="5" max="5"/>
     <col width="1.2" customWidth="1" min="6" max="6"/>
     <col width="1.2" customWidth="1" min="7" max="7"/>
@@ -1281,5179 +1300,6366 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="E2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>График наливов</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="V2" s="2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="X2" s="2" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="Y2" s="2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Z2" s="2" t="inlineStr">
+      <c r="Z2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AA2" s="2" t="inlineStr">
+      <c r="AA2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AB2" s="2" t="inlineStr">
+      <c r="AB2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
+      <c r="AC2" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AD2" s="2" t="inlineStr">
+      <c r="AD2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="AE2" s="2" t="inlineStr">
+      <c r="AE2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AF2" s="2" t="inlineStr">
+      <c r="AF2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG2" s="2" t="inlineStr">
+      <c r="AG2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH2" s="2" t="inlineStr">
+      <c r="AH2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AI2" s="2" t="inlineStr">
+      <c r="AI2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AJ2" s="2" t="inlineStr">
+      <c r="AJ2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AK2" s="2" t="inlineStr">
+      <c r="AK2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AL2" s="2" t="inlineStr">
+      <c r="AL2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AM2" s="2" t="inlineStr">
+      <c r="AM2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AN2" s="2" t="inlineStr">
+      <c r="AN2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AO2" s="1" t="inlineStr">
+      <c r="AO2" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AP2" s="2" t="inlineStr">
+      <c r="AP2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="AQ2" s="2" t="inlineStr">
+      <c r="AQ2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AR2" s="2" t="inlineStr">
+      <c r="AR2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AS2" s="2" t="inlineStr">
+      <c r="AS2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AT2" s="2" t="inlineStr">
+      <c r="AT2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AU2" s="2" t="inlineStr">
+      <c r="AU2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AV2" s="2" t="inlineStr">
+      <c r="AV2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AW2" s="2" t="inlineStr">
+      <c r="AW2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AX2" s="2" t="inlineStr">
+      <c r="AX2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AY2" s="2" t="inlineStr">
+      <c r="AY2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AZ2" s="2" t="inlineStr">
+      <c r="AZ2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="BA2" s="1" t="inlineStr">
+      <c r="BA2" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="BB2" s="2" t="inlineStr">
+      <c r="BB2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="BC2" s="2" t="inlineStr">
+      <c r="BC2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="BD2" s="2" t="inlineStr">
+      <c r="BD2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="BE2" s="2" t="inlineStr">
+      <c r="BE2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="BF2" s="2" t="inlineStr">
+      <c r="BF2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="BG2" s="2" t="inlineStr">
+      <c r="BG2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="BH2" s="2" t="inlineStr">
+      <c r="BH2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="BI2" s="2" t="inlineStr">
+      <c r="BI2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="BJ2" s="2" t="inlineStr">
+      <c r="BJ2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="BK2" s="2" t="inlineStr">
+      <c r="BK2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="BL2" s="2" t="inlineStr">
+      <c r="BL2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="BM2" s="1" t="inlineStr">
+      <c r="BM2" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="BN2" s="2" t="inlineStr">
+      <c r="BN2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="BO2" s="2" t="inlineStr">
+      <c r="BO2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="BP2" s="2" t="inlineStr">
+      <c r="BP2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="BQ2" s="2" t="inlineStr">
+      <c r="BQ2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="BR2" s="2" t="inlineStr">
+      <c r="BR2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="BS2" s="2" t="inlineStr">
+      <c r="BS2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="BT2" s="2" t="inlineStr">
+      <c r="BT2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="BU2" s="2" t="inlineStr">
+      <c r="BU2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="BV2" s="2" t="inlineStr">
+      <c r="BV2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="BW2" s="2" t="inlineStr">
+      <c r="BW2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="BX2" s="2" t="inlineStr">
+      <c r="BX2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="BY2" s="1" t="inlineStr">
+      <c r="BY2" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="BZ2" s="2" t="inlineStr">
+      <c r="BZ2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="CA2" s="2" t="inlineStr">
+      <c r="CA2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="CB2" s="2" t="inlineStr">
+      <c r="CB2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="CC2" s="2" t="inlineStr">
+      <c r="CC2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="CD2" s="2" t="inlineStr">
+      <c r="CD2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="CE2" s="2" t="inlineStr">
+      <c r="CE2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="CF2" s="2" t="inlineStr">
+      <c r="CF2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="CG2" s="2" t="inlineStr">
+      <c r="CG2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="CH2" s="2" t="inlineStr">
+      <c r="CH2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="CI2" s="2" t="inlineStr">
+      <c r="CI2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="CJ2" s="2" t="inlineStr">
+      <c r="CJ2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="CK2" s="1" t="inlineStr">
+      <c r="CK2" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="CL2" s="2" t="inlineStr">
+      <c r="CL2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="CM2" s="2" t="inlineStr">
+      <c r="CM2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="CN2" s="2" t="inlineStr">
+      <c r="CN2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="CO2" s="2" t="inlineStr">
+      <c r="CO2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="CP2" s="2" t="inlineStr">
+      <c r="CP2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="CQ2" s="2" t="inlineStr">
+      <c r="CQ2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="CR2" s="2" t="inlineStr">
+      <c r="CR2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="CS2" s="2" t="inlineStr">
+      <c r="CS2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="CT2" s="2" t="inlineStr">
+      <c r="CT2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="CU2" s="2" t="inlineStr">
+      <c r="CU2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="CV2" s="2" t="inlineStr">
+      <c r="CV2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="CW2" s="1" t="inlineStr">
+      <c r="CW2" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="CX2" s="2" t="inlineStr">
+      <c r="CX2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="CY2" s="2" t="inlineStr">
+      <c r="CY2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="CZ2" s="2" t="inlineStr">
+      <c r="CZ2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="DA2" s="2" t="inlineStr">
+      <c r="DA2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="DB2" s="2" t="inlineStr">
+      <c r="DB2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="DC2" s="2" t="inlineStr">
+      <c r="DC2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="DD2" s="2" t="inlineStr">
+      <c r="DD2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="DE2" s="2" t="inlineStr">
+      <c r="DE2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="DF2" s="2" t="inlineStr">
+      <c r="DF2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="DG2" s="2" t="inlineStr">
+      <c r="DG2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="DH2" s="2" t="inlineStr">
+      <c r="DH2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="DI2" s="1" t="inlineStr">
+      <c r="DI2" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DJ2" s="2" t="inlineStr">
+      <c r="DJ2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="DK2" s="2" t="inlineStr">
+      <c r="DK2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DL2" s="2" t="inlineStr">
+      <c r="DL2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="DM2" s="2" t="inlineStr">
+      <c r="DM2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="DN2" s="2" t="inlineStr">
+      <c r="DN2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="DO2" s="2" t="inlineStr">
+      <c r="DO2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="DP2" s="2" t="inlineStr">
+      <c r="DP2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="DQ2" s="2" t="inlineStr">
+      <c r="DQ2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="DR2" s="2" t="inlineStr">
+      <c r="DR2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="DS2" s="2" t="inlineStr">
+      <c r="DS2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="DT2" s="2" t="inlineStr">
+      <c r="DT2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="DU2" s="1" t="inlineStr">
+      <c r="DU2" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="DV2" s="2" t="inlineStr">
+      <c r="DV2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="DW2" s="2" t="inlineStr">
+      <c r="DW2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DX2" s="2" t="inlineStr">
+      <c r="DX2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="DY2" s="2" t="inlineStr">
+      <c r="DY2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="DZ2" s="2" t="inlineStr">
+      <c r="DZ2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="EA2" s="2" t="inlineStr">
+      <c r="EA2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="EB2" s="2" t="inlineStr">
+      <c r="EB2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="EC2" s="2" t="inlineStr">
+      <c r="EC2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="ED2" s="2" t="inlineStr">
+      <c r="ED2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="EE2" s="2" t="inlineStr">
+      <c r="EE2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="EF2" s="2" t="inlineStr">
+      <c r="EF2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="EG2" s="1" t="inlineStr">
+      <c r="EG2" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="EH2" s="2" t="inlineStr">
+      <c r="EH2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="EI2" s="2" t="inlineStr">
+      <c r="EI2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ2" s="2" t="inlineStr">
+      <c r="EJ2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="EK2" s="2" t="inlineStr">
+      <c r="EK2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="EL2" s="2" t="inlineStr">
+      <c r="EL2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="EM2" s="2" t="inlineStr">
+      <c r="EM2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="EN2" s="2" t="inlineStr">
+      <c r="EN2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="EO2" s="2" t="inlineStr">
+      <c r="EO2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="EP2" s="2" t="inlineStr">
+      <c r="EP2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="EQ2" s="2" t="inlineStr">
+      <c r="EQ2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="ER2" s="2" t="inlineStr">
+      <c r="ER2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="ES2" s="1" t="inlineStr">
+      <c r="ES2" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="ET2" s="2" t="inlineStr">
+      <c r="ET2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="EU2" s="2" t="inlineStr">
+      <c r="EU2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EV2" s="2" t="inlineStr">
+      <c r="EV2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="EW2" s="2" t="inlineStr">
+      <c r="EW2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="EX2" s="2" t="inlineStr">
+      <c r="EX2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="EY2" s="2" t="inlineStr">
+      <c r="EY2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="EZ2" s="2" t="inlineStr">
+      <c r="EZ2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="FA2" s="2" t="inlineStr">
+      <c r="FA2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="FB2" s="2" t="inlineStr">
+      <c r="FB2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="FC2" s="2" t="inlineStr">
+      <c r="FC2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="FD2" s="2" t="inlineStr">
+      <c r="FD2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="FE2" s="1" t="inlineStr">
+      <c r="FE2" s="2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="FF2" s="2" t="inlineStr">
+      <c r="FF2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="FG2" s="2" t="inlineStr">
+      <c r="FG2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="FH2" s="2" t="inlineStr">
+      <c r="FH2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="FI2" s="2" t="inlineStr">
+      <c r="FI2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="FJ2" s="2" t="inlineStr">
+      <c r="FJ2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="FK2" s="2" t="inlineStr">
+      <c r="FK2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="FL2" s="2" t="inlineStr">
+      <c r="FL2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="FM2" s="2" t="inlineStr">
+      <c r="FM2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="FN2" s="2" t="inlineStr">
+      <c r="FN2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="FO2" s="2" t="inlineStr">
+      <c r="FO2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="FP2" s="2" t="inlineStr">
+      <c r="FP2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="FQ2" s="1" t="inlineStr">
+      <c r="FQ2" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="FR2" s="2" t="inlineStr">
+      <c r="FR2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="FS2" s="2" t="inlineStr">
+      <c r="FS2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="FT2" s="2" t="inlineStr">
+      <c r="FT2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="FU2" s="2" t="inlineStr">
+      <c r="FU2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="FV2" s="2" t="inlineStr">
+      <c r="FV2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="FW2" s="2" t="inlineStr">
+      <c r="FW2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="FX2" s="2" t="inlineStr">
+      <c r="FX2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="FY2" s="2" t="inlineStr">
+      <c r="FY2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="FZ2" s="2" t="inlineStr">
+      <c r="FZ2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="GA2" s="2" t="inlineStr">
+      <c r="GA2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="GB2" s="2" t="inlineStr">
+      <c r="GB2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="GC2" s="1" t="inlineStr">
+      <c r="GC2" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="GD2" s="2" t="inlineStr">
+      <c r="GD2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="GE2" s="2" t="inlineStr">
+      <c r="GE2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="GF2" s="2" t="inlineStr">
+      <c r="GF2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="GG2" s="2" t="inlineStr">
+      <c r="GG2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="GH2" s="2" t="inlineStr">
+      <c r="GH2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="GI2" s="2" t="inlineStr">
+      <c r="GI2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="GJ2" s="2" t="inlineStr">
+      <c r="GJ2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="GK2" s="2" t="inlineStr">
+      <c r="GK2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="GL2" s="2" t="inlineStr">
+      <c r="GL2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="GM2" s="2" t="inlineStr">
+      <c r="GM2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="GN2" s="2" t="inlineStr">
+      <c r="GN2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="GO2" s="1" t="inlineStr">
+      <c r="GO2" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="GP2" s="2" t="inlineStr">
+      <c r="GP2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="GQ2" s="2" t="inlineStr">
+      <c r="GQ2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="GR2" s="2" t="inlineStr">
+      <c r="GR2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="GS2" s="2" t="inlineStr">
+      <c r="GS2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="GT2" s="2" t="inlineStr">
+      <c r="GT2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="GU2" s="2" t="inlineStr">
+      <c r="GU2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="GV2" s="2" t="inlineStr">
+      <c r="GV2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="GW2" s="2" t="inlineStr">
+      <c r="GW2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="GX2" s="2" t="inlineStr">
+      <c r="GX2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="GY2" s="2" t="inlineStr">
+      <c r="GY2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="GZ2" s="2" t="inlineStr">
+      <c r="GZ2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="HA2" s="1" t="inlineStr">
+      <c r="HA2" s="2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="HB2" s="2" t="inlineStr">
+      <c r="HB2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="HC2" s="2" t="inlineStr">
+      <c r="HC2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="HD2" s="2" t="inlineStr">
+      <c r="HD2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="HE2" s="2" t="inlineStr">
+      <c r="HE2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="HF2" s="2" t="inlineStr">
+      <c r="HF2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="HG2" s="2" t="inlineStr">
+      <c r="HG2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="HH2" s="2" t="inlineStr">
+      <c r="HH2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="HI2" s="2" t="inlineStr">
+      <c r="HI2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="HJ2" s="2" t="inlineStr">
+      <c r="HJ2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="HK2" s="2" t="inlineStr">
+      <c r="HK2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="HL2" s="2" t="inlineStr">
+      <c r="HL2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="HM2" s="1" t="inlineStr">
+      <c r="HM2" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="HN2" s="2" t="inlineStr">
+      <c r="HN2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="HO2" s="2" t="inlineStr">
+      <c r="HO2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="HP2" s="2" t="inlineStr">
+      <c r="HP2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="HQ2" s="2" t="inlineStr">
+      <c r="HQ2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="HR2" s="2" t="inlineStr">
+      <c r="HR2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="HS2" s="2" t="inlineStr">
+      <c r="HS2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="HT2" s="2" t="inlineStr">
+      <c r="HT2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="HU2" s="2" t="inlineStr">
+      <c r="HU2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="HV2" s="2" t="inlineStr">
+      <c r="HV2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="HW2" s="2" t="inlineStr">
+      <c r="HW2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="HX2" s="2" t="inlineStr">
+      <c r="HX2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="HY2" s="1" t="inlineStr">
+      <c r="HY2" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="HZ2" s="2" t="inlineStr">
+      <c r="HZ2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="IA2" s="2" t="inlineStr">
+      <c r="IA2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="IB2" s="2" t="inlineStr">
+      <c r="IB2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="IC2" s="2" t="inlineStr">
+      <c r="IC2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="ID2" s="2" t="inlineStr">
+      <c r="ID2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="IE2" s="2" t="inlineStr">
+      <c r="IE2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="IF2" s="2" t="inlineStr">
+      <c r="IF2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="IG2" s="2" t="inlineStr">
+      <c r="IG2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="IH2" s="2" t="inlineStr">
+      <c r="IH2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="II2" s="2" t="inlineStr">
+      <c r="II2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="IJ2" s="2" t="inlineStr">
+      <c r="IJ2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="IK2" s="1" t="inlineStr">
+      <c r="IK2" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="IL2" s="2" t="inlineStr">
+      <c r="IL2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="IM2" s="2" t="inlineStr">
+      <c r="IM2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="IN2" s="2" t="inlineStr">
+      <c r="IN2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="IO2" s="2" t="inlineStr">
+      <c r="IO2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="IP2" s="2" t="inlineStr">
+      <c r="IP2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="IQ2" s="2" t="inlineStr">
+      <c r="IQ2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="IR2" s="2" t="inlineStr">
+      <c r="IR2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="IS2" s="2" t="inlineStr">
+      <c r="IS2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="IT2" s="2" t="inlineStr">
+      <c r="IT2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="IU2" s="2" t="inlineStr">
+      <c r="IU2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="IV2" s="2" t="inlineStr">
+      <c r="IV2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="IW2" s="1" t="inlineStr">
+      <c r="IW2" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="IX2" s="2" t="inlineStr">
+      <c r="IX2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="IY2" s="2" t="inlineStr">
+      <c r="IY2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="IZ2" s="2" t="inlineStr">
+      <c r="IZ2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="JA2" s="2" t="inlineStr">
+      <c r="JA2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="JB2" s="2" t="inlineStr">
+      <c r="JB2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="JC2" s="2" t="inlineStr">
+      <c r="JC2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="JD2" s="2" t="inlineStr">
+      <c r="JD2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="JE2" s="2" t="inlineStr">
+      <c r="JE2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="JF2" s="2" t="inlineStr">
+      <c r="JF2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="JG2" s="2" t="inlineStr">
+      <c r="JG2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="JH2" s="2" t="inlineStr">
+      <c r="JH2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="JI2" s="1" t="inlineStr">
+      <c r="JI2" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="JJ2" s="2" t="inlineStr">
+      <c r="JJ2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="JK2" s="2" t="inlineStr">
+      <c r="JK2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="JL2" s="2" t="inlineStr">
+      <c r="JL2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="JM2" s="2" t="inlineStr">
+      <c r="JM2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="JN2" s="2" t="inlineStr">
+      <c r="JN2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="JO2" s="2" t="inlineStr">
+      <c r="JO2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="JP2" s="2" t="inlineStr">
+      <c r="JP2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="JQ2" s="2" t="inlineStr">
+      <c r="JQ2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="JR2" s="2" t="inlineStr">
+      <c r="JR2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="JS2" s="2" t="inlineStr">
+      <c r="JS2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="JT2" s="2" t="inlineStr">
+      <c r="JT2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="JU2" s="1" t="inlineStr">
+      <c r="JU2" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="JV2" s="2" t="inlineStr">
+      <c r="JV2" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="JW2" s="2" t="inlineStr">
+      <c r="JW2" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="JX2" s="2" t="inlineStr">
+      <c r="JX2" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="JY2" s="2" t="inlineStr">
+      <c r="JY2" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="JZ2" s="2" t="inlineStr">
+      <c r="JZ2" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="KA2" s="2" t="inlineStr">
+      <c r="KA2" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="KB2" s="2" t="inlineStr">
+      <c r="KB2" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="KC2" s="2" t="inlineStr">
+      <c r="KC2" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="KD2" s="2" t="inlineStr">
+      <c r="KD2" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="KE2" s="2" t="inlineStr">
+      <c r="KE2" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="KF2" s="2" t="inlineStr">
+      <c r="KF2" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>1 смена</t>
         </is>
       </c>
-      <c r="L4" s="4" t="n"/>
-      <c r="M4" s="4" t="n"/>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
-      <c r="Y4" s="4" t="n"/>
-      <c r="Z4" s="4" t="n"/>
-      <c r="AA4" s="4" t="n"/>
-      <c r="AB4" s="4" t="n"/>
-      <c r="AC4" s="4" t="n"/>
-      <c r="AD4" s="4" t="n"/>
-      <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="4" t="n"/>
-      <c r="AG4" s="4" t="n"/>
-      <c r="AH4" s="4" t="n"/>
-      <c r="AI4" s="4" t="n"/>
-      <c r="AJ4" s="4" t="n"/>
-      <c r="AK4" s="4" t="n"/>
-      <c r="AL4" s="4" t="n"/>
-      <c r="AM4" s="4" t="n"/>
-      <c r="AN4" s="4" t="n"/>
-      <c r="AO4" s="4" t="n"/>
-      <c r="AP4" s="4" t="n"/>
-      <c r="AQ4" s="4" t="n"/>
-      <c r="AR4" s="4" t="n"/>
-      <c r="AS4" s="4" t="n"/>
-      <c r="AT4" s="4" t="n"/>
-      <c r="AU4" s="4" t="n"/>
-      <c r="AV4" s="4" t="n"/>
-      <c r="AW4" s="4" t="n"/>
-      <c r="AX4" s="4" t="n"/>
-      <c r="AY4" s="4" t="n"/>
-      <c r="AZ4" s="4" t="n"/>
-      <c r="BA4" s="4" t="n"/>
-      <c r="BB4" s="4" t="n"/>
-      <c r="BC4" s="4" t="n"/>
-      <c r="BD4" s="4" t="n"/>
-      <c r="BE4" s="4" t="n"/>
-      <c r="BF4" s="4" t="n"/>
-      <c r="BG4" s="4" t="n"/>
-      <c r="BH4" s="4" t="n"/>
-      <c r="BI4" s="4" t="n"/>
-      <c r="BJ4" s="4" t="n"/>
-      <c r="BK4" s="4" t="n"/>
-      <c r="BL4" s="4" t="n"/>
-      <c r="BM4" s="4" t="n"/>
-      <c r="BN4" s="4" t="n"/>
-      <c r="BO4" s="4" t="n"/>
-      <c r="BP4" s="4" t="n"/>
-      <c r="BQ4" s="4" t="n"/>
-      <c r="BR4" s="4" t="n"/>
-      <c r="BS4" s="4" t="n"/>
-      <c r="BT4" s="4" t="n"/>
-      <c r="BU4" s="4" t="n"/>
-      <c r="BV4" s="4" t="n"/>
-      <c r="BW4" s="4" t="n"/>
-      <c r="BX4" s="4" t="n"/>
-      <c r="BY4" s="4" t="n"/>
-      <c r="BZ4" s="4" t="n"/>
-      <c r="CA4" s="4" t="n"/>
-      <c r="CB4" s="4" t="n"/>
-      <c r="CC4" s="4" t="n"/>
-      <c r="CD4" s="4" t="n"/>
-      <c r="CE4" s="4" t="n"/>
-      <c r="CF4" s="4" t="n"/>
-      <c r="CG4" s="4" t="n"/>
-      <c r="CH4" s="4" t="n"/>
-      <c r="CI4" s="4" t="n"/>
-      <c r="CJ4" s="4" t="n"/>
-      <c r="CK4" s="4" t="n"/>
-      <c r="CL4" s="4" t="n"/>
-      <c r="CM4" s="4" t="n"/>
-      <c r="CN4" s="4" t="n"/>
-      <c r="CO4" s="4" t="n"/>
-      <c r="CP4" s="4" t="n"/>
-      <c r="CQ4" s="4" t="n"/>
-      <c r="CR4" s="4" t="n"/>
-      <c r="CS4" s="4" t="n"/>
-      <c r="CT4" s="4" t="n"/>
-      <c r="CU4" s="4" t="n"/>
-      <c r="CV4" s="4" t="n"/>
-      <c r="CW4" s="4" t="n"/>
-      <c r="CX4" s="4" t="n"/>
-      <c r="CY4" s="4" t="n"/>
-      <c r="CZ4" s="4" t="n"/>
-      <c r="DA4" s="4" t="n"/>
-      <c r="DB4" s="4" t="n"/>
-      <c r="DC4" s="4" t="n"/>
-      <c r="DD4" s="4" t="n"/>
-      <c r="DE4" s="4" t="n"/>
-      <c r="DF4" s="4" t="n"/>
-      <c r="DG4" s="4" t="n"/>
-      <c r="DH4" s="4" t="n"/>
-      <c r="DI4" s="4" t="n"/>
-      <c r="DJ4" s="4" t="n"/>
-      <c r="DK4" s="4" t="n"/>
-      <c r="DL4" s="4" t="n"/>
-      <c r="DM4" s="4" t="n"/>
-      <c r="DN4" s="4" t="n"/>
-      <c r="DO4" s="4" t="n"/>
-      <c r="DP4" s="4" t="n"/>
-      <c r="DQ4" s="4" t="n"/>
-      <c r="DR4" s="4" t="n"/>
-      <c r="DS4" s="4" t="n"/>
-      <c r="DT4" s="4" t="n"/>
-      <c r="DU4" s="4" t="n"/>
-      <c r="DV4" s="4" t="n"/>
-      <c r="DW4" s="4" t="n"/>
-      <c r="DX4" s="4" t="n"/>
-      <c r="DY4" s="4" t="n"/>
-      <c r="DZ4" s="4" t="n"/>
-      <c r="EA4" s="4" t="n"/>
-      <c r="EB4" s="4" t="n"/>
-      <c r="EC4" s="4" t="n"/>
-      <c r="ED4" s="4" t="n"/>
-      <c r="EE4" s="4" t="n"/>
-      <c r="EF4" s="4" t="n"/>
-      <c r="EG4" s="4" t="n"/>
-      <c r="EH4" s="4" t="n"/>
-      <c r="EI4" s="4" t="n"/>
-      <c r="EJ4" s="4" t="n"/>
-      <c r="EK4" s="4" t="n"/>
-      <c r="EL4" s="4" t="n"/>
-      <c r="EM4" s="4" t="n"/>
-      <c r="EN4" s="4" t="n"/>
-      <c r="EO4" s="4" t="n"/>
-      <c r="EP4" s="4" t="n"/>
-      <c r="EQ4" s="4" t="n"/>
-      <c r="ER4" s="4" t="n"/>
-      <c r="ES4" s="4" t="n"/>
-      <c r="ET4" s="4" t="n"/>
-      <c r="EU4" s="4" t="n"/>
-      <c r="EV4" s="4" t="n"/>
-      <c r="EW4" s="4" t="n"/>
-      <c r="EX4" s="4" t="n"/>
-      <c r="EY4" s="5" t="n"/>
-      <c r="EZ4" s="6" t="inlineStr">
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="5" t="n"/>
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="5" t="n"/>
+      <c r="P4" s="5" t="n"/>
+      <c r="Q4" s="5" t="n"/>
+      <c r="R4" s="5" t="n"/>
+      <c r="S4" s="5" t="n"/>
+      <c r="T4" s="5" t="n"/>
+      <c r="U4" s="5" t="n"/>
+      <c r="V4" s="5" t="n"/>
+      <c r="W4" s="5" t="n"/>
+      <c r="X4" s="5" t="n"/>
+      <c r="Y4" s="5" t="n"/>
+      <c r="Z4" s="5" t="n"/>
+      <c r="AA4" s="5" t="n"/>
+      <c r="AB4" s="5" t="n"/>
+      <c r="AC4" s="5" t="n"/>
+      <c r="AD4" s="5" t="n"/>
+      <c r="AE4" s="5" t="n"/>
+      <c r="AF4" s="5" t="n"/>
+      <c r="AG4" s="5" t="n"/>
+      <c r="AH4" s="5" t="n"/>
+      <c r="AI4" s="5" t="n"/>
+      <c r="AJ4" s="5" t="n"/>
+      <c r="AK4" s="5" t="n"/>
+      <c r="AL4" s="5" t="n"/>
+      <c r="AM4" s="5" t="n"/>
+      <c r="AN4" s="5" t="n"/>
+      <c r="AO4" s="5" t="n"/>
+      <c r="AP4" s="5" t="n"/>
+      <c r="AQ4" s="5" t="n"/>
+      <c r="AR4" s="5" t="n"/>
+      <c r="AS4" s="5" t="n"/>
+      <c r="AT4" s="5" t="n"/>
+      <c r="AU4" s="5" t="n"/>
+      <c r="AV4" s="5" t="n"/>
+      <c r="AW4" s="5" t="n"/>
+      <c r="AX4" s="5" t="n"/>
+      <c r="AY4" s="5" t="n"/>
+      <c r="AZ4" s="5" t="n"/>
+      <c r="BA4" s="5" t="n"/>
+      <c r="BB4" s="5" t="n"/>
+      <c r="BC4" s="5" t="n"/>
+      <c r="BD4" s="5" t="n"/>
+      <c r="BE4" s="5" t="n"/>
+      <c r="BF4" s="5" t="n"/>
+      <c r="BG4" s="5" t="n"/>
+      <c r="BH4" s="5" t="n"/>
+      <c r="BI4" s="5" t="n"/>
+      <c r="BJ4" s="5" t="n"/>
+      <c r="BK4" s="5" t="n"/>
+      <c r="BL4" s="5" t="n"/>
+      <c r="BM4" s="5" t="n"/>
+      <c r="BN4" s="5" t="n"/>
+      <c r="BO4" s="5" t="n"/>
+      <c r="BP4" s="5" t="n"/>
+      <c r="BQ4" s="5" t="n"/>
+      <c r="BR4" s="5" t="n"/>
+      <c r="BS4" s="5" t="n"/>
+      <c r="BT4" s="5" t="n"/>
+      <c r="BU4" s="5" t="n"/>
+      <c r="BV4" s="5" t="n"/>
+      <c r="BW4" s="5" t="n"/>
+      <c r="BX4" s="5" t="n"/>
+      <c r="BY4" s="5" t="n"/>
+      <c r="BZ4" s="5" t="n"/>
+      <c r="CA4" s="5" t="n"/>
+      <c r="CB4" s="5" t="n"/>
+      <c r="CC4" s="5" t="n"/>
+      <c r="CD4" s="5" t="n"/>
+      <c r="CE4" s="5" t="n"/>
+      <c r="CF4" s="5" t="n"/>
+      <c r="CG4" s="5" t="n"/>
+      <c r="CH4" s="5" t="n"/>
+      <c r="CI4" s="5" t="n"/>
+      <c r="CJ4" s="5" t="n"/>
+      <c r="CK4" s="5" t="n"/>
+      <c r="CL4" s="5" t="n"/>
+      <c r="CM4" s="5" t="n"/>
+      <c r="CN4" s="5" t="n"/>
+      <c r="CO4" s="5" t="n"/>
+      <c r="CP4" s="5" t="n"/>
+      <c r="CQ4" s="5" t="n"/>
+      <c r="CR4" s="5" t="n"/>
+      <c r="CS4" s="5" t="n"/>
+      <c r="CT4" s="5" t="n"/>
+      <c r="CU4" s="5" t="n"/>
+      <c r="CV4" s="5" t="n"/>
+      <c r="CW4" s="5" t="n"/>
+      <c r="CX4" s="5" t="n"/>
+      <c r="CY4" s="5" t="n"/>
+      <c r="CZ4" s="5" t="n"/>
+      <c r="DA4" s="5" t="n"/>
+      <c r="DB4" s="5" t="n"/>
+      <c r="DC4" s="5" t="n"/>
+      <c r="DD4" s="5" t="n"/>
+      <c r="DE4" s="5" t="n"/>
+      <c r="DF4" s="5" t="n"/>
+      <c r="DG4" s="5" t="n"/>
+      <c r="DH4" s="5" t="n"/>
+      <c r="DI4" s="5" t="n"/>
+      <c r="DJ4" s="5" t="n"/>
+      <c r="DK4" s="5" t="n"/>
+      <c r="DL4" s="5" t="n"/>
+      <c r="DM4" s="5" t="n"/>
+      <c r="DN4" s="5" t="n"/>
+      <c r="DO4" s="5" t="n"/>
+      <c r="DP4" s="5" t="n"/>
+      <c r="DQ4" s="5" t="n"/>
+      <c r="DR4" s="5" t="n"/>
+      <c r="DS4" s="5" t="n"/>
+      <c r="DT4" s="5" t="n"/>
+      <c r="DU4" s="5" t="n"/>
+      <c r="DV4" s="5" t="n"/>
+      <c r="DW4" s="5" t="n"/>
+      <c r="DX4" s="5" t="n"/>
+      <c r="DY4" s="5" t="n"/>
+      <c r="DZ4" s="5" t="n"/>
+      <c r="EA4" s="5" t="n"/>
+      <c r="EB4" s="5" t="n"/>
+      <c r="EC4" s="5" t="n"/>
+      <c r="ED4" s="5" t="n"/>
+      <c r="EE4" s="5" t="n"/>
+      <c r="EF4" s="5" t="n"/>
+      <c r="EG4" s="5" t="n"/>
+      <c r="EH4" s="5" t="n"/>
+      <c r="EI4" s="5" t="n"/>
+      <c r="EJ4" s="5" t="n"/>
+      <c r="EK4" s="5" t="n"/>
+      <c r="EL4" s="5" t="n"/>
+      <c r="EM4" s="5" t="n"/>
+      <c r="EN4" s="5" t="n"/>
+      <c r="EO4" s="5" t="n"/>
+      <c r="EP4" s="5" t="n"/>
+      <c r="EQ4" s="5" t="n"/>
+      <c r="ER4" s="5" t="n"/>
+      <c r="ES4" s="5" t="n"/>
+      <c r="ET4" s="5" t="n"/>
+      <c r="EU4" s="5" t="n"/>
+      <c r="EV4" s="5" t="n"/>
+      <c r="EW4" s="5" t="n"/>
+      <c r="EX4" s="5" t="n"/>
+      <c r="EY4" s="6" t="n"/>
+      <c r="EZ4" s="7" t="inlineStr">
         <is>
           <t>2 смена</t>
         </is>
       </c>
-      <c r="FA4" s="4" t="n"/>
-      <c r="FB4" s="4" t="n"/>
-      <c r="FC4" s="4" t="n"/>
-      <c r="FD4" s="4" t="n"/>
-      <c r="FE4" s="4" t="n"/>
-      <c r="FF4" s="4" t="n"/>
-      <c r="FG4" s="4" t="n"/>
-      <c r="FH4" s="4" t="n"/>
-      <c r="FI4" s="4" t="n"/>
-      <c r="FJ4" s="4" t="n"/>
-      <c r="FK4" s="4" t="n"/>
-      <c r="FL4" s="4" t="n"/>
-      <c r="FM4" s="4" t="n"/>
-      <c r="FN4" s="4" t="n"/>
-      <c r="FO4" s="4" t="n"/>
-      <c r="FP4" s="4" t="n"/>
-      <c r="FQ4" s="4" t="n"/>
-      <c r="FR4" s="4" t="n"/>
-      <c r="FS4" s="4" t="n"/>
-      <c r="FT4" s="4" t="n"/>
-      <c r="FU4" s="4" t="n"/>
-      <c r="FV4" s="4" t="n"/>
-      <c r="FW4" s="4" t="n"/>
-      <c r="FX4" s="4" t="n"/>
-      <c r="FY4" s="4" t="n"/>
-      <c r="FZ4" s="4" t="n"/>
-      <c r="GA4" s="4" t="n"/>
-      <c r="GB4" s="4" t="n"/>
-      <c r="GC4" s="4" t="n"/>
-      <c r="GD4" s="4" t="n"/>
-      <c r="GE4" s="4" t="n"/>
-      <c r="GF4" s="4" t="n"/>
-      <c r="GG4" s="4" t="n"/>
-      <c r="GH4" s="4" t="n"/>
-      <c r="GI4" s="4" t="n"/>
-      <c r="GJ4" s="4" t="n"/>
-      <c r="GK4" s="4" t="n"/>
-      <c r="GL4" s="4" t="n"/>
-      <c r="GM4" s="4" t="n"/>
-      <c r="GN4" s="4" t="n"/>
-      <c r="GO4" s="4" t="n"/>
-      <c r="GP4" s="4" t="n"/>
-      <c r="GQ4" s="4" t="n"/>
-      <c r="GR4" s="4" t="n"/>
-      <c r="GS4" s="4" t="n"/>
-      <c r="GT4" s="4" t="n"/>
-      <c r="GU4" s="4" t="n"/>
-      <c r="GV4" s="4" t="n"/>
-      <c r="GW4" s="4" t="n"/>
-      <c r="GX4" s="4" t="n"/>
-      <c r="GY4" s="4" t="n"/>
-      <c r="GZ4" s="4" t="n"/>
-      <c r="HA4" s="4" t="n"/>
-      <c r="HB4" s="4" t="n"/>
-      <c r="HC4" s="4" t="n"/>
-      <c r="HD4" s="4" t="n"/>
-      <c r="HE4" s="4" t="n"/>
-      <c r="HF4" s="4" t="n"/>
-      <c r="HG4" s="4" t="n"/>
-      <c r="HH4" s="4" t="n"/>
-      <c r="HI4" s="4" t="n"/>
-      <c r="HJ4" s="4" t="n"/>
-      <c r="HK4" s="4" t="n"/>
-      <c r="HL4" s="4" t="n"/>
-      <c r="HM4" s="4" t="n"/>
-      <c r="HN4" s="4" t="n"/>
-      <c r="HO4" s="4" t="n"/>
-      <c r="HP4" s="4" t="n"/>
-      <c r="HQ4" s="4" t="n"/>
-      <c r="HR4" s="4" t="n"/>
-      <c r="HS4" s="4" t="n"/>
-      <c r="HT4" s="4" t="n"/>
-      <c r="HU4" s="4" t="n"/>
-      <c r="HV4" s="4" t="n"/>
-      <c r="HW4" s="4" t="n"/>
-      <c r="HX4" s="4" t="n"/>
-      <c r="HY4" s="4" t="n"/>
-      <c r="HZ4" s="4" t="n"/>
-      <c r="IA4" s="4" t="n"/>
-      <c r="IB4" s="4" t="n"/>
-      <c r="IC4" s="4" t="n"/>
-      <c r="ID4" s="4" t="n"/>
-      <c r="IE4" s="4" t="n"/>
-      <c r="IF4" s="4" t="n"/>
-      <c r="IG4" s="4" t="n"/>
-      <c r="IH4" s="4" t="n"/>
-      <c r="II4" s="4" t="n"/>
-      <c r="IJ4" s="4" t="n"/>
-      <c r="IK4" s="4" t="n"/>
-      <c r="IL4" s="4" t="n"/>
-      <c r="IM4" s="4" t="n"/>
-      <c r="IN4" s="4" t="n"/>
-      <c r="IO4" s="4" t="n"/>
-      <c r="IP4" s="4" t="n"/>
-      <c r="IQ4" s="4" t="n"/>
-      <c r="IR4" s="4" t="n"/>
-      <c r="IS4" s="4" t="n"/>
-      <c r="IT4" s="4" t="n"/>
-      <c r="IU4" s="4" t="n"/>
-      <c r="IV4" s="4" t="n"/>
-      <c r="IW4" s="4" t="n"/>
-      <c r="IX4" s="4" t="n"/>
-      <c r="IY4" s="4" t="n"/>
-      <c r="IZ4" s="4" t="n"/>
-      <c r="JA4" s="4" t="n"/>
-      <c r="JB4" s="4" t="n"/>
-      <c r="JC4" s="4" t="n"/>
-      <c r="JD4" s="4" t="n"/>
-      <c r="JE4" s="4" t="n"/>
-      <c r="JF4" s="4" t="n"/>
-      <c r="JG4" s="4" t="n"/>
-      <c r="JH4" s="4" t="n"/>
-      <c r="JI4" s="4" t="n"/>
-      <c r="JJ4" s="4" t="n"/>
-      <c r="JK4" s="4" t="n"/>
-      <c r="JL4" s="4" t="n"/>
-      <c r="JM4" s="4" t="n"/>
-      <c r="JN4" s="4" t="n"/>
-      <c r="JO4" s="4" t="n"/>
-      <c r="JP4" s="4" t="n"/>
-      <c r="JQ4" s="4" t="n"/>
-      <c r="JR4" s="4" t="n"/>
-      <c r="JS4" s="5" t="n"/>
+      <c r="FA4" s="5" t="n"/>
+      <c r="FB4" s="5" t="n"/>
+      <c r="FC4" s="5" t="n"/>
+      <c r="FD4" s="5" t="n"/>
+      <c r="FE4" s="5" t="n"/>
+      <c r="FF4" s="5" t="n"/>
+      <c r="FG4" s="5" t="n"/>
+      <c r="FH4" s="5" t="n"/>
+      <c r="FI4" s="5" t="n"/>
+      <c r="FJ4" s="5" t="n"/>
+      <c r="FK4" s="5" t="n"/>
+      <c r="FL4" s="5" t="n"/>
+      <c r="FM4" s="5" t="n"/>
+      <c r="FN4" s="5" t="n"/>
+      <c r="FO4" s="5" t="n"/>
+      <c r="FP4" s="5" t="n"/>
+      <c r="FQ4" s="5" t="n"/>
+      <c r="FR4" s="5" t="n"/>
+      <c r="FS4" s="5" t="n"/>
+      <c r="FT4" s="5" t="n"/>
+      <c r="FU4" s="5" t="n"/>
+      <c r="FV4" s="5" t="n"/>
+      <c r="FW4" s="5" t="n"/>
+      <c r="FX4" s="5" t="n"/>
+      <c r="FY4" s="5" t="n"/>
+      <c r="FZ4" s="5" t="n"/>
+      <c r="GA4" s="5" t="n"/>
+      <c r="GB4" s="5" t="n"/>
+      <c r="GC4" s="5" t="n"/>
+      <c r="GD4" s="5" t="n"/>
+      <c r="GE4" s="5" t="n"/>
+      <c r="GF4" s="5" t="n"/>
+      <c r="GG4" s="5" t="n"/>
+      <c r="GH4" s="5" t="n"/>
+      <c r="GI4" s="5" t="n"/>
+      <c r="GJ4" s="5" t="n"/>
+      <c r="GK4" s="5" t="n"/>
+      <c r="GL4" s="5" t="n"/>
+      <c r="GM4" s="5" t="n"/>
+      <c r="GN4" s="5" t="n"/>
+      <c r="GO4" s="5" t="n"/>
+      <c r="GP4" s="5" t="n"/>
+      <c r="GQ4" s="5" t="n"/>
+      <c r="GR4" s="5" t="n"/>
+      <c r="GS4" s="5" t="n"/>
+      <c r="GT4" s="5" t="n"/>
+      <c r="GU4" s="5" t="n"/>
+      <c r="GV4" s="5" t="n"/>
+      <c r="GW4" s="5" t="n"/>
+      <c r="GX4" s="5" t="n"/>
+      <c r="GY4" s="5" t="n"/>
+      <c r="GZ4" s="5" t="n"/>
+      <c r="HA4" s="5" t="n"/>
+      <c r="HB4" s="5" t="n"/>
+      <c r="HC4" s="5" t="n"/>
+      <c r="HD4" s="5" t="n"/>
+      <c r="HE4" s="5" t="n"/>
+      <c r="HF4" s="5" t="n"/>
+      <c r="HG4" s="5" t="n"/>
+      <c r="HH4" s="5" t="n"/>
+      <c r="HI4" s="5" t="n"/>
+      <c r="HJ4" s="5" t="n"/>
+      <c r="HK4" s="5" t="n"/>
+      <c r="HL4" s="5" t="n"/>
+      <c r="HM4" s="5" t="n"/>
+      <c r="HN4" s="5" t="n"/>
+      <c r="HO4" s="5" t="n"/>
+      <c r="HP4" s="5" t="n"/>
+      <c r="HQ4" s="5" t="n"/>
+      <c r="HR4" s="5" t="n"/>
+      <c r="HS4" s="5" t="n"/>
+      <c r="HT4" s="5" t="n"/>
+      <c r="HU4" s="5" t="n"/>
+      <c r="HV4" s="5" t="n"/>
+      <c r="HW4" s="5" t="n"/>
+      <c r="HX4" s="5" t="n"/>
+      <c r="HY4" s="5" t="n"/>
+      <c r="HZ4" s="5" t="n"/>
+      <c r="IA4" s="5" t="n"/>
+      <c r="IB4" s="5" t="n"/>
+      <c r="IC4" s="5" t="n"/>
+      <c r="ID4" s="5" t="n"/>
+      <c r="IE4" s="5" t="n"/>
+      <c r="IF4" s="5" t="n"/>
+      <c r="IG4" s="5" t="n"/>
+      <c r="IH4" s="5" t="n"/>
+      <c r="II4" s="5" t="n"/>
+      <c r="IJ4" s="5" t="n"/>
+      <c r="IK4" s="5" t="n"/>
+      <c r="IL4" s="5" t="n"/>
+      <c r="IM4" s="5" t="n"/>
+      <c r="IN4" s="5" t="n"/>
+      <c r="IO4" s="5" t="n"/>
+      <c r="IP4" s="5" t="n"/>
+      <c r="IQ4" s="5" t="n"/>
+      <c r="IR4" s="5" t="n"/>
+      <c r="IS4" s="5" t="n"/>
+      <c r="IT4" s="5" t="n"/>
+      <c r="IU4" s="5" t="n"/>
+      <c r="IV4" s="5" t="n"/>
+      <c r="IW4" s="5" t="n"/>
+      <c r="IX4" s="5" t="n"/>
+      <c r="IY4" s="5" t="n"/>
+      <c r="IZ4" s="5" t="n"/>
+      <c r="JA4" s="5" t="n"/>
+      <c r="JB4" s="5" t="n"/>
+      <c r="JC4" s="5" t="n"/>
+      <c r="JD4" s="5" t="n"/>
+      <c r="JE4" s="5" t="n"/>
+      <c r="JF4" s="5" t="n"/>
+      <c r="JG4" s="5" t="n"/>
+      <c r="JH4" s="5" t="n"/>
+      <c r="JI4" s="5" t="n"/>
+      <c r="JJ4" s="5" t="n"/>
+      <c r="JK4" s="5" t="n"/>
+      <c r="JL4" s="5" t="n"/>
+      <c r="JM4" s="5" t="n"/>
+      <c r="JN4" s="5" t="n"/>
+      <c r="JO4" s="5" t="n"/>
+      <c r="JP4" s="5" t="n"/>
+      <c r="JQ4" s="5" t="n"/>
+      <c r="JR4" s="5" t="n"/>
+      <c r="JS4" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Сыроизготовитель №1 Poly 1</t>
         </is>
       </c>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="9" t="n"/>
-      <c r="Q6" s="10" t="inlineStr">
+      <c r="C6" s="9" t="n"/>
+      <c r="D6" s="10" t="n"/>
+      <c r="Q6" s="11" t="inlineStr">
         <is>
           <t>1 налив</t>
         </is>
       </c>
-      <c r="R6" s="4" t="n"/>
-      <c r="S6" s="4" t="n"/>
-      <c r="T6" s="4" t="n"/>
-      <c r="U6" s="4" t="n"/>
-      <c r="V6" s="5" t="n"/>
-      <c r="W6" s="10" t="inlineStr">
+      <c r="R6" s="5" t="n"/>
+      <c r="S6" s="5" t="n"/>
+      <c r="T6" s="5" t="n"/>
+      <c r="U6" s="5" t="n"/>
+      <c r="V6" s="6" t="n"/>
+      <c r="W6" s="11" t="inlineStr">
         <is>
           <t>3.3 Сакко с лактозой 8000кг</t>
         </is>
       </c>
-      <c r="X6" s="4" t="n"/>
-      <c r="Y6" s="4" t="n"/>
-      <c r="Z6" s="4" t="n"/>
-      <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="4" t="n"/>
-      <c r="AD6" s="4" t="n"/>
-      <c r="AE6" s="4" t="n"/>
-      <c r="AF6" s="4" t="n"/>
-      <c r="AG6" s="4" t="n"/>
-      <c r="AH6" s="4" t="n"/>
-      <c r="AI6" s="4" t="n"/>
-      <c r="AJ6" s="4" t="n"/>
-      <c r="AK6" s="4" t="n"/>
-      <c r="AL6" s="4" t="n"/>
-      <c r="AM6" s="4" t="n"/>
-      <c r="AN6" s="4" t="n"/>
-      <c r="AO6" s="4" t="n"/>
-      <c r="AP6" s="5" t="n"/>
+      <c r="X6" s="5" t="n"/>
+      <c r="Y6" s="5" t="n"/>
+      <c r="Z6" s="5" t="n"/>
+      <c r="AA6" s="5" t="n"/>
+      <c r="AB6" s="5" t="n"/>
+      <c r="AC6" s="5" t="n"/>
+      <c r="AD6" s="5" t="n"/>
+      <c r="AE6" s="5" t="n"/>
+      <c r="AF6" s="5" t="n"/>
+      <c r="AG6" s="5" t="n"/>
+      <c r="AH6" s="5" t="n"/>
+      <c r="AI6" s="5" t="n"/>
+      <c r="AJ6" s="5" t="n"/>
+      <c r="AK6" s="5" t="n"/>
+      <c r="AL6" s="5" t="n"/>
+      <c r="AM6" s="5" t="n"/>
+      <c r="AN6" s="5" t="n"/>
+      <c r="AO6" s="5" t="n"/>
+      <c r="AP6" s="6" t="n"/>
+      <c r="BB6" s="11" t="inlineStr">
+        <is>
+          <t>3 налив</t>
+        </is>
+      </c>
+      <c r="BC6" s="5" t="n"/>
+      <c r="BD6" s="5" t="n"/>
+      <c r="BE6" s="5" t="n"/>
+      <c r="BF6" s="5" t="n"/>
+      <c r="BG6" s="6" t="n"/>
+      <c r="BH6" s="11" t="inlineStr">
+        <is>
+          <t>3.3 Сакко с лактозой 8000кг</t>
+        </is>
+      </c>
+      <c r="BI6" s="5" t="n"/>
+      <c r="BJ6" s="5" t="n"/>
+      <c r="BK6" s="5" t="n"/>
+      <c r="BL6" s="5" t="n"/>
+      <c r="BM6" s="5" t="n"/>
+      <c r="BN6" s="5" t="n"/>
+      <c r="BO6" s="5" t="n"/>
+      <c r="BP6" s="5" t="n"/>
+      <c r="BQ6" s="5" t="n"/>
+      <c r="BR6" s="5" t="n"/>
+      <c r="BS6" s="5" t="n"/>
+      <c r="BT6" s="5" t="n"/>
+      <c r="BU6" s="5" t="n"/>
+      <c r="BV6" s="5" t="n"/>
+      <c r="BW6" s="5" t="n"/>
+      <c r="BX6" s="5" t="n"/>
+      <c r="BY6" s="5" t="n"/>
+      <c r="BZ6" s="5" t="n"/>
+      <c r="CA6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="12" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="Q7" s="14" t="inlineStr">
+      <c r="B7" s="12" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="14" t="n"/>
+      <c r="Q7" s="15" t="inlineStr">
         <is>
           <t>налив/внесение
 закваски</t>
         </is>
       </c>
-      <c r="R7" s="4" t="n"/>
-      <c r="S7" s="4" t="n"/>
-      <c r="T7" s="4" t="n"/>
-      <c r="U7" s="4" t="n"/>
-      <c r="V7" s="4" t="n"/>
-      <c r="W7" s="4" t="n"/>
-      <c r="X7" s="5" t="n"/>
-      <c r="Y7" s="15" t="inlineStr">
+      <c r="R7" s="5" t="n"/>
+      <c r="S7" s="5" t="n"/>
+      <c r="T7" s="5" t="n"/>
+      <c r="U7" s="5" t="n"/>
+      <c r="V7" s="5" t="n"/>
+      <c r="W7" s="5" t="n"/>
+      <c r="X7" s="6" t="n"/>
+      <c r="Y7" s="16" t="inlineStr">
         <is>
           <t>схватка</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="n"/>
-      <c r="AA7" s="4" t="n"/>
-      <c r="AB7" s="4" t="n"/>
-      <c r="AC7" s="4" t="n"/>
-      <c r="AD7" s="5" t="n"/>
-      <c r="AE7" s="16" t="inlineStr">
+      <c r="Z7" s="5" t="n"/>
+      <c r="AA7" s="5" t="n"/>
+      <c r="AB7" s="5" t="n"/>
+      <c r="AC7" s="5" t="n"/>
+      <c r="AD7" s="6" t="n"/>
+      <c r="AE7" s="17" t="inlineStr">
         <is>
           <t>резка/обсушка</t>
         </is>
       </c>
-      <c r="AF7" s="4" t="n"/>
-      <c r="AG7" s="4" t="n"/>
-      <c r="AH7" s="4" t="n"/>
-      <c r="AI7" s="4" t="n"/>
-      <c r="AJ7" s="4" t="n"/>
-      <c r="AK7" s="5" t="n"/>
-      <c r="AL7" s="17" t="inlineStr">
+      <c r="AF7" s="5" t="n"/>
+      <c r="AG7" s="5" t="n"/>
+      <c r="AH7" s="5" t="n"/>
+      <c r="AI7" s="5" t="n"/>
+      <c r="AJ7" s="5" t="n"/>
+      <c r="AK7" s="6" t="n"/>
+      <c r="AL7" s="18" t="inlineStr">
         <is>
           <t>слив</t>
         </is>
       </c>
-      <c r="AM7" s="4" t="n"/>
-      <c r="AN7" s="5" t="n"/>
-      <c r="AO7" s="10" t="inlineStr"/>
-      <c r="AP7" s="5" t="n"/>
+      <c r="AM7" s="5" t="n"/>
+      <c r="AN7" s="6" t="n"/>
+      <c r="AO7" s="11" t="inlineStr"/>
+      <c r="AP7" s="6" t="n"/>
+      <c r="BB7" s="15" t="inlineStr">
+        <is>
+          <t>налив/внесение
+закваски</t>
+        </is>
+      </c>
+      <c r="BC7" s="5" t="n"/>
+      <c r="BD7" s="5" t="n"/>
+      <c r="BE7" s="5" t="n"/>
+      <c r="BF7" s="5" t="n"/>
+      <c r="BG7" s="5" t="n"/>
+      <c r="BH7" s="5" t="n"/>
+      <c r="BI7" s="6" t="n"/>
+      <c r="BJ7" s="16" t="inlineStr">
+        <is>
+          <t>схватка</t>
+        </is>
+      </c>
+      <c r="BK7" s="5" t="n"/>
+      <c r="BL7" s="5" t="n"/>
+      <c r="BM7" s="5" t="n"/>
+      <c r="BN7" s="5" t="n"/>
+      <c r="BO7" s="6" t="n"/>
+      <c r="BP7" s="17" t="inlineStr">
+        <is>
+          <t>резка/обсушка</t>
+        </is>
+      </c>
+      <c r="BQ7" s="5" t="n"/>
+      <c r="BR7" s="5" t="n"/>
+      <c r="BS7" s="5" t="n"/>
+      <c r="BT7" s="5" t="n"/>
+      <c r="BU7" s="5" t="n"/>
+      <c r="BV7" s="6" t="n"/>
+      <c r="BW7" s="18" t="inlineStr">
+        <is>
+          <t>слив</t>
+        </is>
+      </c>
+      <c r="BX7" s="5" t="n"/>
+      <c r="BY7" s="6" t="n"/>
+      <c r="BZ7" s="11" t="inlineStr"/>
+      <c r="CA7" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>Сыроизготовитель №2 Poly 2</t>
         </is>
       </c>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="9" t="n"/>
-      <c r="AL9" s="10" t="inlineStr">
-        <is>
-          <t>3 налив</t>
-        </is>
-      </c>
-      <c r="AM9" s="4" t="n"/>
-      <c r="AN9" s="4" t="n"/>
-      <c r="AO9" s="4" t="n"/>
-      <c r="AP9" s="4" t="n"/>
-      <c r="AQ9" s="5" t="n"/>
-      <c r="AR9" s="10" t="inlineStr">
-        <is>
-          <t>3.3 Сакко с лактозой 8000кг</t>
-        </is>
-      </c>
-      <c r="AS9" s="4" t="n"/>
-      <c r="AT9" s="4" t="n"/>
-      <c r="AU9" s="4" t="n"/>
-      <c r="AV9" s="4" t="n"/>
-      <c r="AW9" s="4" t="n"/>
-      <c r="AX9" s="4" t="n"/>
-      <c r="AY9" s="4" t="n"/>
-      <c r="AZ9" s="4" t="n"/>
-      <c r="BA9" s="4" t="n"/>
-      <c r="BB9" s="4" t="n"/>
-      <c r="BC9" s="4" t="n"/>
-      <c r="BD9" s="4" t="n"/>
-      <c r="BE9" s="4" t="n"/>
-      <c r="BF9" s="4" t="n"/>
-      <c r="BG9" s="4" t="n"/>
-      <c r="BH9" s="4" t="n"/>
-      <c r="BI9" s="4" t="n"/>
-      <c r="BJ9" s="4" t="n"/>
-      <c r="BK9" s="5" t="n"/>
-      <c r="CA9" s="10" t="inlineStr">
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="BX9" s="11" t="inlineStr">
+        <is>
+          <t>5 налив</t>
+        </is>
+      </c>
+      <c r="BY9" s="5" t="n"/>
+      <c r="BZ9" s="5" t="n"/>
+      <c r="CA9" s="5" t="n"/>
+      <c r="CB9" s="5" t="n"/>
+      <c r="CC9" s="6" t="n"/>
+      <c r="CD9" s="11" t="inlineStr">
+        <is>
+          <t>2.7 Альче с лактозой 8000кг</t>
+        </is>
+      </c>
+      <c r="CE9" s="5" t="n"/>
+      <c r="CF9" s="5" t="n"/>
+      <c r="CG9" s="5" t="n"/>
+      <c r="CH9" s="5" t="n"/>
+      <c r="CI9" s="5" t="n"/>
+      <c r="CJ9" s="5" t="n"/>
+      <c r="CK9" s="5" t="n"/>
+      <c r="CL9" s="5" t="n"/>
+      <c r="CM9" s="5" t="n"/>
+      <c r="CN9" s="5" t="n"/>
+      <c r="CO9" s="5" t="n"/>
+      <c r="CP9" s="5" t="n"/>
+      <c r="CQ9" s="5" t="n"/>
+      <c r="CR9" s="5" t="n"/>
+      <c r="CS9" s="5" t="n"/>
+      <c r="CT9" s="5" t="n"/>
+      <c r="CU9" s="5" t="n"/>
+      <c r="CV9" s="5" t="n"/>
+      <c r="CW9" s="5" t="n"/>
+      <c r="CX9" s="6" t="n"/>
+      <c r="DG9" s="11" t="inlineStr">
         <is>
           <t>6 налив</t>
         </is>
       </c>
-      <c r="CB9" s="4" t="n"/>
-      <c r="CC9" s="4" t="n"/>
-      <c r="CD9" s="4" t="n"/>
-      <c r="CE9" s="4" t="n"/>
-      <c r="CF9" s="5" t="n"/>
-      <c r="CG9" s="10" t="inlineStr">
+      <c r="DH9" s="5" t="n"/>
+      <c r="DI9" s="5" t="n"/>
+      <c r="DJ9" s="5" t="n"/>
+      <c r="DK9" s="5" t="n"/>
+      <c r="DL9" s="6" t="n"/>
+      <c r="DM9" s="11" t="inlineStr">
         <is>
           <t>2.7 Альче с лактозой 8000кг</t>
         </is>
       </c>
-      <c r="CH9" s="4" t="n"/>
-      <c r="CI9" s="4" t="n"/>
-      <c r="CJ9" s="4" t="n"/>
-      <c r="CK9" s="4" t="n"/>
-      <c r="CL9" s="4" t="n"/>
-      <c r="CM9" s="4" t="n"/>
-      <c r="CN9" s="4" t="n"/>
-      <c r="CO9" s="4" t="n"/>
-      <c r="CP9" s="4" t="n"/>
-      <c r="CQ9" s="4" t="n"/>
-      <c r="CR9" s="4" t="n"/>
-      <c r="CS9" s="4" t="n"/>
-      <c r="CT9" s="4" t="n"/>
-      <c r="CU9" s="4" t="n"/>
-      <c r="CV9" s="4" t="n"/>
-      <c r="CW9" s="4" t="n"/>
-      <c r="CX9" s="4" t="n"/>
-      <c r="CY9" s="4" t="n"/>
-      <c r="CZ9" s="4" t="n"/>
-      <c r="DA9" s="5" t="n"/>
-      <c r="DG9" s="10" t="inlineStr">
+      <c r="DN9" s="5" t="n"/>
+      <c r="DO9" s="5" t="n"/>
+      <c r="DP9" s="5" t="n"/>
+      <c r="DQ9" s="5" t="n"/>
+      <c r="DR9" s="5" t="n"/>
+      <c r="DS9" s="5" t="n"/>
+      <c r="DT9" s="5" t="n"/>
+      <c r="DU9" s="5" t="n"/>
+      <c r="DV9" s="5" t="n"/>
+      <c r="DW9" s="5" t="n"/>
+      <c r="DX9" s="5" t="n"/>
+      <c r="DY9" s="5" t="n"/>
+      <c r="DZ9" s="5" t="n"/>
+      <c r="EA9" s="5" t="n"/>
+      <c r="EB9" s="5" t="n"/>
+      <c r="EC9" s="5" t="n"/>
+      <c r="ED9" s="5" t="n"/>
+      <c r="EE9" s="5" t="n"/>
+      <c r="EF9" s="5" t="n"/>
+      <c r="EG9" s="6" t="n"/>
+      <c r="EU9" s="11" t="inlineStr">
         <is>
           <t>8 налив</t>
         </is>
       </c>
-      <c r="DH9" s="4" t="n"/>
-      <c r="DI9" s="4" t="n"/>
-      <c r="DJ9" s="4" t="n"/>
-      <c r="DK9" s="4" t="n"/>
-      <c r="DL9" s="5" t="n"/>
-      <c r="DM9" s="10" t="inlineStr">
+      <c r="EV9" s="5" t="n"/>
+      <c r="EW9" s="5" t="n"/>
+      <c r="EX9" s="5" t="n"/>
+      <c r="EY9" s="5" t="n"/>
+      <c r="EZ9" s="6" t="n"/>
+      <c r="FA9" s="11" t="inlineStr">
         <is>
           <t>2.7 Сакко с лактозой 8000кг</t>
         </is>
       </c>
-      <c r="DN9" s="4" t="n"/>
-      <c r="DO9" s="4" t="n"/>
-      <c r="DP9" s="4" t="n"/>
-      <c r="DQ9" s="4" t="n"/>
-      <c r="DR9" s="4" t="n"/>
-      <c r="DS9" s="4" t="n"/>
-      <c r="DT9" s="4" t="n"/>
-      <c r="DU9" s="4" t="n"/>
-      <c r="DV9" s="4" t="n"/>
-      <c r="DW9" s="4" t="n"/>
-      <c r="DX9" s="4" t="n"/>
-      <c r="DY9" s="4" t="n"/>
-      <c r="DZ9" s="4" t="n"/>
-      <c r="EA9" s="4" t="n"/>
-      <c r="EB9" s="4" t="n"/>
-      <c r="EC9" s="4" t="n"/>
-      <c r="ED9" s="4" t="n"/>
-      <c r="EE9" s="4" t="n"/>
-      <c r="EF9" s="4" t="n"/>
-      <c r="EG9" s="5" t="n"/>
+      <c r="FB9" s="5" t="n"/>
+      <c r="FC9" s="5" t="n"/>
+      <c r="FD9" s="5" t="n"/>
+      <c r="FE9" s="5" t="n"/>
+      <c r="FF9" s="5" t="n"/>
+      <c r="FG9" s="5" t="n"/>
+      <c r="FH9" s="5" t="n"/>
+      <c r="FI9" s="5" t="n"/>
+      <c r="FJ9" s="5" t="n"/>
+      <c r="FK9" s="5" t="n"/>
+      <c r="FL9" s="5" t="n"/>
+      <c r="FM9" s="5" t="n"/>
+      <c r="FN9" s="5" t="n"/>
+      <c r="FO9" s="5" t="n"/>
+      <c r="FP9" s="5" t="n"/>
+      <c r="FQ9" s="5" t="n"/>
+      <c r="FR9" s="5" t="n"/>
+      <c r="FS9" s="5" t="n"/>
+      <c r="FT9" s="5" t="n"/>
+      <c r="FU9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="11" t="n"/>
-      <c r="C10" s="12" t="n"/>
-      <c r="D10" s="13" t="n"/>
-      <c r="AL10" s="14" t="inlineStr">
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="BX10" s="15" t="inlineStr">
         <is>
           <t>налив/внесение
 закваски</t>
         </is>
       </c>
-      <c r="AM10" s="4" t="n"/>
-      <c r="AN10" s="4" t="n"/>
-      <c r="AO10" s="4" t="n"/>
-      <c r="AP10" s="4" t="n"/>
-      <c r="AQ10" s="4" t="n"/>
-      <c r="AR10" s="4" t="n"/>
-      <c r="AS10" s="5" t="n"/>
-      <c r="AT10" s="15" t="inlineStr">
+      <c r="BY10" s="5" t="n"/>
+      <c r="BZ10" s="5" t="n"/>
+      <c r="CA10" s="5" t="n"/>
+      <c r="CB10" s="5" t="n"/>
+      <c r="CC10" s="5" t="n"/>
+      <c r="CD10" s="5" t="n"/>
+      <c r="CE10" s="5" t="n"/>
+      <c r="CF10" s="5" t="n"/>
+      <c r="CG10" s="5" t="n"/>
+      <c r="CH10" s="5" t="n"/>
+      <c r="CI10" s="6" t="n"/>
+      <c r="CJ10" s="16" t="inlineStr">
         <is>
           <t>схватка</t>
         </is>
       </c>
-      <c r="AU10" s="4" t="n"/>
-      <c r="AV10" s="4" t="n"/>
-      <c r="AW10" s="4" t="n"/>
-      <c r="AX10" s="4" t="n"/>
-      <c r="AY10" s="5" t="n"/>
-      <c r="AZ10" s="16" t="inlineStr">
+      <c r="CK10" s="5" t="n"/>
+      <c r="CL10" s="5" t="n"/>
+      <c r="CM10" s="5" t="n"/>
+      <c r="CN10" s="5" t="n"/>
+      <c r="CO10" s="6" t="n"/>
+      <c r="CP10" s="17" t="inlineStr">
         <is>
           <t>резка/обсушка</t>
         </is>
       </c>
-      <c r="BA10" s="4" t="n"/>
-      <c r="BB10" s="4" t="n"/>
-      <c r="BC10" s="4" t="n"/>
-      <c r="BD10" s="4" t="n"/>
-      <c r="BE10" s="4" t="n"/>
-      <c r="BF10" s="5" t="n"/>
-      <c r="BG10" s="17" t="inlineStr">
+      <c r="CQ10" s="5" t="n"/>
+      <c r="CR10" s="5" t="n"/>
+      <c r="CS10" s="6" t="n"/>
+      <c r="CT10" s="18" t="inlineStr">
         <is>
           <t>слив</t>
         </is>
       </c>
-      <c r="BH10" s="4" t="n"/>
-      <c r="BI10" s="5" t="n"/>
-      <c r="BJ10" s="10" t="inlineStr"/>
-      <c r="BK10" s="5" t="n"/>
-      <c r="CA10" s="14" t="inlineStr">
+      <c r="CU10" s="5" t="n"/>
+      <c r="CV10" s="6" t="n"/>
+      <c r="CW10" s="11" t="inlineStr"/>
+      <c r="CX10" s="6" t="n"/>
+      <c r="DG10" s="15" t="inlineStr">
         <is>
           <t>налив/внесение
 закваски</t>
         </is>
       </c>
-      <c r="CB10" s="4" t="n"/>
-      <c r="CC10" s="4" t="n"/>
-      <c r="CD10" s="4" t="n"/>
-      <c r="CE10" s="4" t="n"/>
-      <c r="CF10" s="4" t="n"/>
-      <c r="CG10" s="4" t="n"/>
-      <c r="CH10" s="4" t="n"/>
-      <c r="CI10" s="4" t="n"/>
-      <c r="CJ10" s="4" t="n"/>
-      <c r="CK10" s="4" t="n"/>
-      <c r="CL10" s="5" t="n"/>
-      <c r="CM10" s="15" t="inlineStr">
+      <c r="DH10" s="5" t="n"/>
+      <c r="DI10" s="5" t="n"/>
+      <c r="DJ10" s="5" t="n"/>
+      <c r="DK10" s="5" t="n"/>
+      <c r="DL10" s="5" t="n"/>
+      <c r="DM10" s="5" t="n"/>
+      <c r="DN10" s="5" t="n"/>
+      <c r="DO10" s="5" t="n"/>
+      <c r="DP10" s="5" t="n"/>
+      <c r="DQ10" s="5" t="n"/>
+      <c r="DR10" s="6" t="n"/>
+      <c r="DS10" s="16" t="inlineStr">
         <is>
           <t>схватка</t>
         </is>
       </c>
-      <c r="CN10" s="4" t="n"/>
-      <c r="CO10" s="4" t="n"/>
-      <c r="CP10" s="4" t="n"/>
-      <c r="CQ10" s="4" t="n"/>
-      <c r="CR10" s="5" t="n"/>
-      <c r="CS10" s="16" t="inlineStr">
+      <c r="DT10" s="5" t="n"/>
+      <c r="DU10" s="5" t="n"/>
+      <c r="DV10" s="5" t="n"/>
+      <c r="DW10" s="5" t="n"/>
+      <c r="DX10" s="6" t="n"/>
+      <c r="DY10" s="17" t="inlineStr">
         <is>
           <t>резка/обсушка</t>
         </is>
       </c>
-      <c r="CT10" s="4" t="n"/>
-      <c r="CU10" s="4" t="n"/>
-      <c r="CV10" s="5" t="n"/>
-      <c r="CW10" s="17" t="inlineStr">
+      <c r="DZ10" s="5" t="n"/>
+      <c r="EA10" s="5" t="n"/>
+      <c r="EB10" s="6" t="n"/>
+      <c r="EC10" s="18" t="inlineStr">
         <is>
           <t>слив</t>
         </is>
       </c>
-      <c r="CX10" s="4" t="n"/>
-      <c r="CY10" s="5" t="n"/>
-      <c r="CZ10" s="10" t="inlineStr"/>
-      <c r="DA10" s="5" t="n"/>
-      <c r="DG10" s="14" t="inlineStr">
+      <c r="ED10" s="5" t="n"/>
+      <c r="EE10" s="6" t="n"/>
+      <c r="EF10" s="11" t="inlineStr"/>
+      <c r="EG10" s="6" t="n"/>
+      <c r="EU10" s="15" t="inlineStr">
         <is>
           <t>налив/внесение
 закваски</t>
         </is>
       </c>
-      <c r="DH10" s="4" t="n"/>
-      <c r="DI10" s="4" t="n"/>
-      <c r="DJ10" s="4" t="n"/>
-      <c r="DK10" s="4" t="n"/>
-      <c r="DL10" s="4" t="n"/>
-      <c r="DM10" s="4" t="n"/>
-      <c r="DN10" s="4" t="n"/>
-      <c r="DO10" s="4" t="n"/>
-      <c r="DP10" s="4" t="n"/>
-      <c r="DQ10" s="4" t="n"/>
-      <c r="DR10" s="5" t="n"/>
-      <c r="DS10" s="15" t="inlineStr">
+      <c r="EV10" s="5" t="n"/>
+      <c r="EW10" s="5" t="n"/>
+      <c r="EX10" s="5" t="n"/>
+      <c r="EY10" s="5" t="n"/>
+      <c r="EZ10" s="5" t="n"/>
+      <c r="FA10" s="5" t="n"/>
+      <c r="FB10" s="5" t="n"/>
+      <c r="FC10" s="5" t="n"/>
+      <c r="FD10" s="5" t="n"/>
+      <c r="FE10" s="5" t="n"/>
+      <c r="FF10" s="6" t="n"/>
+      <c r="FG10" s="16" t="inlineStr">
         <is>
           <t>схватка</t>
         </is>
       </c>
-      <c r="DT10" s="4" t="n"/>
-      <c r="DU10" s="4" t="n"/>
-      <c r="DV10" s="4" t="n"/>
-      <c r="DW10" s="4" t="n"/>
-      <c r="DX10" s="5" t="n"/>
-      <c r="DY10" s="16" t="inlineStr">
+      <c r="FH10" s="5" t="n"/>
+      <c r="FI10" s="5" t="n"/>
+      <c r="FJ10" s="5" t="n"/>
+      <c r="FK10" s="5" t="n"/>
+      <c r="FL10" s="6" t="n"/>
+      <c r="FM10" s="17" t="inlineStr">
         <is>
           <t>резка/обсушка</t>
         </is>
       </c>
-      <c r="DZ10" s="4" t="n"/>
-      <c r="EA10" s="4" t="n"/>
-      <c r="EB10" s="5" t="n"/>
-      <c r="EC10" s="17" t="inlineStr">
+      <c r="FN10" s="5" t="n"/>
+      <c r="FO10" s="5" t="n"/>
+      <c r="FP10" s="6" t="n"/>
+      <c r="FQ10" s="18" t="inlineStr">
         <is>
           <t>слив</t>
         </is>
       </c>
-      <c r="ED10" s="4" t="n"/>
-      <c r="EE10" s="5" t="n"/>
-      <c r="EF10" s="10" t="inlineStr"/>
-      <c r="EG10" s="5" t="n"/>
+      <c r="FR10" s="5" t="n"/>
+      <c r="FS10" s="6" t="n"/>
+      <c r="FT10" s="11" t="inlineStr"/>
+      <c r="FU10" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="18" t="inlineStr">
+      <c r="B12" s="19" t="inlineStr">
         <is>
           <t>Мойка термизатора</t>
         </is>
       </c>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
-      <c r="BS12" s="19" t="inlineStr">
+      <c r="C12" s="9" t="n"/>
+      <c r="D12" s="10" t="n"/>
+      <c r="AL12" s="20" t="inlineStr">
+        <is>
+          <t>полная мойка термизатора</t>
+        </is>
+      </c>
+      <c r="AM12" s="9" t="n"/>
+      <c r="AN12" s="9" t="n"/>
+      <c r="AO12" s="9" t="n"/>
+      <c r="AP12" s="9" t="n"/>
+      <c r="AQ12" s="9" t="n"/>
+      <c r="AR12" s="9" t="n"/>
+      <c r="AS12" s="9" t="n"/>
+      <c r="AT12" s="9" t="n"/>
+      <c r="AU12" s="9" t="n"/>
+      <c r="AV12" s="9" t="n"/>
+      <c r="AW12" s="9" t="n"/>
+      <c r="AX12" s="9" t="n"/>
+      <c r="AY12" s="9" t="n"/>
+      <c r="AZ12" s="9" t="n"/>
+      <c r="BA12" s="10" t="n"/>
+      <c r="CQ12" s="20" t="inlineStr">
+        <is>
+          <t>полная мойка термизатора</t>
+        </is>
+      </c>
+      <c r="CR12" s="9" t="n"/>
+      <c r="CS12" s="9" t="n"/>
+      <c r="CT12" s="9" t="n"/>
+      <c r="CU12" s="9" t="n"/>
+      <c r="CV12" s="9" t="n"/>
+      <c r="CW12" s="9" t="n"/>
+      <c r="CX12" s="9" t="n"/>
+      <c r="CY12" s="9" t="n"/>
+      <c r="CZ12" s="9" t="n"/>
+      <c r="DA12" s="9" t="n"/>
+      <c r="DB12" s="9" t="n"/>
+      <c r="DC12" s="9" t="n"/>
+      <c r="DD12" s="9" t="n"/>
+      <c r="DE12" s="9" t="n"/>
+      <c r="DF12" s="10" t="n"/>
+      <c r="DR12" s="20" t="inlineStr">
         <is>
           <t>короткая мойка
 термизатора</t>
         </is>
       </c>
-      <c r="BT12" s="8" t="n"/>
-      <c r="BU12" s="8" t="n"/>
-      <c r="BV12" s="8" t="n"/>
-      <c r="BW12" s="8" t="n"/>
-      <c r="BX12" s="8" t="n"/>
-      <c r="BY12" s="8" t="n"/>
-      <c r="BZ12" s="9" t="n"/>
-      <c r="DN12" s="19" t="inlineStr">
+      <c r="DS12" s="9" t="n"/>
+      <c r="DT12" s="9" t="n"/>
+      <c r="DU12" s="9" t="n"/>
+      <c r="DV12" s="9" t="n"/>
+      <c r="DW12" s="9" t="n"/>
+      <c r="DX12" s="9" t="n"/>
+      <c r="DY12" s="10" t="n"/>
+      <c r="EM12" s="20" t="inlineStr">
+        <is>
+          <t>короткая мойка
+термизатора</t>
+        </is>
+      </c>
+      <c r="EN12" s="9" t="n"/>
+      <c r="EO12" s="9" t="n"/>
+      <c r="EP12" s="9" t="n"/>
+      <c r="EQ12" s="9" t="n"/>
+      <c r="ER12" s="9" t="n"/>
+      <c r="ES12" s="9" t="n"/>
+      <c r="ET12" s="10" t="n"/>
+      <c r="FB12" s="20" t="inlineStr">
         <is>
           <t>полная мойка термизатора</t>
         </is>
       </c>
-      <c r="DO12" s="8" t="n"/>
-      <c r="DP12" s="8" t="n"/>
-      <c r="DQ12" s="8" t="n"/>
-      <c r="DR12" s="8" t="n"/>
-      <c r="DS12" s="8" t="n"/>
-      <c r="DT12" s="8" t="n"/>
-      <c r="DU12" s="8" t="n"/>
-      <c r="DV12" s="8" t="n"/>
-      <c r="DW12" s="8" t="n"/>
-      <c r="DX12" s="8" t="n"/>
-      <c r="DY12" s="8" t="n"/>
-      <c r="DZ12" s="8" t="n"/>
-      <c r="EA12" s="8" t="n"/>
-      <c r="EB12" s="8" t="n"/>
-      <c r="EC12" s="9" t="n"/>
+      <c r="FC12" s="9" t="n"/>
+      <c r="FD12" s="9" t="n"/>
+      <c r="FE12" s="9" t="n"/>
+      <c r="FF12" s="9" t="n"/>
+      <c r="FG12" s="9" t="n"/>
+      <c r="FH12" s="9" t="n"/>
+      <c r="FI12" s="9" t="n"/>
+      <c r="FJ12" s="9" t="n"/>
+      <c r="FK12" s="9" t="n"/>
+      <c r="FL12" s="9" t="n"/>
+      <c r="FM12" s="9" t="n"/>
+      <c r="FN12" s="9" t="n"/>
+      <c r="FO12" s="9" t="n"/>
+      <c r="FP12" s="9" t="n"/>
+      <c r="FQ12" s="10" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="11" t="n"/>
-      <c r="C13" s="12" t="n"/>
-      <c r="D13" s="13" t="n"/>
-      <c r="BS13" s="11" t="n"/>
-      <c r="BT13" s="12" t="n"/>
-      <c r="BU13" s="12" t="n"/>
-      <c r="BV13" s="12" t="n"/>
-      <c r="BW13" s="12" t="n"/>
-      <c r="BX13" s="12" t="n"/>
-      <c r="BY13" s="12" t="n"/>
-      <c r="BZ13" s="13" t="n"/>
-      <c r="DN13" s="11" t="n"/>
-      <c r="DO13" s="12" t="n"/>
-      <c r="DP13" s="12" t="n"/>
-      <c r="DQ13" s="12" t="n"/>
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" s="13" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="AL13" s="12" t="n"/>
+      <c r="AM13" s="13" t="n"/>
+      <c r="AN13" s="13" t="n"/>
+      <c r="AO13" s="13" t="n"/>
+      <c r="AP13" s="13" t="n"/>
+      <c r="AQ13" s="13" t="n"/>
+      <c r="AR13" s="13" t="n"/>
+      <c r="AS13" s="13" t="n"/>
+      <c r="AT13" s="13" t="n"/>
+      <c r="AU13" s="13" t="n"/>
+      <c r="AV13" s="13" t="n"/>
+      <c r="AW13" s="13" t="n"/>
+      <c r="AX13" s="13" t="n"/>
+      <c r="AY13" s="13" t="n"/>
+      <c r="AZ13" s="13" t="n"/>
+      <c r="BA13" s="14" t="n"/>
+      <c r="CQ13" s="12" t="n"/>
+      <c r="CR13" s="13" t="n"/>
+      <c r="CS13" s="13" t="n"/>
+      <c r="CT13" s="13" t="n"/>
+      <c r="CU13" s="13" t="n"/>
+      <c r="CV13" s="13" t="n"/>
+      <c r="CW13" s="13" t="n"/>
+      <c r="CX13" s="13" t="n"/>
+      <c r="CY13" s="13" t="n"/>
+      <c r="CZ13" s="13" t="n"/>
+      <c r="DA13" s="13" t="n"/>
+      <c r="DB13" s="13" t="n"/>
+      <c r="DC13" s="13" t="n"/>
+      <c r="DD13" s="13" t="n"/>
+      <c r="DE13" s="13" t="n"/>
+      <c r="DF13" s="14" t="n"/>
       <c r="DR13" s="12" t="n"/>
-      <c r="DS13" s="12" t="n"/>
-      <c r="DT13" s="12" t="n"/>
-      <c r="DU13" s="12" t="n"/>
-      <c r="DV13" s="12" t="n"/>
-      <c r="DW13" s="12" t="n"/>
-      <c r="DX13" s="12" t="n"/>
-      <c r="DY13" s="12" t="n"/>
-      <c r="DZ13" s="12" t="n"/>
-      <c r="EA13" s="12" t="n"/>
-      <c r="EB13" s="12" t="n"/>
-      <c r="EC13" s="13" t="n"/>
+      <c r="DS13" s="13" t="n"/>
+      <c r="DT13" s="13" t="n"/>
+      <c r="DU13" s="13" t="n"/>
+      <c r="DV13" s="13" t="n"/>
+      <c r="DW13" s="13" t="n"/>
+      <c r="DX13" s="13" t="n"/>
+      <c r="DY13" s="14" t="n"/>
+      <c r="EM13" s="12" t="n"/>
+      <c r="EN13" s="13" t="n"/>
+      <c r="EO13" s="13" t="n"/>
+      <c r="EP13" s="13" t="n"/>
+      <c r="EQ13" s="13" t="n"/>
+      <c r="ER13" s="13" t="n"/>
+      <c r="ES13" s="13" t="n"/>
+      <c r="ET13" s="14" t="n"/>
+      <c r="FB13" s="12" t="n"/>
+      <c r="FC13" s="13" t="n"/>
+      <c r="FD13" s="13" t="n"/>
+      <c r="FE13" s="13" t="n"/>
+      <c r="FF13" s="13" t="n"/>
+      <c r="FG13" s="13" t="n"/>
+      <c r="FH13" s="13" t="n"/>
+      <c r="FI13" s="13" t="n"/>
+      <c r="FJ13" s="13" t="n"/>
+      <c r="FK13" s="13" t="n"/>
+      <c r="FL13" s="13" t="n"/>
+      <c r="FM13" s="13" t="n"/>
+      <c r="FN13" s="13" t="n"/>
+      <c r="FO13" s="13" t="n"/>
+      <c r="FP13" s="13" t="n"/>
+      <c r="FQ13" s="14" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="20" t="inlineStr">
+      <c r="B15" s="21" t="inlineStr">
         <is>
           <t>Сыроизготовитель №3 Poly 3</t>
         </is>
       </c>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
-      <c r="W15" s="10" t="inlineStr">
+      <c r="C15" s="9" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="W15" s="11" t="inlineStr">
         <is>
           <t>2 налив</t>
         </is>
       </c>
-      <c r="X15" s="4" t="n"/>
-      <c r="Y15" s="4" t="n"/>
-      <c r="Z15" s="4" t="n"/>
-      <c r="AA15" s="4" t="n"/>
-      <c r="AB15" s="5" t="n"/>
-      <c r="AC15" s="10" t="inlineStr">
+      <c r="X15" s="5" t="n"/>
+      <c r="Y15" s="5" t="n"/>
+      <c r="Z15" s="5" t="n"/>
+      <c r="AA15" s="5" t="n"/>
+      <c r="AB15" s="6" t="n"/>
+      <c r="AC15" s="11" t="inlineStr">
         <is>
           <t>2.7 Альче с лактозой 8000кг</t>
         </is>
       </c>
-      <c r="AD15" s="4" t="n"/>
-      <c r="AE15" s="4" t="n"/>
-      <c r="AF15" s="4" t="n"/>
-      <c r="AG15" s="4" t="n"/>
-      <c r="AH15" s="4" t="n"/>
-      <c r="AI15" s="4" t="n"/>
-      <c r="AJ15" s="4" t="n"/>
-      <c r="AK15" s="4" t="n"/>
-      <c r="AL15" s="4" t="n"/>
-      <c r="AM15" s="4" t="n"/>
-      <c r="AN15" s="4" t="n"/>
-      <c r="AO15" s="4" t="n"/>
-      <c r="AP15" s="4" t="n"/>
-      <c r="AQ15" s="4" t="n"/>
-      <c r="AR15" s="4" t="n"/>
-      <c r="AS15" s="4" t="n"/>
-      <c r="AT15" s="4" t="n"/>
-      <c r="AU15" s="4" t="n"/>
-      <c r="AV15" s="4" t="n"/>
-      <c r="AW15" s="5" t="n"/>
-      <c r="BD15" s="10" t="inlineStr">
-        <is>
-          <t>5 налив</t>
-        </is>
-      </c>
-      <c r="BE15" s="4" t="n"/>
-      <c r="BF15" s="4" t="n"/>
-      <c r="BG15" s="4" t="n"/>
-      <c r="BH15" s="4" t="n"/>
+      <c r="AD15" s="5" t="n"/>
+      <c r="AE15" s="5" t="n"/>
+      <c r="AF15" s="5" t="n"/>
+      <c r="AG15" s="5" t="n"/>
+      <c r="AH15" s="5" t="n"/>
+      <c r="AI15" s="5" t="n"/>
+      <c r="AJ15" s="5" t="n"/>
+      <c r="AK15" s="5" t="n"/>
+      <c r="AL15" s="5" t="n"/>
+      <c r="AM15" s="5" t="n"/>
+      <c r="AN15" s="5" t="n"/>
+      <c r="AO15" s="5" t="n"/>
+      <c r="AP15" s="5" t="n"/>
+      <c r="AQ15" s="5" t="n"/>
+      <c r="AR15" s="5" t="n"/>
+      <c r="AS15" s="5" t="n"/>
+      <c r="AT15" s="5" t="n"/>
+      <c r="AU15" s="5" t="n"/>
+      <c r="AV15" s="5" t="n"/>
+      <c r="AW15" s="6" t="n"/>
+      <c r="BH15" s="11" t="inlineStr">
+        <is>
+          <t>4 налив</t>
+        </is>
+      </c>
       <c r="BI15" s="5" t="n"/>
-      <c r="BJ15" s="10" t="inlineStr">
+      <c r="BJ15" s="5" t="n"/>
+      <c r="BK15" s="5" t="n"/>
+      <c r="BL15" s="5" t="n"/>
+      <c r="BM15" s="6" t="n"/>
+      <c r="BN15" s="11" t="inlineStr">
         <is>
           <t>2.7 Альче с лактозой 8000кг</t>
         </is>
       </c>
-      <c r="BK15" s="4" t="n"/>
-      <c r="BL15" s="4" t="n"/>
-      <c r="BM15" s="4" t="n"/>
-      <c r="BN15" s="4" t="n"/>
-      <c r="BO15" s="4" t="n"/>
-      <c r="BP15" s="4" t="n"/>
-      <c r="BQ15" s="4" t="n"/>
-      <c r="BR15" s="4" t="n"/>
-      <c r="BS15" s="4" t="n"/>
-      <c r="BT15" s="4" t="n"/>
-      <c r="BU15" s="4" t="n"/>
-      <c r="BV15" s="4" t="n"/>
-      <c r="BW15" s="4" t="n"/>
-      <c r="BX15" s="4" t="n"/>
-      <c r="BY15" s="4" t="n"/>
-      <c r="BZ15" s="4" t="n"/>
-      <c r="CA15" s="4" t="n"/>
-      <c r="CB15" s="4" t="n"/>
-      <c r="CC15" s="4" t="n"/>
+      <c r="BO15" s="5" t="n"/>
+      <c r="BP15" s="5" t="n"/>
+      <c r="BQ15" s="5" t="n"/>
+      <c r="BR15" s="5" t="n"/>
+      <c r="BS15" s="5" t="n"/>
+      <c r="BT15" s="5" t="n"/>
+      <c r="BU15" s="5" t="n"/>
+      <c r="BV15" s="5" t="n"/>
+      <c r="BW15" s="5" t="n"/>
+      <c r="BX15" s="5" t="n"/>
+      <c r="BY15" s="5" t="n"/>
+      <c r="BZ15" s="5" t="n"/>
+      <c r="CA15" s="5" t="n"/>
+      <c r="CB15" s="5" t="n"/>
+      <c r="CC15" s="5" t="n"/>
       <c r="CD15" s="5" t="n"/>
-      <c r="CP15" s="10" t="inlineStr">
+      <c r="CE15" s="5" t="n"/>
+      <c r="CF15" s="5" t="n"/>
+      <c r="CG15" s="5" t="n"/>
+      <c r="CH15" s="6" t="n"/>
+      <c r="DZ15" s="11" t="inlineStr">
         <is>
           <t>7 налив</t>
         </is>
       </c>
-      <c r="CQ15" s="4" t="n"/>
-      <c r="CR15" s="4" t="n"/>
-      <c r="CS15" s="4" t="n"/>
-      <c r="CT15" s="4" t="n"/>
-      <c r="CU15" s="5" t="n"/>
-      <c r="CV15" s="10" t="inlineStr">
+      <c r="EA15" s="5" t="n"/>
+      <c r="EB15" s="5" t="n"/>
+      <c r="EC15" s="5" t="n"/>
+      <c r="ED15" s="5" t="n"/>
+      <c r="EE15" s="6" t="n"/>
+      <c r="EF15" s="11" t="inlineStr">
         <is>
           <t>2.7 Альче с лактозой 8000кг</t>
         </is>
       </c>
-      <c r="CW15" s="4" t="n"/>
-      <c r="CX15" s="4" t="n"/>
-      <c r="CY15" s="4" t="n"/>
-      <c r="CZ15" s="4" t="n"/>
-      <c r="DA15" s="4" t="n"/>
-      <c r="DB15" s="4" t="n"/>
-      <c r="DC15" s="4" t="n"/>
-      <c r="DD15" s="4" t="n"/>
-      <c r="DE15" s="4" t="n"/>
-      <c r="DF15" s="4" t="n"/>
-      <c r="DG15" s="4" t="n"/>
-      <c r="DH15" s="4" t="n"/>
-      <c r="DI15" s="4" t="n"/>
-      <c r="DJ15" s="4" t="n"/>
-      <c r="DK15" s="4" t="n"/>
-      <c r="DL15" s="4" t="n"/>
-      <c r="DM15" s="4" t="n"/>
-      <c r="DN15" s="4" t="n"/>
-      <c r="DO15" s="4" t="n"/>
-      <c r="DP15" s="5" t="n"/>
+      <c r="EG15" s="5" t="n"/>
+      <c r="EH15" s="5" t="n"/>
+      <c r="EI15" s="5" t="n"/>
+      <c r="EJ15" s="5" t="n"/>
+      <c r="EK15" s="5" t="n"/>
+      <c r="EL15" s="5" t="n"/>
+      <c r="EM15" s="5" t="n"/>
+      <c r="EN15" s="5" t="n"/>
+      <c r="EO15" s="5" t="n"/>
+      <c r="EP15" s="5" t="n"/>
+      <c r="EQ15" s="5" t="n"/>
+      <c r="ER15" s="5" t="n"/>
+      <c r="ES15" s="5" t="n"/>
+      <c r="ET15" s="5" t="n"/>
+      <c r="EU15" s="5" t="n"/>
+      <c r="EV15" s="5" t="n"/>
+      <c r="EW15" s="5" t="n"/>
+      <c r="EX15" s="5" t="n"/>
+      <c r="EY15" s="5" t="n"/>
+      <c r="EZ15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="11" t="n"/>
-      <c r="C16" s="12" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="W16" s="14" t="inlineStr">
+      <c r="B16" s="12" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="14" t="n"/>
+      <c r="W16" s="15" t="inlineStr">
         <is>
           <t>налив/внесение
 закваски</t>
         </is>
       </c>
-      <c r="X16" s="4" t="n"/>
-      <c r="Y16" s="4" t="n"/>
-      <c r="Z16" s="4" t="n"/>
-      <c r="AA16" s="4" t="n"/>
-      <c r="AB16" s="4" t="n"/>
-      <c r="AC16" s="4" t="n"/>
-      <c r="AD16" s="4" t="n"/>
-      <c r="AE16" s="4" t="n"/>
-      <c r="AF16" s="4" t="n"/>
-      <c r="AG16" s="4" t="n"/>
-      <c r="AH16" s="5" t="n"/>
-      <c r="AI16" s="15" t="inlineStr">
+      <c r="X16" s="5" t="n"/>
+      <c r="Y16" s="5" t="n"/>
+      <c r="Z16" s="5" t="n"/>
+      <c r="AA16" s="5" t="n"/>
+      <c r="AB16" s="5" t="n"/>
+      <c r="AC16" s="5" t="n"/>
+      <c r="AD16" s="5" t="n"/>
+      <c r="AE16" s="5" t="n"/>
+      <c r="AF16" s="5" t="n"/>
+      <c r="AG16" s="5" t="n"/>
+      <c r="AH16" s="6" t="n"/>
+      <c r="AI16" s="16" t="inlineStr">
         <is>
           <t>схватка</t>
         </is>
       </c>
-      <c r="AJ16" s="4" t="n"/>
-      <c r="AK16" s="4" t="n"/>
-      <c r="AL16" s="4" t="n"/>
-      <c r="AM16" s="4" t="n"/>
-      <c r="AN16" s="5" t="n"/>
-      <c r="AO16" s="16" t="inlineStr">
+      <c r="AJ16" s="5" t="n"/>
+      <c r="AK16" s="5" t="n"/>
+      <c r="AL16" s="5" t="n"/>
+      <c r="AM16" s="5" t="n"/>
+      <c r="AN16" s="6" t="n"/>
+      <c r="AO16" s="17" t="inlineStr">
         <is>
           <t>резка/обсушка</t>
         </is>
       </c>
-      <c r="AP16" s="4" t="n"/>
-      <c r="AQ16" s="4" t="n"/>
-      <c r="AR16" s="5" t="n"/>
-      <c r="AS16" s="17" t="inlineStr">
+      <c r="AP16" s="5" t="n"/>
+      <c r="AQ16" s="5" t="n"/>
+      <c r="AR16" s="6" t="n"/>
+      <c r="AS16" s="18" t="inlineStr">
         <is>
           <t>слив</t>
         </is>
       </c>
-      <c r="AT16" s="4" t="n"/>
-      <c r="AU16" s="5" t="n"/>
-      <c r="AV16" s="10" t="inlineStr"/>
-      <c r="AW16" s="5" t="n"/>
-      <c r="BD16" s="14" t="inlineStr">
+      <c r="AT16" s="5" t="n"/>
+      <c r="AU16" s="6" t="n"/>
+      <c r="AV16" s="11" t="inlineStr"/>
+      <c r="AW16" s="6" t="n"/>
+      <c r="BH16" s="15" t="inlineStr">
         <is>
           <t>налив/внесение
 закваски</t>
         </is>
       </c>
-      <c r="BE16" s="4" t="n"/>
-      <c r="BF16" s="4" t="n"/>
-      <c r="BG16" s="4" t="n"/>
-      <c r="BH16" s="4" t="n"/>
-      <c r="BI16" s="4" t="n"/>
-      <c r="BJ16" s="4" t="n"/>
-      <c r="BK16" s="4" t="n"/>
-      <c r="BL16" s="4" t="n"/>
-      <c r="BM16" s="4" t="n"/>
-      <c r="BN16" s="4" t="n"/>
+      <c r="BI16" s="5" t="n"/>
+      <c r="BJ16" s="5" t="n"/>
+      <c r="BK16" s="5" t="n"/>
+      <c r="BL16" s="5" t="n"/>
+      <c r="BM16" s="5" t="n"/>
+      <c r="BN16" s="5" t="n"/>
       <c r="BO16" s="5" t="n"/>
-      <c r="BP16" s="15" t="inlineStr">
+      <c r="BP16" s="5" t="n"/>
+      <c r="BQ16" s="5" t="n"/>
+      <c r="BR16" s="5" t="n"/>
+      <c r="BS16" s="6" t="n"/>
+      <c r="BT16" s="16" t="inlineStr">
         <is>
           <t>схватка</t>
         </is>
       </c>
-      <c r="BQ16" s="4" t="n"/>
-      <c r="BR16" s="4" t="n"/>
-      <c r="BS16" s="4" t="n"/>
-      <c r="BT16" s="4" t="n"/>
       <c r="BU16" s="5" t="n"/>
-      <c r="BV16" s="16" t="inlineStr">
+      <c r="BV16" s="5" t="n"/>
+      <c r="BW16" s="5" t="n"/>
+      <c r="BX16" s="5" t="n"/>
+      <c r="BY16" s="6" t="n"/>
+      <c r="BZ16" s="17" t="inlineStr">
         <is>
           <t>резка/обсушка</t>
         </is>
       </c>
-      <c r="BW16" s="4" t="n"/>
-      <c r="BX16" s="4" t="n"/>
-      <c r="BY16" s="5" t="n"/>
-      <c r="BZ16" s="17" t="inlineStr">
+      <c r="CA16" s="5" t="n"/>
+      <c r="CB16" s="5" t="n"/>
+      <c r="CC16" s="6" t="n"/>
+      <c r="CD16" s="18" t="inlineStr">
         <is>
           <t>слив</t>
         </is>
       </c>
-      <c r="CA16" s="4" t="n"/>
-      <c r="CB16" s="5" t="n"/>
-      <c r="CC16" s="10" t="inlineStr"/>
-      <c r="CD16" s="5" t="n"/>
-      <c r="CP16" s="14" t="inlineStr">
+      <c r="CE16" s="5" t="n"/>
+      <c r="CF16" s="6" t="n"/>
+      <c r="CG16" s="11" t="inlineStr"/>
+      <c r="CH16" s="6" t="n"/>
+      <c r="DZ16" s="15" t="inlineStr">
         <is>
           <t>налив/внесение
 закваски</t>
         </is>
       </c>
-      <c r="CQ16" s="4" t="n"/>
-      <c r="CR16" s="4" t="n"/>
-      <c r="CS16" s="4" t="n"/>
-      <c r="CT16" s="4" t="n"/>
-      <c r="CU16" s="4" t="n"/>
-      <c r="CV16" s="4" t="n"/>
-      <c r="CW16" s="4" t="n"/>
-      <c r="CX16" s="4" t="n"/>
-      <c r="CY16" s="4" t="n"/>
-      <c r="CZ16" s="4" t="n"/>
-      <c r="DA16" s="5" t="n"/>
-      <c r="DB16" s="15" t="inlineStr">
+      <c r="EA16" s="5" t="n"/>
+      <c r="EB16" s="5" t="n"/>
+      <c r="EC16" s="5" t="n"/>
+      <c r="ED16" s="5" t="n"/>
+      <c r="EE16" s="5" t="n"/>
+      <c r="EF16" s="5" t="n"/>
+      <c r="EG16" s="5" t="n"/>
+      <c r="EH16" s="5" t="n"/>
+      <c r="EI16" s="5" t="n"/>
+      <c r="EJ16" s="5" t="n"/>
+      <c r="EK16" s="6" t="n"/>
+      <c r="EL16" s="16" t="inlineStr">
         <is>
           <t>схватка</t>
         </is>
       </c>
-      <c r="DC16" s="4" t="n"/>
-      <c r="DD16" s="4" t="n"/>
-      <c r="DE16" s="4" t="n"/>
-      <c r="DF16" s="4" t="n"/>
-      <c r="DG16" s="5" t="n"/>
-      <c r="DH16" s="16" t="inlineStr">
+      <c r="EM16" s="5" t="n"/>
+      <c r="EN16" s="5" t="n"/>
+      <c r="EO16" s="5" t="n"/>
+      <c r="EP16" s="5" t="n"/>
+      <c r="EQ16" s="6" t="n"/>
+      <c r="ER16" s="17" t="inlineStr">
         <is>
           <t>резка/обсушка</t>
         </is>
       </c>
-      <c r="DI16" s="4" t="n"/>
-      <c r="DJ16" s="4" t="n"/>
-      <c r="DK16" s="5" t="n"/>
-      <c r="DL16" s="17" t="inlineStr">
+      <c r="ES16" s="5" t="n"/>
+      <c r="ET16" s="5" t="n"/>
+      <c r="EU16" s="6" t="n"/>
+      <c r="EV16" s="18" t="inlineStr">
         <is>
           <t>слив</t>
         </is>
       </c>
-      <c r="DM16" s="4" t="n"/>
-      <c r="DN16" s="5" t="n"/>
-      <c r="DO16" s="10" t="inlineStr"/>
-      <c r="DP16" s="5" t="n"/>
+      <c r="EW16" s="5" t="n"/>
+      <c r="EX16" s="6" t="n"/>
+      <c r="EY16" s="11" t="inlineStr"/>
+      <c r="EZ16" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="20" t="inlineStr">
+      <c r="B18" s="21" t="inlineStr">
         <is>
           <t>Сыроизготовитель №4 Poly 4</t>
         </is>
       </c>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="9" t="n"/>
-      <c r="AR18" s="10" t="inlineStr">
-        <is>
-          <t>4 налив</t>
-        </is>
-      </c>
-      <c r="AS18" s="4" t="n"/>
-      <c r="AT18" s="4" t="n"/>
-      <c r="AU18" s="4" t="n"/>
-      <c r="AV18" s="4" t="n"/>
-      <c r="AW18" s="5" t="n"/>
-      <c r="AX18" s="10" t="inlineStr">
-        <is>
-          <t>2.7 Альче с лактозой 8000кг</t>
-        </is>
-      </c>
-      <c r="AY18" s="4" t="n"/>
-      <c r="AZ18" s="4" t="n"/>
-      <c r="BA18" s="4" t="n"/>
-      <c r="BB18" s="4" t="n"/>
-      <c r="BC18" s="4" t="n"/>
-      <c r="BD18" s="4" t="n"/>
-      <c r="BE18" s="4" t="n"/>
-      <c r="BF18" s="4" t="n"/>
-      <c r="BG18" s="4" t="n"/>
-      <c r="BH18" s="4" t="n"/>
-      <c r="BI18" s="4" t="n"/>
-      <c r="BJ18" s="4" t="n"/>
-      <c r="BK18" s="4" t="n"/>
-      <c r="BL18" s="4" t="n"/>
-      <c r="BM18" s="4" t="n"/>
-      <c r="BN18" s="4" t="n"/>
-      <c r="BO18" s="4" t="n"/>
-      <c r="BP18" s="4" t="n"/>
-      <c r="BQ18" s="4" t="n"/>
-      <c r="BR18" s="5" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="10" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="AR19" s="14" t="inlineStr">
-        <is>
-          <t>налив/внесение
-закваски</t>
-        </is>
-      </c>
-      <c r="AS19" s="4" t="n"/>
-      <c r="AT19" s="4" t="n"/>
-      <c r="AU19" s="4" t="n"/>
-      <c r="AV19" s="4" t="n"/>
-      <c r="AW19" s="4" t="n"/>
-      <c r="AX19" s="4" t="n"/>
-      <c r="AY19" s="4" t="n"/>
-      <c r="AZ19" s="4" t="n"/>
-      <c r="BA19" s="4" t="n"/>
-      <c r="BB19" s="4" t="n"/>
-      <c r="BC19" s="5" t="n"/>
-      <c r="BD19" s="15" t="inlineStr">
-        <is>
-          <t>схватка</t>
-        </is>
-      </c>
-      <c r="BE19" s="4" t="n"/>
-      <c r="BF19" s="4" t="n"/>
-      <c r="BG19" s="4" t="n"/>
-      <c r="BH19" s="4" t="n"/>
-      <c r="BI19" s="5" t="n"/>
-      <c r="BJ19" s="16" t="inlineStr">
-        <is>
-          <t>резка/обсушка</t>
-        </is>
-      </c>
-      <c r="BK19" s="4" t="n"/>
-      <c r="BL19" s="4" t="n"/>
-      <c r="BM19" s="5" t="n"/>
-      <c r="BN19" s="17" t="inlineStr">
-        <is>
-          <t>слив</t>
-        </is>
-      </c>
-      <c r="BO19" s="4" t="n"/>
-      <c r="BP19" s="5" t="n"/>
-      <c r="BQ19" s="10" t="inlineStr"/>
-      <c r="BR19" s="5" t="n"/>
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="14" t="n"/>
     </row>
     <row r="21">
-      <c r="E21" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>График цеха плавления</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="H21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="I21" s="2" t="inlineStr">
+      <c r="I21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
+      <c r="J21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="K21" s="2" t="inlineStr">
+      <c r="K21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="L21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="M21" s="2" t="inlineStr">
+      <c r="M21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="N21" s="2" t="inlineStr">
+      <c r="N21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="O21" s="2" t="inlineStr">
+      <c r="O21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P21" s="2" t="inlineStr">
+      <c r="P21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="Q21" s="1" t="inlineStr">
+      <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="S21" s="2" t="inlineStr">
+      <c r="S21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr">
+      <c r="T21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="U21" s="2" t="inlineStr">
+      <c r="U21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="V21" s="2" t="inlineStr">
+      <c r="V21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="W21" s="2" t="inlineStr">
+      <c r="W21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="X21" s="2" t="inlineStr">
+      <c r="X21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="Y21" s="2" t="inlineStr">
+      <c r="Y21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Z21" s="2" t="inlineStr">
+      <c r="Z21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AA21" s="2" t="inlineStr">
+      <c r="AA21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AB21" s="2" t="inlineStr">
+      <c r="AB21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AC21" s="1" t="inlineStr">
+      <c r="AC21" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AD21" s="2" t="inlineStr">
+      <c r="AD21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="AE21" s="2" t="inlineStr">
+      <c r="AE21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AF21" s="2" t="inlineStr">
+      <c r="AF21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG21" s="2" t="inlineStr">
+      <c r="AG21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH21" s="2" t="inlineStr">
+      <c r="AH21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AI21" s="2" t="inlineStr">
+      <c r="AI21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AJ21" s="2" t="inlineStr">
+      <c r="AJ21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AK21" s="2" t="inlineStr">
+      <c r="AK21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AL21" s="2" t="inlineStr">
+      <c r="AL21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AM21" s="2" t="inlineStr">
+      <c r="AM21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AN21" s="2" t="inlineStr">
+      <c r="AN21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AO21" s="1" t="inlineStr">
+      <c r="AO21" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AP21" s="2" t="inlineStr">
+      <c r="AP21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="AQ21" s="2" t="inlineStr">
+      <c r="AQ21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AR21" s="2" t="inlineStr">
+      <c r="AR21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AS21" s="2" t="inlineStr">
+      <c r="AS21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AT21" s="2" t="inlineStr">
+      <c r="AT21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AU21" s="2" t="inlineStr">
+      <c r="AU21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AV21" s="2" t="inlineStr">
+      <c r="AV21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AW21" s="2" t="inlineStr">
+      <c r="AW21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AX21" s="2" t="inlineStr">
+      <c r="AX21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AY21" s="2" t="inlineStr">
+      <c r="AY21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AZ21" s="2" t="inlineStr">
+      <c r="AZ21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="BA21" s="1" t="inlineStr">
+      <c r="BA21" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="BB21" s="2" t="inlineStr">
+      <c r="BB21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="BC21" s="2" t="inlineStr">
+      <c r="BC21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="BD21" s="2" t="inlineStr">
+      <c r="BD21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="BE21" s="2" t="inlineStr">
+      <c r="BE21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="BF21" s="2" t="inlineStr">
+      <c r="BF21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="BG21" s="2" t="inlineStr">
+      <c r="BG21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="BH21" s="2" t="inlineStr">
+      <c r="BH21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="BI21" s="2" t="inlineStr">
+      <c r="BI21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="BJ21" s="2" t="inlineStr">
+      <c r="BJ21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="BK21" s="2" t="inlineStr">
+      <c r="BK21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="BL21" s="2" t="inlineStr">
+      <c r="BL21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="BM21" s="1" t="inlineStr">
+      <c r="BM21" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="BN21" s="2" t="inlineStr">
+      <c r="BN21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="BO21" s="2" t="inlineStr">
+      <c r="BO21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="BP21" s="2" t="inlineStr">
+      <c r="BP21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="BQ21" s="2" t="inlineStr">
+      <c r="BQ21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="BR21" s="2" t="inlineStr">
+      <c r="BR21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="BS21" s="2" t="inlineStr">
+      <c r="BS21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="BT21" s="2" t="inlineStr">
+      <c r="BT21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="BU21" s="2" t="inlineStr">
+      <c r="BU21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="BV21" s="2" t="inlineStr">
+      <c r="BV21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="BW21" s="2" t="inlineStr">
+      <c r="BW21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="BX21" s="2" t="inlineStr">
+      <c r="BX21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="BY21" s="1" t="inlineStr">
+      <c r="BY21" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="BZ21" s="2" t="inlineStr">
+      <c r="BZ21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="CA21" s="2" t="inlineStr">
+      <c r="CA21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="CB21" s="2" t="inlineStr">
+      <c r="CB21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="CC21" s="2" t="inlineStr">
+      <c r="CC21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="CD21" s="2" t="inlineStr">
+      <c r="CD21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="CE21" s="2" t="inlineStr">
+      <c r="CE21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="CF21" s="2" t="inlineStr">
+      <c r="CF21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="CG21" s="2" t="inlineStr">
+      <c r="CG21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="CH21" s="2" t="inlineStr">
+      <c r="CH21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="CI21" s="2" t="inlineStr">
+      <c r="CI21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="CJ21" s="2" t="inlineStr">
+      <c r="CJ21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="CK21" s="1" t="inlineStr">
+      <c r="CK21" s="2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="CL21" s="2" t="inlineStr">
+      <c r="CL21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="CM21" s="2" t="inlineStr">
+      <c r="CM21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="CN21" s="2" t="inlineStr">
+      <c r="CN21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="CO21" s="2" t="inlineStr">
+      <c r="CO21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="CP21" s="2" t="inlineStr">
+      <c r="CP21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="CQ21" s="2" t="inlineStr">
+      <c r="CQ21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="CR21" s="2" t="inlineStr">
+      <c r="CR21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="CS21" s="2" t="inlineStr">
+      <c r="CS21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="CT21" s="2" t="inlineStr">
+      <c r="CT21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="CU21" s="2" t="inlineStr">
+      <c r="CU21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="CV21" s="2" t="inlineStr">
+      <c r="CV21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="CW21" s="1" t="inlineStr">
+      <c r="CW21" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="CX21" s="2" t="inlineStr">
+      <c r="CX21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="CY21" s="2" t="inlineStr">
+      <c r="CY21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="CZ21" s="2" t="inlineStr">
+      <c r="CZ21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="DA21" s="2" t="inlineStr">
+      <c r="DA21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="DB21" s="2" t="inlineStr">
+      <c r="DB21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="DC21" s="2" t="inlineStr">
+      <c r="DC21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="DD21" s="2" t="inlineStr">
+      <c r="DD21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="DE21" s="2" t="inlineStr">
+      <c r="DE21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="DF21" s="2" t="inlineStr">
+      <c r="DF21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="DG21" s="2" t="inlineStr">
+      <c r="DG21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="DH21" s="2" t="inlineStr">
+      <c r="DH21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="DI21" s="1" t="inlineStr">
+      <c r="DI21" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="DJ21" s="2" t="inlineStr">
+      <c r="DJ21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="DK21" s="2" t="inlineStr">
+      <c r="DK21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DL21" s="2" t="inlineStr">
+      <c r="DL21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="DM21" s="2" t="inlineStr">
+      <c r="DM21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="DN21" s="2" t="inlineStr">
+      <c r="DN21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="DO21" s="2" t="inlineStr">
+      <c r="DO21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="DP21" s="2" t="inlineStr">
+      <c r="DP21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="DQ21" s="2" t="inlineStr">
+      <c r="DQ21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="DR21" s="2" t="inlineStr">
+      <c r="DR21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="DS21" s="2" t="inlineStr">
+      <c r="DS21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="DT21" s="2" t="inlineStr">
+      <c r="DT21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="DU21" s="1" t="inlineStr">
+      <c r="DU21" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="DV21" s="2" t="inlineStr">
+      <c r="DV21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="DW21" s="2" t="inlineStr">
+      <c r="DW21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DX21" s="2" t="inlineStr">
+      <c r="DX21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="DY21" s="2" t="inlineStr">
+      <c r="DY21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="DZ21" s="2" t="inlineStr">
+      <c r="DZ21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="EA21" s="2" t="inlineStr">
+      <c r="EA21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="EB21" s="2" t="inlineStr">
+      <c r="EB21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="EC21" s="2" t="inlineStr">
+      <c r="EC21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="ED21" s="2" t="inlineStr">
+      <c r="ED21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="EE21" s="2" t="inlineStr">
+      <c r="EE21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="EF21" s="2" t="inlineStr">
+      <c r="EF21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="EG21" s="1" t="inlineStr">
+      <c r="EG21" s="2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="EH21" s="2" t="inlineStr">
+      <c r="EH21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="EI21" s="2" t="inlineStr">
+      <c r="EI21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ21" s="2" t="inlineStr">
+      <c r="EJ21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="EK21" s="2" t="inlineStr">
+      <c r="EK21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="EL21" s="2" t="inlineStr">
+      <c r="EL21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="EM21" s="2" t="inlineStr">
+      <c r="EM21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="EN21" s="2" t="inlineStr">
+      <c r="EN21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="EO21" s="2" t="inlineStr">
+      <c r="EO21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="EP21" s="2" t="inlineStr">
+      <c r="EP21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="EQ21" s="2" t="inlineStr">
+      <c r="EQ21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="ER21" s="2" t="inlineStr">
+      <c r="ER21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="ES21" s="1" t="inlineStr">
+      <c r="ES21" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="ET21" s="2" t="inlineStr">
+      <c r="ET21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="EU21" s="2" t="inlineStr">
+      <c r="EU21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EV21" s="2" t="inlineStr">
+      <c r="EV21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="EW21" s="2" t="inlineStr">
+      <c r="EW21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="EX21" s="2" t="inlineStr">
+      <c r="EX21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="EY21" s="2" t="inlineStr">
+      <c r="EY21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="EZ21" s="2" t="inlineStr">
+      <c r="EZ21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="FA21" s="2" t="inlineStr">
+      <c r="FA21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="FB21" s="2" t="inlineStr">
+      <c r="FB21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="FC21" s="2" t="inlineStr">
+      <c r="FC21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="FD21" s="2" t="inlineStr">
+      <c r="FD21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="FE21" s="1" t="inlineStr">
+      <c r="FE21" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="FF21" s="2" t="inlineStr">
+      <c r="FF21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="FG21" s="2" t="inlineStr">
+      <c r="FG21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="FH21" s="2" t="inlineStr">
+      <c r="FH21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="FI21" s="2" t="inlineStr">
+      <c r="FI21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="FJ21" s="2" t="inlineStr">
+      <c r="FJ21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="FK21" s="2" t="inlineStr">
+      <c r="FK21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="FL21" s="2" t="inlineStr">
+      <c r="FL21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="FM21" s="2" t="inlineStr">
+      <c r="FM21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="FN21" s="2" t="inlineStr">
+      <c r="FN21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="FO21" s="2" t="inlineStr">
+      <c r="FO21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="FP21" s="2" t="inlineStr">
+      <c r="FP21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="FQ21" s="1" t="inlineStr">
+      <c r="FQ21" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="FR21" s="2" t="inlineStr">
+      <c r="FR21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="FS21" s="2" t="inlineStr">
+      <c r="FS21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="FT21" s="2" t="inlineStr">
+      <c r="FT21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="FU21" s="2" t="inlineStr">
+      <c r="FU21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="FV21" s="2" t="inlineStr">
+      <c r="FV21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="FW21" s="2" t="inlineStr">
+      <c r="FW21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="FX21" s="2" t="inlineStr">
+      <c r="FX21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="FY21" s="2" t="inlineStr">
+      <c r="FY21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="FZ21" s="2" t="inlineStr">
+      <c r="FZ21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="GA21" s="2" t="inlineStr">
+      <c r="GA21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="GB21" s="2" t="inlineStr">
+      <c r="GB21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="GC21" s="1" t="inlineStr">
+      <c r="GC21" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="GD21" s="2" t="inlineStr">
+      <c r="GD21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="GE21" s="2" t="inlineStr">
+      <c r="GE21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="GF21" s="2" t="inlineStr">
+      <c r="GF21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="GG21" s="2" t="inlineStr">
+      <c r="GG21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="GH21" s="2" t="inlineStr">
+      <c r="GH21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="GI21" s="2" t="inlineStr">
+      <c r="GI21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="GJ21" s="2" t="inlineStr">
+      <c r="GJ21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="GK21" s="2" t="inlineStr">
+      <c r="GK21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="GL21" s="2" t="inlineStr">
+      <c r="GL21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="GM21" s="2" t="inlineStr">
+      <c r="GM21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="GN21" s="2" t="inlineStr">
+      <c r="GN21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="GO21" s="1" t="inlineStr">
+      <c r="GO21" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="GP21" s="2" t="inlineStr">
+      <c r="GP21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="GQ21" s="2" t="inlineStr">
+      <c r="GQ21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="GR21" s="2" t="inlineStr">
+      <c r="GR21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="GS21" s="2" t="inlineStr">
+      <c r="GS21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="GT21" s="2" t="inlineStr">
+      <c r="GT21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="GU21" s="2" t="inlineStr">
+      <c r="GU21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="GV21" s="2" t="inlineStr">
+      <c r="GV21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="GW21" s="2" t="inlineStr">
+      <c r="GW21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="GX21" s="2" t="inlineStr">
+      <c r="GX21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="GY21" s="2" t="inlineStr">
+      <c r="GY21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="GZ21" s="2" t="inlineStr">
+      <c r="GZ21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="HA21" s="1" t="inlineStr">
+      <c r="HA21" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="HB21" s="2" t="inlineStr">
+      <c r="HB21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="HC21" s="2" t="inlineStr">
+      <c r="HC21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="HD21" s="2" t="inlineStr">
+      <c r="HD21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="HE21" s="2" t="inlineStr">
+      <c r="HE21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="HF21" s="2" t="inlineStr">
+      <c r="HF21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="HG21" s="2" t="inlineStr">
+      <c r="HG21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="HH21" s="2" t="inlineStr">
+      <c r="HH21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="HI21" s="2" t="inlineStr">
+      <c r="HI21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="HJ21" s="2" t="inlineStr">
+      <c r="HJ21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="HK21" s="2" t="inlineStr">
+      <c r="HK21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="HL21" s="2" t="inlineStr">
+      <c r="HL21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="HM21" s="1" t="inlineStr">
+      <c r="HM21" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="HN21" s="2" t="inlineStr">
+      <c r="HN21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="HO21" s="2" t="inlineStr">
+      <c r="HO21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="HP21" s="2" t="inlineStr">
+      <c r="HP21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="HQ21" s="2" t="inlineStr">
+      <c r="HQ21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="HR21" s="2" t="inlineStr">
+      <c r="HR21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="HS21" s="2" t="inlineStr">
+      <c r="HS21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="HT21" s="2" t="inlineStr">
+      <c r="HT21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="HU21" s="2" t="inlineStr">
+      <c r="HU21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="HV21" s="2" t="inlineStr">
+      <c r="HV21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="HW21" s="2" t="inlineStr">
+      <c r="HW21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="HX21" s="2" t="inlineStr">
+      <c r="HX21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="HY21" s="1" t="inlineStr">
+      <c r="HY21" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="HZ21" s="2" t="inlineStr">
+      <c r="HZ21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="IA21" s="2" t="inlineStr">
+      <c r="IA21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="IB21" s="2" t="inlineStr">
+      <c r="IB21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="IC21" s="2" t="inlineStr">
+      <c r="IC21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="ID21" s="2" t="inlineStr">
+      <c r="ID21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="IE21" s="2" t="inlineStr">
+      <c r="IE21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="IF21" s="2" t="inlineStr">
+      <c r="IF21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="IG21" s="2" t="inlineStr">
+      <c r="IG21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="IH21" s="2" t="inlineStr">
+      <c r="IH21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="II21" s="2" t="inlineStr">
+      <c r="II21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="IJ21" s="2" t="inlineStr">
+      <c r="IJ21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="IK21" s="1" t="inlineStr">
+      <c r="IK21" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="IL21" s="2" t="inlineStr">
+      <c r="IL21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="IM21" s="2" t="inlineStr">
+      <c r="IM21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="IN21" s="2" t="inlineStr">
+      <c r="IN21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="IO21" s="2" t="inlineStr">
+      <c r="IO21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="IP21" s="2" t="inlineStr">
+      <c r="IP21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="IQ21" s="2" t="inlineStr">
+      <c r="IQ21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="IR21" s="2" t="inlineStr">
+      <c r="IR21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="IS21" s="2" t="inlineStr">
+      <c r="IS21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="IT21" s="2" t="inlineStr">
+      <c r="IT21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="IU21" s="2" t="inlineStr">
+      <c r="IU21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="IV21" s="2" t="inlineStr">
+      <c r="IV21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="IW21" s="1" t="inlineStr">
+      <c r="IW21" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="IX21" s="2" t="inlineStr">
+      <c r="IX21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="IY21" s="2" t="inlineStr">
+      <c r="IY21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="IZ21" s="2" t="inlineStr">
+      <c r="IZ21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="JA21" s="2" t="inlineStr">
+      <c r="JA21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="JB21" s="2" t="inlineStr">
+      <c r="JB21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="JC21" s="2" t="inlineStr">
+      <c r="JC21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="JD21" s="2" t="inlineStr">
+      <c r="JD21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="JE21" s="2" t="inlineStr">
+      <c r="JE21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="JF21" s="2" t="inlineStr">
+      <c r="JF21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="JG21" s="2" t="inlineStr">
+      <c r="JG21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="JH21" s="2" t="inlineStr">
+      <c r="JH21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="JI21" s="1" t="inlineStr">
+      <c r="JI21" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="JJ21" s="2" t="inlineStr">
+      <c r="JJ21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="JK21" s="2" t="inlineStr">
+      <c r="JK21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="JL21" s="2" t="inlineStr">
+      <c r="JL21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="JM21" s="2" t="inlineStr">
+      <c r="JM21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="JN21" s="2" t="inlineStr">
+      <c r="JN21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="JO21" s="2" t="inlineStr">
+      <c r="JO21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="JP21" s="2" t="inlineStr">
+      <c r="JP21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="JQ21" s="2" t="inlineStr">
+      <c r="JQ21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="JR21" s="2" t="inlineStr">
+      <c r="JR21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="JS21" s="2" t="inlineStr">
+      <c r="JS21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="JT21" s="2" t="inlineStr">
+      <c r="JT21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="JU21" s="1" t="inlineStr">
+      <c r="JU21" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="JV21" s="2" t="inlineStr">
+      <c r="JV21" s="3" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="JW21" s="2" t="inlineStr">
+      <c r="JW21" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="JX21" s="2" t="inlineStr">
+      <c r="JX21" s="3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="JY21" s="2" t="inlineStr">
+      <c r="JY21" s="3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="JZ21" s="2" t="inlineStr">
+      <c r="JZ21" s="3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="KA21" s="2" t="inlineStr">
+      <c r="KA21" s="3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="KB21" s="2" t="inlineStr">
+      <c r="KB21" s="3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="KC21" s="2" t="inlineStr">
+      <c r="KC21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="KD21" s="2" t="inlineStr">
+      <c r="KD21" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="KE21" s="2" t="inlineStr">
+      <c r="KE21" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="KF21" s="2" t="inlineStr">
+      <c r="KF21" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
+    </row>
+    <row r="23">
+      <c r="F23" s="22" t="inlineStr">
+        <is>
+          <t>Оператор + Помощник</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="n"/>
+      <c r="H23" s="5" t="n"/>
+      <c r="I23" s="5" t="n"/>
+      <c r="J23" s="5" t="n"/>
+      <c r="K23" s="5" t="n"/>
+      <c r="L23" s="5" t="n"/>
+      <c r="M23" s="5" t="n"/>
+      <c r="N23" s="5" t="n"/>
+      <c r="O23" s="5" t="n"/>
+      <c r="P23" s="5" t="n"/>
+      <c r="Q23" s="5" t="n"/>
+      <c r="R23" s="5" t="n"/>
+      <c r="S23" s="5" t="n"/>
+      <c r="T23" s="5" t="n"/>
+      <c r="U23" s="5" t="n"/>
+      <c r="V23" s="5" t="n"/>
+      <c r="W23" s="5" t="n"/>
+      <c r="X23" s="5" t="n"/>
+      <c r="Y23" s="5" t="n"/>
+      <c r="Z23" s="5" t="n"/>
+      <c r="AA23" s="5" t="n"/>
+      <c r="AB23" s="5" t="n"/>
+      <c r="AC23" s="5" t="n"/>
+      <c r="AD23" s="5" t="n"/>
+      <c r="AE23" s="5" t="n"/>
+      <c r="AF23" s="5" t="n"/>
+      <c r="AG23" s="5" t="n"/>
+      <c r="AH23" s="5" t="n"/>
+      <c r="AI23" s="5" t="n"/>
+      <c r="AJ23" s="5" t="n"/>
+      <c r="AK23" s="5" t="n"/>
+      <c r="AL23" s="5" t="n"/>
+      <c r="AM23" s="5" t="n"/>
+      <c r="AN23" s="5" t="n"/>
+      <c r="AO23" s="5" t="n"/>
+      <c r="AP23" s="5" t="n"/>
+      <c r="AQ23" s="5" t="n"/>
+      <c r="AR23" s="5" t="n"/>
+      <c r="AS23" s="5" t="n"/>
+      <c r="AT23" s="5" t="n"/>
+      <c r="AU23" s="5" t="n"/>
+      <c r="AV23" s="5" t="n"/>
+      <c r="AW23" s="5" t="n"/>
+      <c r="AX23" s="5" t="n"/>
+      <c r="AY23" s="5" t="n"/>
+      <c r="AZ23" s="5" t="n"/>
+      <c r="BA23" s="5" t="n"/>
+      <c r="BB23" s="5" t="n"/>
+      <c r="BC23" s="5" t="n"/>
+      <c r="BD23" s="5" t="n"/>
+      <c r="BE23" s="5" t="n"/>
+      <c r="BF23" s="5" t="n"/>
+      <c r="BG23" s="5" t="n"/>
+      <c r="BH23" s="5" t="n"/>
+      <c r="BI23" s="5" t="n"/>
+      <c r="BJ23" s="5" t="n"/>
+      <c r="BK23" s="5" t="n"/>
+      <c r="BL23" s="5" t="n"/>
+      <c r="BM23" s="5" t="n"/>
+      <c r="BN23" s="5" t="n"/>
+      <c r="BO23" s="5" t="n"/>
+      <c r="BP23" s="5" t="n"/>
+      <c r="BQ23" s="5" t="n"/>
+      <c r="BR23" s="5" t="n"/>
+      <c r="BS23" s="5" t="n"/>
+      <c r="BT23" s="5" t="n"/>
+      <c r="BU23" s="5" t="n"/>
+      <c r="BV23" s="5" t="n"/>
+      <c r="BW23" s="5" t="n"/>
+      <c r="BX23" s="5" t="n"/>
+      <c r="BY23" s="5" t="n"/>
+      <c r="BZ23" s="5" t="n"/>
+      <c r="CA23" s="5" t="n"/>
+      <c r="CB23" s="5" t="n"/>
+      <c r="CC23" s="5" t="n"/>
+      <c r="CD23" s="5" t="n"/>
+      <c r="CE23" s="5" t="n"/>
+      <c r="CF23" s="5" t="n"/>
+      <c r="CG23" s="5" t="n"/>
+      <c r="CH23" s="5" t="n"/>
+      <c r="CI23" s="5" t="n"/>
+      <c r="CJ23" s="5" t="n"/>
+      <c r="CK23" s="5" t="n"/>
+      <c r="CL23" s="5" t="n"/>
+      <c r="CM23" s="5" t="n"/>
+      <c r="CN23" s="5" t="n"/>
+      <c r="CO23" s="5" t="n"/>
+      <c r="CP23" s="5" t="n"/>
+      <c r="CQ23" s="5" t="n"/>
+      <c r="CR23" s="5" t="n"/>
+      <c r="CS23" s="5" t="n"/>
+      <c r="CT23" s="5" t="n"/>
+      <c r="CU23" s="5" t="n"/>
+      <c r="CV23" s="5" t="n"/>
+      <c r="CW23" s="5" t="n"/>
+      <c r="CX23" s="5" t="n"/>
+      <c r="CY23" s="5" t="n"/>
+      <c r="CZ23" s="5" t="n"/>
+      <c r="DA23" s="5" t="n"/>
+      <c r="DB23" s="5" t="n"/>
+      <c r="DC23" s="5" t="n"/>
+      <c r="DD23" s="5" t="n"/>
+      <c r="DE23" s="5" t="n"/>
+      <c r="DF23" s="5" t="n"/>
+      <c r="DG23" s="5" t="n"/>
+      <c r="DH23" s="5" t="n"/>
+      <c r="DI23" s="5" t="n"/>
+      <c r="DJ23" s="5" t="n"/>
+      <c r="DK23" s="5" t="n"/>
+      <c r="DL23" s="5" t="n"/>
+      <c r="DM23" s="5" t="n"/>
+      <c r="DN23" s="5" t="n"/>
+      <c r="DO23" s="5" t="n"/>
+      <c r="DP23" s="5" t="n"/>
+      <c r="DQ23" s="5" t="n"/>
+      <c r="DR23" s="5" t="n"/>
+      <c r="DS23" s="5" t="n"/>
+      <c r="DT23" s="5" t="n"/>
+      <c r="DU23" s="5" t="n"/>
+      <c r="DV23" s="5" t="n"/>
+      <c r="DW23" s="5" t="n"/>
+      <c r="DX23" s="5" t="n"/>
+      <c r="DY23" s="5" t="n"/>
+      <c r="DZ23" s="5" t="n"/>
+      <c r="EA23" s="5" t="n"/>
+      <c r="EB23" s="5" t="n"/>
+      <c r="EC23" s="5" t="n"/>
+      <c r="ED23" s="5" t="n"/>
+      <c r="EE23" s="5" t="n"/>
+      <c r="EF23" s="5" t="n"/>
+      <c r="EG23" s="5" t="n"/>
+      <c r="EH23" s="5" t="n"/>
+      <c r="EI23" s="5" t="n"/>
+      <c r="EJ23" s="5" t="n"/>
+      <c r="EK23" s="5" t="n"/>
+      <c r="EL23" s="5" t="n"/>
+      <c r="EM23" s="5" t="n"/>
+      <c r="EN23" s="5" t="n"/>
+      <c r="EO23" s="5" t="n"/>
+      <c r="EP23" s="5" t="n"/>
+      <c r="EQ23" s="5" t="n"/>
+      <c r="ER23" s="5" t="n"/>
+      <c r="ES23" s="5" t="n"/>
+      <c r="ET23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="18" t="inlineStr">
+      <c r="B24" s="19" t="inlineStr">
         <is>
           <t>Линия плавления моцареллы в воде №1</t>
         </is>
       </c>
-      <c r="C24" s="8" t="n"/>
-      <c r="D24" s="9" t="n"/>
-      <c r="Q24" s="21" t="inlineStr">
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="10" t="n"/>
+      <c r="Q24" s="23" t="inlineStr">
         <is>
           <t>подача и вымешивание</t>
         </is>
       </c>
-      <c r="R24" s="4" t="n"/>
-      <c r="S24" s="4" t="n"/>
-      <c r="T24" s="4" t="n"/>
-      <c r="U24" s="4" t="n"/>
-      <c r="V24" s="5" t="n"/>
-      <c r="AL24" s="21" t="inlineStr">
+      <c r="R24" s="5" t="n"/>
+      <c r="S24" s="5" t="n"/>
+      <c r="T24" s="5" t="n"/>
+      <c r="U24" s="5" t="n"/>
+      <c r="V24" s="6" t="n"/>
+      <c r="BB24" s="23" t="inlineStr">
         <is>
           <t>подача и вымешивание</t>
         </is>
       </c>
-      <c r="AM24" s="4" t="n"/>
-      <c r="AN24" s="4" t="n"/>
-      <c r="AO24" s="4" t="n"/>
-      <c r="AP24" s="4" t="n"/>
-      <c r="AQ24" s="5" t="n"/>
+      <c r="BC24" s="5" t="n"/>
+      <c r="BD24" s="5" t="n"/>
+      <c r="BE24" s="5" t="n"/>
+      <c r="BF24" s="5" t="n"/>
+      <c r="BG24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="W25" s="10" t="inlineStr">
+      <c r="B25" s="12" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="14" t="n"/>
+      <c r="W25" s="11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X25" s="4" t="n"/>
-      <c r="Y25" s="4" t="n"/>
-      <c r="Z25" s="5" t="n"/>
-      <c r="AA25" s="10" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте / Фиор ди Латте / Фиор ди Латте / Фиор ди Латте / Фиор ди Латте / Чильеджина</t>
-        </is>
-      </c>
-      <c r="AB25" s="4" t="n"/>
-      <c r="AC25" s="4" t="n"/>
-      <c r="AD25" s="4" t="n"/>
-      <c r="AE25" s="4" t="n"/>
-      <c r="AF25" s="4" t="n"/>
-      <c r="AG25" s="4" t="n"/>
-      <c r="AH25" s="4" t="n"/>
-      <c r="AI25" s="4" t="n"/>
-      <c r="AJ25" s="4" t="n"/>
-      <c r="AK25" s="5" t="n"/>
-      <c r="AR25" s="10" t="inlineStr">
+      <c r="X25" s="5" t="n"/>
+      <c r="Y25" s="5" t="n"/>
+      <c r="Z25" s="6" t="n"/>
+      <c r="AA25" s="11" t="inlineStr">
+        <is>
+          <t>Фиор ди Латте 1.0/0.8/0.1/0.125/0.125/Чильеджина 0.8</t>
+        </is>
+      </c>
+      <c r="AB25" s="5" t="n"/>
+      <c r="AC25" s="5" t="n"/>
+      <c r="AD25" s="5" t="n"/>
+      <c r="AE25" s="5" t="n"/>
+      <c r="AF25" s="5" t="n"/>
+      <c r="AG25" s="5" t="n"/>
+      <c r="AH25" s="5" t="n"/>
+      <c r="AI25" s="5" t="n"/>
+      <c r="AJ25" s="5" t="n"/>
+      <c r="AK25" s="6" t="n"/>
+      <c r="BH25" s="11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AS25" s="4" t="n"/>
-      <c r="AT25" s="4" t="n"/>
-      <c r="AU25" s="5" t="n"/>
-      <c r="AV25" s="10" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
-      <c r="AW25" s="4" t="n"/>
-      <c r="AX25" s="4" t="n"/>
-      <c r="AY25" s="4" t="n"/>
-      <c r="AZ25" s="4" t="n"/>
-      <c r="BA25" s="4" t="n"/>
-      <c r="BB25" s="4" t="n"/>
-      <c r="BC25" s="4" t="n"/>
-      <c r="BD25" s="4" t="n"/>
-      <c r="BE25" s="4" t="n"/>
-      <c r="BF25" s="5" t="n"/>
+      <c r="BI25" s="5" t="n"/>
+      <c r="BJ25" s="5" t="n"/>
+      <c r="BK25" s="6" t="n"/>
+      <c r="BL25" s="11" t="inlineStr">
+        <is>
+          <t>Чильеджина 0.8</t>
+        </is>
+      </c>
+      <c r="BM25" s="5" t="n"/>
+      <c r="BN25" s="5" t="n"/>
+      <c r="BO25" s="5" t="n"/>
+      <c r="BP25" s="5" t="n"/>
+      <c r="BQ25" s="5" t="n"/>
+      <c r="BR25" s="5" t="n"/>
+      <c r="BS25" s="5" t="n"/>
+      <c r="BT25" s="5" t="n"/>
+      <c r="BU25" s="5" t="n"/>
+      <c r="BV25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="W26" s="21" t="inlineStr">
+      <c r="W26" s="23" t="inlineStr">
         <is>
           <t>плавление/формирование 900 кг/ч</t>
         </is>
       </c>
-      <c r="X26" s="4" t="n"/>
-      <c r="Y26" s="4" t="n"/>
-      <c r="Z26" s="4" t="n"/>
-      <c r="AA26" s="4" t="n"/>
-      <c r="AB26" s="4" t="n"/>
-      <c r="AC26" s="4" t="n"/>
-      <c r="AD26" s="4" t="n"/>
-      <c r="AE26" s="4" t="n"/>
-      <c r="AF26" s="4" t="n"/>
-      <c r="AG26" s="4" t="n"/>
-      <c r="AH26" s="4" t="n"/>
-      <c r="AI26" s="4" t="n"/>
-      <c r="AJ26" s="4" t="n"/>
-      <c r="AK26" s="5" t="n"/>
-      <c r="AR26" s="21" t="inlineStr">
+      <c r="X26" s="5" t="n"/>
+      <c r="Y26" s="5" t="n"/>
+      <c r="Z26" s="5" t="n"/>
+      <c r="AA26" s="5" t="n"/>
+      <c r="AB26" s="5" t="n"/>
+      <c r="AC26" s="5" t="n"/>
+      <c r="AD26" s="5" t="n"/>
+      <c r="AE26" s="5" t="n"/>
+      <c r="AF26" s="5" t="n"/>
+      <c r="AG26" s="5" t="n"/>
+      <c r="AH26" s="5" t="n"/>
+      <c r="AI26" s="5" t="n"/>
+      <c r="AJ26" s="5" t="n"/>
+      <c r="AK26" s="6" t="n"/>
+      <c r="BH26" s="23" t="inlineStr">
         <is>
           <t>плавление/формирование 900 кг/ч</t>
         </is>
       </c>
-      <c r="AS26" s="4" t="n"/>
-      <c r="AT26" s="4" t="n"/>
-      <c r="AU26" s="4" t="n"/>
-      <c r="AV26" s="4" t="n"/>
-      <c r="AW26" s="4" t="n"/>
-      <c r="AX26" s="4" t="n"/>
-      <c r="AY26" s="4" t="n"/>
-      <c r="AZ26" s="4" t="n"/>
-      <c r="BA26" s="4" t="n"/>
-      <c r="BB26" s="4" t="n"/>
-      <c r="BC26" s="4" t="n"/>
-      <c r="BD26" s="4" t="n"/>
-      <c r="BE26" s="4" t="n"/>
-      <c r="BF26" s="5" t="n"/>
+      <c r="BI26" s="5" t="n"/>
+      <c r="BJ26" s="5" t="n"/>
+      <c r="BK26" s="5" t="n"/>
+      <c r="BL26" s="5" t="n"/>
+      <c r="BM26" s="5" t="n"/>
+      <c r="BN26" s="5" t="n"/>
+      <c r="BO26" s="5" t="n"/>
+      <c r="BP26" s="5" t="n"/>
+      <c r="BQ26" s="5" t="n"/>
+      <c r="BR26" s="5" t="n"/>
+      <c r="BS26" s="5" t="n"/>
+      <c r="BT26" s="5" t="n"/>
+      <c r="BU26" s="5" t="n"/>
+      <c r="BV26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="W27" s="10" t="inlineStr">
+      <c r="W27" s="11" t="inlineStr">
         <is>
           <t>охлаж1 25 мин</t>
         </is>
       </c>
-      <c r="X27" s="4" t="n"/>
-      <c r="Y27" s="4" t="n"/>
-      <c r="Z27" s="4" t="n"/>
-      <c r="AA27" s="5" t="n"/>
-      <c r="AB27" s="10" t="inlineStr">
+      <c r="X27" s="5" t="n"/>
+      <c r="Y27" s="5" t="n"/>
+      <c r="Z27" s="5" t="n"/>
+      <c r="AA27" s="6" t="n"/>
+      <c r="AB27" s="11" t="inlineStr">
         <is>
           <t>охлаж2 50 мин</t>
         </is>
       </c>
-      <c r="AC27" s="4" t="n"/>
-      <c r="AD27" s="4" t="n"/>
-      <c r="AE27" s="4" t="n"/>
-      <c r="AF27" s="4" t="n"/>
-      <c r="AG27" s="4" t="n"/>
-      <c r="AH27" s="4" t="n"/>
-      <c r="AI27" s="4" t="n"/>
-      <c r="AJ27" s="4" t="n"/>
-      <c r="AK27" s="5" t="n"/>
-      <c r="AR27" s="10" t="inlineStr">
+      <c r="AC27" s="5" t="n"/>
+      <c r="AD27" s="5" t="n"/>
+      <c r="AE27" s="5" t="n"/>
+      <c r="AF27" s="5" t="n"/>
+      <c r="AG27" s="5" t="n"/>
+      <c r="AH27" s="5" t="n"/>
+      <c r="AI27" s="5" t="n"/>
+      <c r="AJ27" s="5" t="n"/>
+      <c r="AK27" s="6" t="n"/>
+      <c r="BH27" s="11" t="inlineStr">
         <is>
           <t>охлаж1 25 мин</t>
         </is>
       </c>
-      <c r="AS27" s="4" t="n"/>
-      <c r="AT27" s="4" t="n"/>
-      <c r="AU27" s="4" t="n"/>
-      <c r="AV27" s="5" t="n"/>
-      <c r="AW27" s="10" t="inlineStr">
+      <c r="BI27" s="5" t="n"/>
+      <c r="BJ27" s="5" t="n"/>
+      <c r="BK27" s="5" t="n"/>
+      <c r="BL27" s="6" t="n"/>
+      <c r="BM27" s="11" t="inlineStr">
         <is>
           <t>охлаж2 50 мин</t>
         </is>
       </c>
-      <c r="AX27" s="4" t="n"/>
-      <c r="AY27" s="4" t="n"/>
-      <c r="AZ27" s="4" t="n"/>
-      <c r="BA27" s="4" t="n"/>
-      <c r="BB27" s="4" t="n"/>
-      <c r="BC27" s="4" t="n"/>
-      <c r="BD27" s="4" t="n"/>
-      <c r="BE27" s="4" t="n"/>
-      <c r="BF27" s="5" t="n"/>
+      <c r="BN27" s="5" t="n"/>
+      <c r="BO27" s="5" t="n"/>
+      <c r="BP27" s="5" t="n"/>
+      <c r="BQ27" s="5" t="n"/>
+      <c r="BR27" s="5" t="n"/>
+      <c r="BS27" s="5" t="n"/>
+      <c r="BT27" s="5" t="n"/>
+      <c r="BU27" s="5" t="n"/>
+      <c r="BV27" s="6" t="n"/>
+    </row>
+    <row r="28">
+      <c r="F28" s="22" t="inlineStr">
+        <is>
+          <t>бригадир упаковки + 5 рабочих</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="n"/>
+      <c r="H28" s="5" t="n"/>
+      <c r="I28" s="5" t="n"/>
+      <c r="J28" s="5" t="n"/>
+      <c r="K28" s="5" t="n"/>
+      <c r="L28" s="5" t="n"/>
+      <c r="M28" s="5" t="n"/>
+      <c r="N28" s="5" t="n"/>
+      <c r="O28" s="5" t="n"/>
+      <c r="P28" s="5" t="n"/>
+      <c r="Q28" s="5" t="n"/>
+      <c r="R28" s="5" t="n"/>
+      <c r="S28" s="5" t="n"/>
+      <c r="T28" s="5" t="n"/>
+      <c r="U28" s="5" t="n"/>
+      <c r="V28" s="5" t="n"/>
+      <c r="W28" s="5" t="n"/>
+      <c r="X28" s="5" t="n"/>
+      <c r="Y28" s="5" t="n"/>
+      <c r="Z28" s="5" t="n"/>
+      <c r="AA28" s="5" t="n"/>
+      <c r="AB28" s="5" t="n"/>
+      <c r="AC28" s="5" t="n"/>
+      <c r="AD28" s="5" t="n"/>
+      <c r="AE28" s="5" t="n"/>
+      <c r="AF28" s="5" t="n"/>
+      <c r="AG28" s="5" t="n"/>
+      <c r="AH28" s="5" t="n"/>
+      <c r="AI28" s="5" t="n"/>
+      <c r="AJ28" s="5" t="n"/>
+      <c r="AK28" s="5" t="n"/>
+      <c r="AL28" s="5" t="n"/>
+      <c r="AM28" s="5" t="n"/>
+      <c r="AN28" s="5" t="n"/>
+      <c r="AO28" s="5" t="n"/>
+      <c r="AP28" s="5" t="n"/>
+      <c r="AQ28" s="5" t="n"/>
+      <c r="AR28" s="5" t="n"/>
+      <c r="AS28" s="5" t="n"/>
+      <c r="AT28" s="5" t="n"/>
+      <c r="AU28" s="5" t="n"/>
+      <c r="AV28" s="5" t="n"/>
+      <c r="AW28" s="5" t="n"/>
+      <c r="AX28" s="5" t="n"/>
+      <c r="AY28" s="5" t="n"/>
+      <c r="AZ28" s="5" t="n"/>
+      <c r="BA28" s="5" t="n"/>
+      <c r="BB28" s="5" t="n"/>
+      <c r="BC28" s="5" t="n"/>
+      <c r="BD28" s="5" t="n"/>
+      <c r="BE28" s="5" t="n"/>
+      <c r="BF28" s="5" t="n"/>
+      <c r="BG28" s="5" t="n"/>
+      <c r="BH28" s="5" t="n"/>
+      <c r="BI28" s="5" t="n"/>
+      <c r="BJ28" s="5" t="n"/>
+      <c r="BK28" s="5" t="n"/>
+      <c r="BL28" s="5" t="n"/>
+      <c r="BM28" s="5" t="n"/>
+      <c r="BN28" s="5" t="n"/>
+      <c r="BO28" s="5" t="n"/>
+      <c r="BP28" s="5" t="n"/>
+      <c r="BQ28" s="5" t="n"/>
+      <c r="BR28" s="5" t="n"/>
+      <c r="BS28" s="5" t="n"/>
+      <c r="BT28" s="5" t="n"/>
+      <c r="BU28" s="5" t="n"/>
+      <c r="BV28" s="5" t="n"/>
+      <c r="BW28" s="5" t="n"/>
+      <c r="BX28" s="5" t="n"/>
+      <c r="BY28" s="5" t="n"/>
+      <c r="BZ28" s="5" t="n"/>
+      <c r="CA28" s="5" t="n"/>
+      <c r="CB28" s="5" t="n"/>
+      <c r="CC28" s="5" t="n"/>
+      <c r="CD28" s="5" t="n"/>
+      <c r="CE28" s="5" t="n"/>
+      <c r="CF28" s="5" t="n"/>
+      <c r="CG28" s="5" t="n"/>
+      <c r="CH28" s="5" t="n"/>
+      <c r="CI28" s="5" t="n"/>
+      <c r="CJ28" s="5" t="n"/>
+      <c r="CK28" s="5" t="n"/>
+      <c r="CL28" s="5" t="n"/>
+      <c r="CM28" s="5" t="n"/>
+      <c r="CN28" s="5" t="n"/>
+      <c r="CO28" s="5" t="n"/>
+      <c r="CP28" s="5" t="n"/>
+      <c r="CQ28" s="5" t="n"/>
+      <c r="CR28" s="5" t="n"/>
+      <c r="CS28" s="5" t="n"/>
+      <c r="CT28" s="5" t="n"/>
+      <c r="CU28" s="5" t="n"/>
+      <c r="CV28" s="5" t="n"/>
+      <c r="CW28" s="5" t="n"/>
+      <c r="CX28" s="5" t="n"/>
+      <c r="CY28" s="5" t="n"/>
+      <c r="CZ28" s="5" t="n"/>
+      <c r="DA28" s="5" t="n"/>
+      <c r="DB28" s="5" t="n"/>
+      <c r="DC28" s="5" t="n"/>
+      <c r="DD28" s="5" t="n"/>
+      <c r="DE28" s="5" t="n"/>
+      <c r="DF28" s="5" t="n"/>
+      <c r="DG28" s="5" t="n"/>
+      <c r="DH28" s="5" t="n"/>
+      <c r="DI28" s="5" t="n"/>
+      <c r="DJ28" s="5" t="n"/>
+      <c r="DK28" s="5" t="n"/>
+      <c r="DL28" s="5" t="n"/>
+      <c r="DM28" s="5" t="n"/>
+      <c r="DN28" s="5" t="n"/>
+      <c r="DO28" s="5" t="n"/>
+      <c r="DP28" s="5" t="n"/>
+      <c r="DQ28" s="5" t="n"/>
+      <c r="DR28" s="5" t="n"/>
+      <c r="DS28" s="5" t="n"/>
+      <c r="DT28" s="5" t="n"/>
+      <c r="DU28" s="5" t="n"/>
+      <c r="DV28" s="5" t="n"/>
+      <c r="DW28" s="5" t="n"/>
+      <c r="DX28" s="5" t="n"/>
+      <c r="DY28" s="5" t="n"/>
+      <c r="DZ28" s="5" t="n"/>
+      <c r="EA28" s="5" t="n"/>
+      <c r="EB28" s="5" t="n"/>
+      <c r="EC28" s="5" t="n"/>
+      <c r="ED28" s="5" t="n"/>
+      <c r="EE28" s="5" t="n"/>
+      <c r="EF28" s="5" t="n"/>
+      <c r="EG28" s="5" t="n"/>
+      <c r="EH28" s="5" t="n"/>
+      <c r="EI28" s="5" t="n"/>
+      <c r="EJ28" s="5" t="n"/>
+      <c r="EK28" s="5" t="n"/>
+      <c r="EL28" s="5" t="n"/>
+      <c r="EM28" s="5" t="n"/>
+      <c r="EN28" s="5" t="n"/>
+      <c r="EO28" s="5" t="n"/>
+      <c r="EP28" s="5" t="n"/>
+      <c r="EQ28" s="5" t="n"/>
+      <c r="ER28" s="5" t="n"/>
+      <c r="ES28" s="5" t="n"/>
+      <c r="ET28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="18" t="inlineStr">
+      <c r="B29" s="19" t="inlineStr">
         <is>
           <t>Фасовка</t>
         </is>
       </c>
-      <c r="C29" s="8" t="n"/>
-      <c r="D29" s="9" t="n"/>
-      <c r="AL29" s="10" t="inlineStr">
+      <c r="C29" s="9" t="n"/>
+      <c r="D29" s="10" t="n"/>
+      <c r="AL29" s="11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AM29" s="4" t="n"/>
-      <c r="AN29" s="5" t="n"/>
-      <c r="AO29" s="10" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте / Фиор ди Латте / Фиор ди Латте / Фиор ди Латте / Фиор ди Латте / Чильеджина</t>
-        </is>
-      </c>
-      <c r="AP29" s="4" t="n"/>
-      <c r="AQ29" s="4" t="n"/>
-      <c r="AR29" s="4" t="n"/>
-      <c r="AS29" s="4" t="n"/>
-      <c r="AT29" s="4" t="n"/>
-      <c r="AU29" s="4" t="n"/>
-      <c r="AV29" s="4" t="n"/>
-      <c r="AW29" s="4" t="n"/>
-      <c r="AX29" s="4" t="n"/>
-      <c r="AY29" s="4" t="n"/>
-      <c r="AZ29" s="4" t="n"/>
-      <c r="BA29" s="4" t="n"/>
-      <c r="BB29" s="4" t="n"/>
-      <c r="BC29" s="4" t="n"/>
-      <c r="BD29" s="4" t="n"/>
-      <c r="BE29" s="4" t="n"/>
+      <c r="AM29" s="5" t="n"/>
+      <c r="AN29" s="6" t="n"/>
+      <c r="AO29" s="11" t="inlineStr">
+        <is>
+          <t>Фиор ди Латте 1.0/0.8/0.1/0.125/0.125/Чильеджина 0.8</t>
+        </is>
+      </c>
+      <c r="AP29" s="5" t="n"/>
+      <c r="AQ29" s="5" t="n"/>
+      <c r="AR29" s="5" t="n"/>
+      <c r="AS29" s="5" t="n"/>
+      <c r="AT29" s="5" t="n"/>
+      <c r="AU29" s="5" t="n"/>
+      <c r="AV29" s="5" t="n"/>
+      <c r="AW29" s="5" t="n"/>
+      <c r="AX29" s="5" t="n"/>
+      <c r="AY29" s="5" t="n"/>
+      <c r="AZ29" s="5" t="n"/>
+      <c r="BA29" s="5" t="n"/>
+      <c r="BB29" s="5" t="n"/>
+      <c r="BC29" s="5" t="n"/>
+      <c r="BD29" s="5" t="n"/>
+      <c r="BE29" s="5" t="n"/>
       <c r="BF29" s="5" t="n"/>
-      <c r="BG29" s="10" t="inlineStr">
+      <c r="BG29" s="5" t="n"/>
+      <c r="BH29" s="5" t="n"/>
+      <c r="BI29" s="5" t="n"/>
+      <c r="BJ29" s="5" t="n"/>
+      <c r="BK29" s="5" t="n"/>
+      <c r="BL29" s="5" t="n"/>
+      <c r="BM29" s="5" t="n"/>
+      <c r="BN29" s="5" t="n"/>
+      <c r="BO29" s="5" t="n"/>
+      <c r="BP29" s="5" t="n"/>
+      <c r="BQ29" s="5" t="n"/>
+      <c r="BR29" s="5" t="n"/>
+      <c r="BS29" s="5" t="n"/>
+      <c r="BT29" s="5" t="n"/>
+      <c r="BU29" s="5" t="n"/>
+      <c r="BV29" s="6" t="n"/>
+      <c r="BW29" s="11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="BH29" s="4" t="n"/>
-      <c r="BI29" s="5" t="n"/>
-      <c r="BJ29" s="10" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
-      <c r="BK29" s="4" t="n"/>
-      <c r="BL29" s="4" t="n"/>
-      <c r="BM29" s="4" t="n"/>
-      <c r="BN29" s="4" t="n"/>
-      <c r="BO29" s="4" t="n"/>
-      <c r="BP29" s="4" t="n"/>
-      <c r="BQ29" s="4" t="n"/>
-      <c r="BR29" s="4" t="n"/>
-      <c r="BS29" s="4" t="n"/>
-      <c r="BT29" s="4" t="n"/>
-      <c r="BU29" s="5" t="n"/>
+      <c r="BX29" s="5" t="n"/>
+      <c r="BY29" s="6" t="n"/>
+      <c r="BZ29" s="11" t="inlineStr">
+        <is>
+          <t>Чильеджина 0.8</t>
+        </is>
+      </c>
+      <c r="CA29" s="5" t="n"/>
+      <c r="CB29" s="5" t="n"/>
+      <c r="CC29" s="5" t="n"/>
+      <c r="CD29" s="5" t="n"/>
+      <c r="CE29" s="5" t="n"/>
+      <c r="CF29" s="5" t="n"/>
+      <c r="CG29" s="5" t="n"/>
+      <c r="CH29" s="5" t="n"/>
+      <c r="CI29" s="5" t="n"/>
+      <c r="CJ29" s="5" t="n"/>
+      <c r="CK29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="11" t="n"/>
-      <c r="C30" s="12" t="n"/>
-      <c r="D30" s="13" t="n"/>
-      <c r="AL30" s="22" t="inlineStr">
-        <is>
-          <t>Pretto / Pretto / Ваш выбор / Красная птица / Fine Life / Pretto</t>
-        </is>
-      </c>
-      <c r="AM30" s="4" t="n"/>
-      <c r="AN30" s="4" t="n"/>
-      <c r="AO30" s="4" t="n"/>
-      <c r="AP30" s="4" t="n"/>
-      <c r="AQ30" s="4" t="n"/>
-      <c r="AR30" s="4" t="n"/>
-      <c r="AS30" s="4" t="n"/>
-      <c r="AT30" s="4" t="n"/>
-      <c r="AU30" s="4" t="n"/>
-      <c r="AV30" s="4" t="n"/>
-      <c r="AW30" s="4" t="n"/>
-      <c r="AX30" s="4" t="n"/>
-      <c r="AY30" s="4" t="n"/>
-      <c r="AZ30" s="4" t="n"/>
-      <c r="BA30" s="4" t="n"/>
-      <c r="BB30" s="4" t="n"/>
-      <c r="BC30" s="4" t="n"/>
-      <c r="BD30" s="4" t="n"/>
-      <c r="BE30" s="4" t="n"/>
+      <c r="B30" s="12" t="n"/>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="14" t="n"/>
+      <c r="AL30" s="24" t="inlineStr">
+        <is>
+          <t>Pretto 1.0/0.8/Ваш выбор 0.1/Красная птица 0.125/Fine Life 0.125/Pretto 0.8</t>
+        </is>
+      </c>
+      <c r="AM30" s="5" t="n"/>
+      <c r="AN30" s="5" t="n"/>
+      <c r="AO30" s="5" t="n"/>
+      <c r="AP30" s="5" t="n"/>
+      <c r="AQ30" s="5" t="n"/>
+      <c r="AR30" s="5" t="n"/>
+      <c r="AS30" s="5" t="n"/>
+      <c r="AT30" s="5" t="n"/>
+      <c r="AU30" s="5" t="n"/>
+      <c r="AV30" s="5" t="n"/>
+      <c r="AW30" s="5" t="n"/>
+      <c r="AX30" s="5" t="n"/>
+      <c r="AY30" s="5" t="n"/>
+      <c r="AZ30" s="5" t="n"/>
+      <c r="BA30" s="5" t="n"/>
+      <c r="BB30" s="5" t="n"/>
+      <c r="BC30" s="5" t="n"/>
+      <c r="BD30" s="5" t="n"/>
+      <c r="BE30" s="5" t="n"/>
       <c r="BF30" s="5" t="n"/>
-      <c r="BG30" s="22" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="BH30" s="4" t="n"/>
-      <c r="BI30" s="4" t="n"/>
-      <c r="BJ30" s="4" t="n"/>
-      <c r="BK30" s="4" t="n"/>
-      <c r="BL30" s="4" t="n"/>
-      <c r="BM30" s="4" t="n"/>
-      <c r="BN30" s="4" t="n"/>
-      <c r="BO30" s="4" t="n"/>
-      <c r="BP30" s="4" t="n"/>
-      <c r="BQ30" s="4" t="n"/>
-      <c r="BR30" s="4" t="n"/>
-      <c r="BS30" s="4" t="n"/>
-      <c r="BT30" s="4" t="n"/>
+      <c r="BG30" s="5" t="n"/>
+      <c r="BH30" s="5" t="n"/>
+      <c r="BI30" s="5" t="n"/>
+      <c r="BJ30" s="5" t="n"/>
+      <c r="BK30" s="5" t="n"/>
+      <c r="BL30" s="5" t="n"/>
+      <c r="BM30" s="5" t="n"/>
+      <c r="BN30" s="5" t="n"/>
+      <c r="BO30" s="5" t="n"/>
+      <c r="BP30" s="5" t="n"/>
+      <c r="BQ30" s="5" t="n"/>
+      <c r="BR30" s="5" t="n"/>
+      <c r="BS30" s="5" t="n"/>
+      <c r="BT30" s="5" t="n"/>
       <c r="BU30" s="5" t="n"/>
+      <c r="BV30" s="6" t="n"/>
+      <c r="BW30" s="24" t="inlineStr">
+        <is>
+          <t>Pretto 0.8</t>
+        </is>
+      </c>
+      <c r="BX30" s="5" t="n"/>
+      <c r="BY30" s="5" t="n"/>
+      <c r="BZ30" s="5" t="n"/>
+      <c r="CA30" s="5" t="n"/>
+      <c r="CB30" s="5" t="n"/>
+      <c r="CC30" s="5" t="n"/>
+      <c r="CD30" s="5" t="n"/>
+      <c r="CE30" s="5" t="n"/>
+      <c r="CF30" s="5" t="n"/>
+      <c r="CG30" s="5" t="n"/>
+      <c r="CH30" s="5" t="n"/>
+      <c r="CI30" s="5" t="n"/>
+      <c r="CJ30" s="5" t="n"/>
+      <c r="CK30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="AO31" s="23" t="inlineStr"/>
-      <c r="AS31" s="23" t="inlineStr"/>
-      <c r="AV31" s="23" t="inlineStr"/>
-      <c r="AX31" s="23" t="inlineStr"/>
-      <c r="BA31" s="23" t="inlineStr"/>
+      <c r="AO31" s="18" t="inlineStr"/>
+      <c r="AP31" s="5" t="n"/>
+      <c r="AQ31" s="5" t="n"/>
+      <c r="AR31" s="5" t="n"/>
+      <c r="AS31" s="6" t="n"/>
+      <c r="AW31" s="18" t="inlineStr"/>
+      <c r="AX31" s="5" t="n"/>
+      <c r="AY31" s="5" t="n"/>
+      <c r="AZ31" s="5" t="n"/>
+      <c r="BA31" s="6" t="n"/>
+      <c r="BD31" s="18" t="inlineStr"/>
+      <c r="BE31" s="5" t="n"/>
+      <c r="BF31" s="5" t="n"/>
+      <c r="BG31" s="5" t="n"/>
+      <c r="BH31" s="6" t="n"/>
+      <c r="BJ31" s="25" t="inlineStr"/>
+      <c r="BM31" s="18" t="inlineStr"/>
+      <c r="BN31" s="5" t="n"/>
+      <c r="BO31" s="5" t="n"/>
+      <c r="BP31" s="5" t="n"/>
+      <c r="BQ31" s="6" t="n"/>
+    </row>
+    <row r="32">
+      <c r="F32" s="16" t="inlineStr">
+        <is>
+          <t>1 смена оператор + помощник</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="n"/>
+      <c r="H32" s="5" t="n"/>
+      <c r="I32" s="5" t="n"/>
+      <c r="J32" s="5" t="n"/>
+      <c r="K32" s="5" t="n"/>
+      <c r="L32" s="5" t="n"/>
+      <c r="M32" s="5" t="n"/>
+      <c r="N32" s="5" t="n"/>
+      <c r="O32" s="5" t="n"/>
+      <c r="P32" s="5" t="n"/>
+      <c r="Q32" s="5" t="n"/>
+      <c r="R32" s="5" t="n"/>
+      <c r="S32" s="5" t="n"/>
+      <c r="T32" s="5" t="n"/>
+      <c r="U32" s="5" t="n"/>
+      <c r="V32" s="5" t="n"/>
+      <c r="W32" s="5" t="n"/>
+      <c r="X32" s="5" t="n"/>
+      <c r="Y32" s="5" t="n"/>
+      <c r="Z32" s="5" t="n"/>
+      <c r="AA32" s="5" t="n"/>
+      <c r="AB32" s="5" t="n"/>
+      <c r="AC32" s="5" t="n"/>
+      <c r="AD32" s="5" t="n"/>
+      <c r="AE32" s="5" t="n"/>
+      <c r="AF32" s="5" t="n"/>
+      <c r="AG32" s="5" t="n"/>
+      <c r="AH32" s="5" t="n"/>
+      <c r="AI32" s="5" t="n"/>
+      <c r="AJ32" s="5" t="n"/>
+      <c r="AK32" s="5" t="n"/>
+      <c r="AL32" s="5" t="n"/>
+      <c r="AM32" s="5" t="n"/>
+      <c r="AN32" s="5" t="n"/>
+      <c r="AO32" s="5" t="n"/>
+      <c r="AP32" s="5" t="n"/>
+      <c r="AQ32" s="5" t="n"/>
+      <c r="AR32" s="5" t="n"/>
+      <c r="AS32" s="5" t="n"/>
+      <c r="AT32" s="5" t="n"/>
+      <c r="AU32" s="5" t="n"/>
+      <c r="AV32" s="5" t="n"/>
+      <c r="AW32" s="5" t="n"/>
+      <c r="AX32" s="5" t="n"/>
+      <c r="AY32" s="5" t="n"/>
+      <c r="AZ32" s="5" t="n"/>
+      <c r="BA32" s="5" t="n"/>
+      <c r="BB32" s="5" t="n"/>
+      <c r="BC32" s="5" t="n"/>
+      <c r="BD32" s="5" t="n"/>
+      <c r="BE32" s="5" t="n"/>
+      <c r="BF32" s="5" t="n"/>
+      <c r="BG32" s="5" t="n"/>
+      <c r="BH32" s="5" t="n"/>
+      <c r="BI32" s="5" t="n"/>
+      <c r="BJ32" s="5" t="n"/>
+      <c r="BK32" s="5" t="n"/>
+      <c r="BL32" s="5" t="n"/>
+      <c r="BM32" s="5" t="n"/>
+      <c r="BN32" s="5" t="n"/>
+      <c r="BO32" s="5" t="n"/>
+      <c r="BP32" s="5" t="n"/>
+      <c r="BQ32" s="5" t="n"/>
+      <c r="BR32" s="5" t="n"/>
+      <c r="BS32" s="5" t="n"/>
+      <c r="BT32" s="5" t="n"/>
+      <c r="BU32" s="5" t="n"/>
+      <c r="BV32" s="5" t="n"/>
+      <c r="BW32" s="5" t="n"/>
+      <c r="BX32" s="5" t="n"/>
+      <c r="BY32" s="5" t="n"/>
+      <c r="BZ32" s="5" t="n"/>
+      <c r="CA32" s="5" t="n"/>
+      <c r="CB32" s="5" t="n"/>
+      <c r="CC32" s="5" t="n"/>
+      <c r="CD32" s="5" t="n"/>
+      <c r="CE32" s="5" t="n"/>
+      <c r="CF32" s="5" t="n"/>
+      <c r="CG32" s="5" t="n"/>
+      <c r="CH32" s="5" t="n"/>
+      <c r="CI32" s="5" t="n"/>
+      <c r="CJ32" s="5" t="n"/>
+      <c r="CK32" s="5" t="n"/>
+      <c r="CL32" s="5" t="n"/>
+      <c r="CM32" s="5" t="n"/>
+      <c r="CN32" s="5" t="n"/>
+      <c r="CO32" s="5" t="n"/>
+      <c r="CP32" s="5" t="n"/>
+      <c r="CQ32" s="5" t="n"/>
+      <c r="CR32" s="5" t="n"/>
+      <c r="CS32" s="5" t="n"/>
+      <c r="CT32" s="5" t="n"/>
+      <c r="CU32" s="5" t="n"/>
+      <c r="CV32" s="5" t="n"/>
+      <c r="CW32" s="5" t="n"/>
+      <c r="CX32" s="5" t="n"/>
+      <c r="CY32" s="5" t="n"/>
+      <c r="CZ32" s="5" t="n"/>
+      <c r="DA32" s="5" t="n"/>
+      <c r="DB32" s="5" t="n"/>
+      <c r="DC32" s="5" t="n"/>
+      <c r="DD32" s="5" t="n"/>
+      <c r="DE32" s="5" t="n"/>
+      <c r="DF32" s="5" t="n"/>
+      <c r="DG32" s="5" t="n"/>
+      <c r="DH32" s="5" t="n"/>
+      <c r="DI32" s="5" t="n"/>
+      <c r="DJ32" s="5" t="n"/>
+      <c r="DK32" s="5" t="n"/>
+      <c r="DL32" s="5" t="n"/>
+      <c r="DM32" s="5" t="n"/>
+      <c r="DN32" s="5" t="n"/>
+      <c r="DO32" s="5" t="n"/>
+      <c r="DP32" s="5" t="n"/>
+      <c r="DQ32" s="5" t="n"/>
+      <c r="DR32" s="5" t="n"/>
+      <c r="DS32" s="5" t="n"/>
+      <c r="DT32" s="5" t="n"/>
+      <c r="DU32" s="5" t="n"/>
+      <c r="DV32" s="5" t="n"/>
+      <c r="DW32" s="5" t="n"/>
+      <c r="DX32" s="5" t="n"/>
+      <c r="DY32" s="5" t="n"/>
+      <c r="DZ32" s="5" t="n"/>
+      <c r="EA32" s="5" t="n"/>
+      <c r="EB32" s="5" t="n"/>
+      <c r="EC32" s="5" t="n"/>
+      <c r="ED32" s="5" t="n"/>
+      <c r="EE32" s="5" t="n"/>
+      <c r="EF32" s="5" t="n"/>
+      <c r="EG32" s="5" t="n"/>
+      <c r="EH32" s="5" t="n"/>
+      <c r="EI32" s="5" t="n"/>
+      <c r="EJ32" s="5" t="n"/>
+      <c r="EK32" s="5" t="n"/>
+      <c r="EL32" s="5" t="n"/>
+      <c r="EM32" s="5" t="n"/>
+      <c r="EN32" s="5" t="n"/>
+      <c r="EO32" s="5" t="n"/>
+      <c r="EP32" s="5" t="n"/>
+      <c r="EQ32" s="5" t="n"/>
+      <c r="ER32" s="5" t="n"/>
+      <c r="ES32" s="6" t="n"/>
+      <c r="ET32" s="18" t="inlineStr">
+        <is>
+          <t>1 оператор + помощник</t>
+        </is>
+      </c>
+      <c r="EU32" s="5" t="n"/>
+      <c r="EV32" s="5" t="n"/>
+      <c r="EW32" s="5" t="n"/>
+      <c r="EX32" s="5" t="n"/>
+      <c r="EY32" s="5" t="n"/>
+      <c r="EZ32" s="5" t="n"/>
+      <c r="FA32" s="5" t="n"/>
+      <c r="FB32" s="5" t="n"/>
+      <c r="FC32" s="5" t="n"/>
+      <c r="FD32" s="5" t="n"/>
+      <c r="FE32" s="5" t="n"/>
+      <c r="FF32" s="5" t="n"/>
+      <c r="FG32" s="5" t="n"/>
+      <c r="FH32" s="5" t="n"/>
+      <c r="FI32" s="5" t="n"/>
+      <c r="FJ32" s="5" t="n"/>
+      <c r="FK32" s="5" t="n"/>
+      <c r="FL32" s="5" t="n"/>
+      <c r="FM32" s="5" t="n"/>
+      <c r="FN32" s="5" t="n"/>
+      <c r="FO32" s="5" t="n"/>
+      <c r="FP32" s="5" t="n"/>
+      <c r="FQ32" s="5" t="n"/>
+      <c r="FR32" s="5" t="n"/>
+      <c r="FS32" s="5" t="n"/>
+      <c r="FT32" s="5" t="n"/>
+      <c r="FU32" s="5" t="n"/>
+      <c r="FV32" s="5" t="n"/>
+      <c r="FW32" s="5" t="n"/>
+      <c r="FX32" s="5" t="n"/>
+      <c r="FY32" s="5" t="n"/>
+      <c r="FZ32" s="5" t="n"/>
+      <c r="GA32" s="5" t="n"/>
+      <c r="GB32" s="5" t="n"/>
+      <c r="GC32" s="5" t="n"/>
+      <c r="GD32" s="5" t="n"/>
+      <c r="GE32" s="5" t="n"/>
+      <c r="GF32" s="5" t="n"/>
+      <c r="GG32" s="5" t="n"/>
+      <c r="GH32" s="5" t="n"/>
+      <c r="GI32" s="5" t="n"/>
+      <c r="GJ32" s="5" t="n"/>
+      <c r="GK32" s="5" t="n"/>
+      <c r="GL32" s="5" t="n"/>
+      <c r="GM32" s="5" t="n"/>
+      <c r="GN32" s="5" t="n"/>
+      <c r="GO32" s="5" t="n"/>
+      <c r="GP32" s="5" t="n"/>
+      <c r="GQ32" s="5" t="n"/>
+      <c r="GR32" s="5" t="n"/>
+      <c r="GS32" s="5" t="n"/>
+      <c r="GT32" s="5" t="n"/>
+      <c r="GU32" s="5" t="n"/>
+      <c r="GV32" s="5" t="n"/>
+      <c r="GW32" s="5" t="n"/>
+      <c r="GX32" s="5" t="n"/>
+      <c r="GY32" s="5" t="n"/>
+      <c r="GZ32" s="5" t="n"/>
+      <c r="HA32" s="5" t="n"/>
+      <c r="HB32" s="5" t="n"/>
+      <c r="HC32" s="5" t="n"/>
+      <c r="HD32" s="5" t="n"/>
+      <c r="HE32" s="5" t="n"/>
+      <c r="HF32" s="5" t="n"/>
+      <c r="HG32" s="5" t="n"/>
+      <c r="HH32" s="5" t="n"/>
+      <c r="HI32" s="5" t="n"/>
+      <c r="HJ32" s="5" t="n"/>
+      <c r="HK32" s="5" t="n"/>
+      <c r="HL32" s="5" t="n"/>
+      <c r="HM32" s="5" t="n"/>
+      <c r="HN32" s="5" t="n"/>
+      <c r="HO32" s="5" t="n"/>
+      <c r="HP32" s="5" t="n"/>
+      <c r="HQ32" s="5" t="n"/>
+      <c r="HR32" s="5" t="n"/>
+      <c r="HS32" s="5" t="n"/>
+      <c r="HT32" s="5" t="n"/>
+      <c r="HU32" s="5" t="n"/>
+      <c r="HV32" s="5" t="n"/>
+      <c r="HW32" s="5" t="n"/>
+      <c r="HX32" s="5" t="n"/>
+      <c r="HY32" s="5" t="n"/>
+      <c r="HZ32" s="5" t="n"/>
+      <c r="IA32" s="5" t="n"/>
+      <c r="IB32" s="5" t="n"/>
+      <c r="IC32" s="5" t="n"/>
+      <c r="ID32" s="5" t="n"/>
+      <c r="IE32" s="5" t="n"/>
+      <c r="IF32" s="5" t="n"/>
+      <c r="IG32" s="5" t="n"/>
+      <c r="IH32" s="5" t="n"/>
+      <c r="II32" s="5" t="n"/>
+      <c r="IJ32" s="5" t="n"/>
+      <c r="IK32" s="5" t="n"/>
+      <c r="IL32" s="5" t="n"/>
+      <c r="IM32" s="5" t="n"/>
+      <c r="IN32" s="5" t="n"/>
+      <c r="IO32" s="5" t="n"/>
+      <c r="IP32" s="5" t="n"/>
+      <c r="IQ32" s="5" t="n"/>
+      <c r="IR32" s="5" t="n"/>
+      <c r="IS32" s="5" t="n"/>
+      <c r="IT32" s="5" t="n"/>
+      <c r="IU32" s="5" t="n"/>
+      <c r="IV32" s="5" t="n"/>
+      <c r="IW32" s="5" t="n"/>
+      <c r="IX32" s="5" t="n"/>
+      <c r="IY32" s="5" t="n"/>
+      <c r="IZ32" s="5" t="n"/>
+      <c r="JA32" s="5" t="n"/>
+      <c r="JB32" s="5" t="n"/>
+      <c r="JC32" s="5" t="n"/>
+      <c r="JD32" s="5" t="n"/>
+      <c r="JE32" s="5" t="n"/>
+      <c r="JF32" s="5" t="n"/>
+      <c r="JG32" s="5" t="n"/>
+      <c r="JH32" s="5" t="n"/>
+      <c r="JI32" s="5" t="n"/>
+      <c r="JJ32" s="5" t="n"/>
+      <c r="JK32" s="5" t="n"/>
+      <c r="JL32" s="5" t="n"/>
+      <c r="JM32" s="5" t="n"/>
+      <c r="JN32" s="5" t="n"/>
+      <c r="JO32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="18" t="inlineStr">
+      <c r="B33" s="19" t="inlineStr">
         <is>
           <t>Линия плавления моцареллы в рассоле №2</t>
         </is>
       </c>
-      <c r="C33" s="8" t="n"/>
-      <c r="D33" s="9" t="n"/>
-      <c r="AD33" s="10" t="inlineStr">
+      <c r="C33" s="9" t="n"/>
+      <c r="D33" s="10" t="n"/>
+      <c r="AD33" s="11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE33" s="4" t="n"/>
-      <c r="AF33" s="4" t="n"/>
-      <c r="AG33" s="5" t="n"/>
-      <c r="AH33" s="10" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
-      <c r="AI33" s="4" t="n"/>
-      <c r="AJ33" s="4" t="n"/>
-      <c r="AK33" s="4" t="n"/>
-      <c r="AL33" s="4" t="n"/>
-      <c r="AM33" s="4" t="n"/>
-      <c r="AN33" s="4" t="n"/>
-      <c r="AO33" s="4" t="n"/>
-      <c r="AP33" s="4" t="n"/>
-      <c r="AQ33" s="4" t="n"/>
-      <c r="AR33" s="4" t="n"/>
-      <c r="AS33" s="4" t="n"/>
-      <c r="AT33" s="4" t="n"/>
-      <c r="AU33" s="4" t="n"/>
-      <c r="AV33" s="4" t="n"/>
-      <c r="AW33" s="4" t="n"/>
-      <c r="AX33" s="4" t="n"/>
-      <c r="AY33" s="4" t="n"/>
-      <c r="AZ33" s="4" t="n"/>
-      <c r="BA33" s="4" t="n"/>
-      <c r="BB33" s="4" t="n"/>
-      <c r="BC33" s="4" t="n"/>
-      <c r="BD33" s="4" t="n"/>
-      <c r="BE33" s="5" t="n"/>
-      <c r="CH33" s="10" t="inlineStr">
+      <c r="AE33" s="5" t="n"/>
+      <c r="AF33" s="5" t="n"/>
+      <c r="AG33" s="6" t="n"/>
+      <c r="AH33" s="11" t="inlineStr">
+        <is>
+          <t>Сулугуни 2.24</t>
+        </is>
+      </c>
+      <c r="AI33" s="5" t="n"/>
+      <c r="AJ33" s="5" t="n"/>
+      <c r="AK33" s="5" t="n"/>
+      <c r="AL33" s="5" t="n"/>
+      <c r="AM33" s="5" t="n"/>
+      <c r="AN33" s="5" t="n"/>
+      <c r="AO33" s="5" t="n"/>
+      <c r="AP33" s="5" t="n"/>
+      <c r="AQ33" s="5" t="n"/>
+      <c r="AR33" s="5" t="n"/>
+      <c r="AS33" s="5" t="n"/>
+      <c r="AT33" s="5" t="n"/>
+      <c r="AU33" s="5" t="n"/>
+      <c r="AV33" s="5" t="n"/>
+      <c r="AW33" s="5" t="n"/>
+      <c r="AX33" s="5" t="n"/>
+      <c r="AY33" s="5" t="n"/>
+      <c r="AZ33" s="5" t="n"/>
+      <c r="BA33" s="5" t="n"/>
+      <c r="BB33" s="5" t="n"/>
+      <c r="BC33" s="5" t="n"/>
+      <c r="BD33" s="5" t="n"/>
+      <c r="BE33" s="6" t="n"/>
+      <c r="BO33" s="11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BP33" s="5" t="n"/>
+      <c r="BQ33" s="5" t="n"/>
+      <c r="BR33" s="6" t="n"/>
+      <c r="BS33" s="11" t="inlineStr">
+        <is>
+          <t>Сулугуни 2.24/1.8</t>
+        </is>
+      </c>
+      <c r="BT33" s="5" t="n"/>
+      <c r="BU33" s="5" t="n"/>
+      <c r="BV33" s="5" t="n"/>
+      <c r="BW33" s="5" t="n"/>
+      <c r="BX33" s="5" t="n"/>
+      <c r="BY33" s="5" t="n"/>
+      <c r="BZ33" s="5" t="n"/>
+      <c r="CA33" s="5" t="n"/>
+      <c r="CB33" s="5" t="n"/>
+      <c r="CC33" s="5" t="n"/>
+      <c r="CD33" s="5" t="n"/>
+      <c r="CE33" s="5" t="n"/>
+      <c r="CF33" s="5" t="n"/>
+      <c r="CG33" s="5" t="n"/>
+      <c r="CH33" s="5" t="n"/>
+      <c r="CI33" s="5" t="n"/>
+      <c r="CJ33" s="5" t="n"/>
+      <c r="CK33" s="5" t="n"/>
+      <c r="CL33" s="5" t="n"/>
+      <c r="CM33" s="5" t="n"/>
+      <c r="CN33" s="5" t="n"/>
+      <c r="CO33" s="5" t="n"/>
+      <c r="CP33" s="5" t="n"/>
+      <c r="CQ33" s="5" t="n"/>
+      <c r="CR33" s="5" t="n"/>
+      <c r="CS33" s="5" t="n"/>
+      <c r="CT33" s="5" t="n"/>
+      <c r="CU33" s="5" t="n"/>
+      <c r="CV33" s="6" t="n"/>
+      <c r="DN33" s="11" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="CI33" s="4" t="n"/>
-      <c r="CJ33" s="4" t="n"/>
-      <c r="CK33" s="5" t="n"/>
-      <c r="CL33" s="10" t="inlineStr">
-        <is>
-          <t>Сулугуни / Для пиццы</t>
-        </is>
-      </c>
-      <c r="CM33" s="4" t="n"/>
-      <c r="CN33" s="4" t="n"/>
-      <c r="CO33" s="4" t="n"/>
-      <c r="CP33" s="4" t="n"/>
-      <c r="CQ33" s="4" t="n"/>
-      <c r="CR33" s="4" t="n"/>
-      <c r="CS33" s="4" t="n"/>
-      <c r="CT33" s="4" t="n"/>
-      <c r="CU33" s="4" t="n"/>
-      <c r="CV33" s="4" t="n"/>
-      <c r="CW33" s="4" t="n"/>
-      <c r="CX33" s="4" t="n"/>
-      <c r="CY33" s="4" t="n"/>
-      <c r="CZ33" s="4" t="n"/>
-      <c r="DA33" s="4" t="n"/>
-      <c r="DB33" s="4" t="n"/>
-      <c r="DC33" s="4" t="n"/>
-      <c r="DD33" s="4" t="n"/>
-      <c r="DE33" s="4" t="n"/>
-      <c r="DF33" s="4" t="n"/>
-      <c r="DG33" s="4" t="n"/>
-      <c r="DH33" s="4" t="n"/>
-      <c r="DI33" s="4" t="n"/>
-      <c r="DJ33" s="4" t="n"/>
-      <c r="DK33" s="4" t="n"/>
-      <c r="DL33" s="4" t="n"/>
-      <c r="DM33" s="4" t="n"/>
-      <c r="DN33" s="5" t="n"/>
+      <c r="DO33" s="5" t="n"/>
+      <c r="DP33" s="5" t="n"/>
+      <c r="DQ33" s="6" t="n"/>
+      <c r="DR33" s="11" t="inlineStr">
+        <is>
+          <t>Сулугуни 2.22/Для пиццы 3.68</t>
+        </is>
+      </c>
+      <c r="DS33" s="5" t="n"/>
+      <c r="DT33" s="5" t="n"/>
+      <c r="DU33" s="5" t="n"/>
+      <c r="DV33" s="5" t="n"/>
+      <c r="DW33" s="5" t="n"/>
+      <c r="DX33" s="5" t="n"/>
+      <c r="DY33" s="5" t="n"/>
+      <c r="DZ33" s="5" t="n"/>
+      <c r="EA33" s="5" t="n"/>
+      <c r="EB33" s="5" t="n"/>
+      <c r="EC33" s="5" t="n"/>
+      <c r="ED33" s="5" t="n"/>
+      <c r="EE33" s="5" t="n"/>
+      <c r="EF33" s="5" t="n"/>
+      <c r="EG33" s="5" t="n"/>
+      <c r="EH33" s="5" t="n"/>
+      <c r="EI33" s="5" t="n"/>
+      <c r="EJ33" s="5" t="n"/>
+      <c r="EK33" s="5" t="n"/>
+      <c r="EL33" s="5" t="n"/>
+      <c r="EM33" s="5" t="n"/>
+      <c r="EN33" s="5" t="n"/>
+      <c r="EO33" s="5" t="n"/>
+      <c r="EP33" s="5" t="n"/>
+      <c r="EQ33" s="5" t="n"/>
+      <c r="ER33" s="5" t="n"/>
+      <c r="ES33" s="5" t="n"/>
+      <c r="ET33" s="5" t="n"/>
+      <c r="EU33" s="5" t="n"/>
+      <c r="EV33" s="5" t="n"/>
+      <c r="EW33" s="5" t="n"/>
+      <c r="EX33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="24" t="n"/>
-      <c r="D34" s="25" t="n"/>
-      <c r="AD34" s="21" t="inlineStr">
+      <c r="B34" s="26" t="n"/>
+      <c r="D34" s="27" t="n"/>
+      <c r="AD34" s="23" t="inlineStr">
         <is>
           <t>плавление/формирование</t>
         </is>
       </c>
-      <c r="AE34" s="4" t="n"/>
-      <c r="AF34" s="4" t="n"/>
-      <c r="AG34" s="4" t="n"/>
-      <c r="AH34" s="4" t="n"/>
-      <c r="AI34" s="4" t="n"/>
-      <c r="AJ34" s="4" t="n"/>
-      <c r="AK34" s="4" t="n"/>
-      <c r="AL34" s="4" t="n"/>
-      <c r="AM34" s="5" t="n"/>
-      <c r="AN34" s="6" t="inlineStr">
+      <c r="AE34" s="5" t="n"/>
+      <c r="AF34" s="5" t="n"/>
+      <c r="AG34" s="5" t="n"/>
+      <c r="AH34" s="5" t="n"/>
+      <c r="AI34" s="5" t="n"/>
+      <c r="AJ34" s="5" t="n"/>
+      <c r="AK34" s="5" t="n"/>
+      <c r="AL34" s="5" t="n"/>
+      <c r="AM34" s="6" t="n"/>
+      <c r="AN34" s="7" t="inlineStr">
         <is>
           <t>посолка</t>
         </is>
       </c>
-      <c r="AO34" s="4" t="n"/>
-      <c r="AP34" s="4" t="n"/>
-      <c r="AQ34" s="4" t="n"/>
-      <c r="AR34" s="4" t="n"/>
-      <c r="AS34" s="4" t="n"/>
-      <c r="AT34" s="4" t="n"/>
-      <c r="AU34" s="4" t="n"/>
-      <c r="AV34" s="4" t="n"/>
-      <c r="AW34" s="4" t="n"/>
-      <c r="AX34" s="4" t="n"/>
-      <c r="AY34" s="4" t="n"/>
-      <c r="AZ34" s="4" t="n"/>
-      <c r="BA34" s="4" t="n"/>
-      <c r="BB34" s="4" t="n"/>
-      <c r="BC34" s="4" t="n"/>
-      <c r="BD34" s="4" t="n"/>
-      <c r="BE34" s="5" t="n"/>
-      <c r="CH34" s="21" t="inlineStr">
+      <c r="AO34" s="5" t="n"/>
+      <c r="AP34" s="5" t="n"/>
+      <c r="AQ34" s="5" t="n"/>
+      <c r="AR34" s="5" t="n"/>
+      <c r="AS34" s="5" t="n"/>
+      <c r="AT34" s="5" t="n"/>
+      <c r="AU34" s="5" t="n"/>
+      <c r="AV34" s="5" t="n"/>
+      <c r="AW34" s="5" t="n"/>
+      <c r="AX34" s="5" t="n"/>
+      <c r="AY34" s="5" t="n"/>
+      <c r="AZ34" s="5" t="n"/>
+      <c r="BA34" s="5" t="n"/>
+      <c r="BB34" s="5" t="n"/>
+      <c r="BC34" s="5" t="n"/>
+      <c r="BD34" s="5" t="n"/>
+      <c r="BE34" s="6" t="n"/>
+      <c r="BO34" s="23" t="inlineStr">
         <is>
           <t>плавление/формирование</t>
         </is>
       </c>
-      <c r="CI34" s="4" t="n"/>
-      <c r="CJ34" s="4" t="n"/>
-      <c r="CK34" s="4" t="n"/>
-      <c r="CL34" s="4" t="n"/>
-      <c r="CM34" s="4" t="n"/>
-      <c r="CN34" s="4" t="n"/>
-      <c r="CO34" s="4" t="n"/>
-      <c r="CP34" s="4" t="n"/>
-      <c r="CQ34" s="4" t="n"/>
-      <c r="CR34" s="4" t="n"/>
-      <c r="CS34" s="4" t="n"/>
-      <c r="CT34" s="4" t="n"/>
-      <c r="CU34" s="4" t="n"/>
-      <c r="CV34" s="5" t="n"/>
-      <c r="CW34" s="6" t="inlineStr">
+      <c r="BP34" s="5" t="n"/>
+      <c r="BQ34" s="5" t="n"/>
+      <c r="BR34" s="5" t="n"/>
+      <c r="BS34" s="5" t="n"/>
+      <c r="BT34" s="5" t="n"/>
+      <c r="BU34" s="5" t="n"/>
+      <c r="BV34" s="5" t="n"/>
+      <c r="BW34" s="5" t="n"/>
+      <c r="BX34" s="5" t="n"/>
+      <c r="BY34" s="5" t="n"/>
+      <c r="BZ34" s="5" t="n"/>
+      <c r="CA34" s="5" t="n"/>
+      <c r="CB34" s="5" t="n"/>
+      <c r="CC34" s="5" t="n"/>
+      <c r="CD34" s="6" t="n"/>
+      <c r="CE34" s="7" t="inlineStr">
         <is>
           <t>посолка</t>
         </is>
       </c>
-      <c r="CX34" s="4" t="n"/>
-      <c r="CY34" s="4" t="n"/>
-      <c r="CZ34" s="4" t="n"/>
-      <c r="DA34" s="4" t="n"/>
-      <c r="DB34" s="4" t="n"/>
-      <c r="DC34" s="4" t="n"/>
-      <c r="DD34" s="4" t="n"/>
-      <c r="DE34" s="4" t="n"/>
-      <c r="DF34" s="4" t="n"/>
-      <c r="DG34" s="4" t="n"/>
-      <c r="DH34" s="4" t="n"/>
-      <c r="DI34" s="4" t="n"/>
-      <c r="DJ34" s="4" t="n"/>
-      <c r="DK34" s="4" t="n"/>
-      <c r="DL34" s="4" t="n"/>
-      <c r="DM34" s="4" t="n"/>
-      <c r="DN34" s="5" t="n"/>
+      <c r="CF34" s="5" t="n"/>
+      <c r="CG34" s="5" t="n"/>
+      <c r="CH34" s="5" t="n"/>
+      <c r="CI34" s="5" t="n"/>
+      <c r="CJ34" s="5" t="n"/>
+      <c r="CK34" s="5" t="n"/>
+      <c r="CL34" s="5" t="n"/>
+      <c r="CM34" s="5" t="n"/>
+      <c r="CN34" s="5" t="n"/>
+      <c r="CO34" s="5" t="n"/>
+      <c r="CP34" s="5" t="n"/>
+      <c r="CQ34" s="5" t="n"/>
+      <c r="CR34" s="5" t="n"/>
+      <c r="CS34" s="5" t="n"/>
+      <c r="CT34" s="5" t="n"/>
+      <c r="CU34" s="5" t="n"/>
+      <c r="CV34" s="6" t="n"/>
+      <c r="DN34" s="23" t="inlineStr">
+        <is>
+          <t>плавление/формирование</t>
+        </is>
+      </c>
+      <c r="DO34" s="5" t="n"/>
+      <c r="DP34" s="5" t="n"/>
+      <c r="DQ34" s="5" t="n"/>
+      <c r="DR34" s="5" t="n"/>
+      <c r="DS34" s="5" t="n"/>
+      <c r="DT34" s="5" t="n"/>
+      <c r="DU34" s="5" t="n"/>
+      <c r="DV34" s="5" t="n"/>
+      <c r="DW34" s="5" t="n"/>
+      <c r="DX34" s="5" t="n"/>
+      <c r="DY34" s="5" t="n"/>
+      <c r="DZ34" s="5" t="n"/>
+      <c r="EA34" s="5" t="n"/>
+      <c r="EB34" s="5" t="n"/>
+      <c r="EC34" s="5" t="n"/>
+      <c r="ED34" s="5" t="n"/>
+      <c r="EE34" s="5" t="n"/>
+      <c r="EF34" s="6" t="n"/>
+      <c r="EG34" s="7" t="inlineStr">
+        <is>
+          <t>посолка</t>
+        </is>
+      </c>
+      <c r="EH34" s="5" t="n"/>
+      <c r="EI34" s="5" t="n"/>
+      <c r="EJ34" s="5" t="n"/>
+      <c r="EK34" s="5" t="n"/>
+      <c r="EL34" s="5" t="n"/>
+      <c r="EM34" s="5" t="n"/>
+      <c r="EN34" s="5" t="n"/>
+      <c r="EO34" s="5" t="n"/>
+      <c r="EP34" s="5" t="n"/>
+      <c r="EQ34" s="5" t="n"/>
+      <c r="ER34" s="5" t="n"/>
+      <c r="ES34" s="5" t="n"/>
+      <c r="ET34" s="5" t="n"/>
+      <c r="EU34" s="5" t="n"/>
+      <c r="EV34" s="5" t="n"/>
+      <c r="EW34" s="5" t="n"/>
+      <c r="EX34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="24" t="n"/>
-      <c r="D35" s="25" t="n"/>
-      <c r="AD35" s="6" t="inlineStr">
+      <c r="B35" s="26" t="n"/>
+      <c r="D35" s="27" t="n"/>
+      <c r="AD35" s="7" t="inlineStr">
         <is>
           <t>посолка</t>
         </is>
       </c>
-      <c r="AE35" s="4" t="n"/>
-      <c r="AF35" s="4" t="n"/>
-      <c r="AG35" s="4" t="n"/>
-      <c r="AH35" s="4" t="n"/>
-      <c r="AI35" s="4" t="n"/>
-      <c r="AJ35" s="4" t="n"/>
-      <c r="AK35" s="4" t="n"/>
-      <c r="AL35" s="4" t="n"/>
-      <c r="AM35" s="4" t="n"/>
-      <c r="AN35" s="4" t="n"/>
-      <c r="AO35" s="4" t="n"/>
-      <c r="AP35" s="4" t="n"/>
-      <c r="AQ35" s="4" t="n"/>
-      <c r="AR35" s="4" t="n"/>
-      <c r="AS35" s="4" t="n"/>
-      <c r="AT35" s="4" t="n"/>
-      <c r="AU35" s="5" t="n"/>
-      <c r="CH35" s="6" t="inlineStr">
+      <c r="AE35" s="5" t="n"/>
+      <c r="AF35" s="5" t="n"/>
+      <c r="AG35" s="5" t="n"/>
+      <c r="AH35" s="5" t="n"/>
+      <c r="AI35" s="5" t="n"/>
+      <c r="AJ35" s="5" t="n"/>
+      <c r="AK35" s="5" t="n"/>
+      <c r="AL35" s="5" t="n"/>
+      <c r="AM35" s="5" t="n"/>
+      <c r="AN35" s="5" t="n"/>
+      <c r="AO35" s="5" t="n"/>
+      <c r="AP35" s="5" t="n"/>
+      <c r="AQ35" s="5" t="n"/>
+      <c r="AR35" s="5" t="n"/>
+      <c r="AS35" s="5" t="n"/>
+      <c r="AT35" s="5" t="n"/>
+      <c r="AU35" s="6" t="n"/>
+      <c r="BO35" s="7" t="inlineStr">
         <is>
           <t>посолка</t>
         </is>
       </c>
-      <c r="CI35" s="4" t="n"/>
-      <c r="CJ35" s="4" t="n"/>
-      <c r="CK35" s="4" t="n"/>
-      <c r="CL35" s="4" t="n"/>
-      <c r="CM35" s="4" t="n"/>
-      <c r="CN35" s="4" t="n"/>
-      <c r="CO35" s="4" t="n"/>
-      <c r="CP35" s="4" t="n"/>
-      <c r="CQ35" s="4" t="n"/>
-      <c r="CR35" s="4" t="n"/>
-      <c r="CS35" s="4" t="n"/>
-      <c r="CT35" s="4" t="n"/>
-      <c r="CU35" s="4" t="n"/>
-      <c r="CV35" s="4" t="n"/>
-      <c r="CW35" s="4" t="n"/>
-      <c r="CX35" s="4" t="n"/>
-      <c r="CY35" s="5" t="n"/>
+      <c r="BP35" s="5" t="n"/>
+      <c r="BQ35" s="5" t="n"/>
+      <c r="BR35" s="5" t="n"/>
+      <c r="BS35" s="5" t="n"/>
+      <c r="BT35" s="5" t="n"/>
+      <c r="BU35" s="5" t="n"/>
+      <c r="BV35" s="5" t="n"/>
+      <c r="BW35" s="5" t="n"/>
+      <c r="BX35" s="5" t="n"/>
+      <c r="BY35" s="5" t="n"/>
+      <c r="BZ35" s="5" t="n"/>
+      <c r="CA35" s="5" t="n"/>
+      <c r="CB35" s="5" t="n"/>
+      <c r="CC35" s="5" t="n"/>
+      <c r="CD35" s="5" t="n"/>
+      <c r="CE35" s="5" t="n"/>
+      <c r="CF35" s="6" t="n"/>
+      <c r="DN35" s="7" t="inlineStr">
+        <is>
+          <t>посолка</t>
+        </is>
+      </c>
+      <c r="DO35" s="5" t="n"/>
+      <c r="DP35" s="5" t="n"/>
+      <c r="DQ35" s="5" t="n"/>
+      <c r="DR35" s="5" t="n"/>
+      <c r="DS35" s="5" t="n"/>
+      <c r="DT35" s="5" t="n"/>
+      <c r="DU35" s="5" t="n"/>
+      <c r="DV35" s="5" t="n"/>
+      <c r="DW35" s="5" t="n"/>
+      <c r="DX35" s="5" t="n"/>
+      <c r="DY35" s="5" t="n"/>
+      <c r="DZ35" s="5" t="n"/>
+      <c r="EA35" s="5" t="n"/>
+      <c r="EB35" s="5" t="n"/>
+      <c r="EC35" s="5" t="n"/>
+      <c r="ED35" s="5" t="n"/>
+      <c r="EE35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="24" t="n"/>
-      <c r="D36" s="25" t="n"/>
-      <c r="AY36" s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AZ36" s="4" t="n"/>
-      <c r="BA36" s="4" t="n"/>
-      <c r="BB36" s="5" t="n"/>
-      <c r="BC36" s="10" t="inlineStr">
-        <is>
-          <t>Сулугуни / Сулугуни</t>
-        </is>
-      </c>
-      <c r="BD36" s="4" t="n"/>
-      <c r="BE36" s="4" t="n"/>
-      <c r="BF36" s="4" t="n"/>
-      <c r="BG36" s="4" t="n"/>
-      <c r="BH36" s="4" t="n"/>
-      <c r="BI36" s="4" t="n"/>
-      <c r="BJ36" s="4" t="n"/>
-      <c r="BK36" s="4" t="n"/>
-      <c r="BL36" s="4" t="n"/>
-      <c r="BM36" s="4" t="n"/>
-      <c r="BN36" s="4" t="n"/>
-      <c r="BO36" s="4" t="n"/>
-      <c r="BP36" s="4" t="n"/>
-      <c r="BQ36" s="4" t="n"/>
-      <c r="BR36" s="4" t="n"/>
-      <c r="BS36" s="4" t="n"/>
-      <c r="BT36" s="4" t="n"/>
-      <c r="BU36" s="4" t="n"/>
-      <c r="BV36" s="4" t="n"/>
-      <c r="BW36" s="4" t="n"/>
-      <c r="BX36" s="4" t="n"/>
-      <c r="BY36" s="4" t="n"/>
-      <c r="BZ36" s="4" t="n"/>
-      <c r="CA36" s="4" t="n"/>
-      <c r="CB36" s="5" t="n"/>
-      <c r="CW36" s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="CX36" s="4" t="n"/>
-      <c r="CY36" s="4" t="n"/>
+      <c r="B36" s="26" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="CE36" s="11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="CF36" s="5" t="n"/>
+      <c r="CG36" s="5" t="n"/>
+      <c r="CH36" s="6" t="n"/>
+      <c r="CI36" s="11" t="inlineStr">
+        <is>
+          <t>Сулугуни 1.8/1.2/0.12/2.22</t>
+        </is>
+      </c>
+      <c r="CJ36" s="5" t="n"/>
+      <c r="CK36" s="5" t="n"/>
+      <c r="CL36" s="5" t="n"/>
+      <c r="CM36" s="5" t="n"/>
+      <c r="CN36" s="5" t="n"/>
+      <c r="CO36" s="5" t="n"/>
+      <c r="CP36" s="5" t="n"/>
+      <c r="CQ36" s="5" t="n"/>
+      <c r="CR36" s="5" t="n"/>
+      <c r="CS36" s="5" t="n"/>
+      <c r="CT36" s="5" t="n"/>
+      <c r="CU36" s="5" t="n"/>
+      <c r="CV36" s="5" t="n"/>
+      <c r="CW36" s="5" t="n"/>
+      <c r="CX36" s="5" t="n"/>
+      <c r="CY36" s="5" t="n"/>
       <c r="CZ36" s="5" t="n"/>
-      <c r="DA36" s="10" t="inlineStr">
-        <is>
-          <t>Для пиццы / Для пиццы</t>
-        </is>
-      </c>
-      <c r="DB36" s="4" t="n"/>
-      <c r="DC36" s="4" t="n"/>
-      <c r="DD36" s="4" t="n"/>
-      <c r="DE36" s="4" t="n"/>
-      <c r="DF36" s="4" t="n"/>
-      <c r="DG36" s="4" t="n"/>
-      <c r="DH36" s="4" t="n"/>
-      <c r="DI36" s="4" t="n"/>
-      <c r="DJ36" s="4" t="n"/>
-      <c r="DK36" s="4" t="n"/>
-      <c r="DL36" s="4" t="n"/>
-      <c r="DM36" s="4" t="n"/>
-      <c r="DN36" s="4" t="n"/>
-      <c r="DO36" s="4" t="n"/>
-      <c r="DP36" s="4" t="n"/>
-      <c r="DQ36" s="4" t="n"/>
-      <c r="DR36" s="4" t="n"/>
-      <c r="DS36" s="4" t="n"/>
-      <c r="DT36" s="4" t="n"/>
-      <c r="DU36" s="4" t="n"/>
-      <c r="DV36" s="4" t="n"/>
-      <c r="DW36" s="4" t="n"/>
-      <c r="DX36" s="4" t="n"/>
-      <c r="DY36" s="4" t="n"/>
-      <c r="DZ36" s="4" t="n"/>
-      <c r="EA36" s="4" t="n"/>
-      <c r="EB36" s="4" t="n"/>
-      <c r="EC36" s="4" t="n"/>
-      <c r="ED36" s="4" t="n"/>
-      <c r="EE36" s="5" t="n"/>
+      <c r="DA36" s="5" t="n"/>
+      <c r="DB36" s="5" t="n"/>
+      <c r="DC36" s="5" t="n"/>
+      <c r="DD36" s="5" t="n"/>
+      <c r="DE36" s="5" t="n"/>
+      <c r="DF36" s="5" t="n"/>
+      <c r="DG36" s="5" t="n"/>
+      <c r="DH36" s="5" t="n"/>
+      <c r="DI36" s="5" t="n"/>
+      <c r="DJ36" s="5" t="n"/>
+      <c r="DK36" s="5" t="n"/>
+      <c r="DL36" s="5" t="n"/>
+      <c r="DM36" s="5" t="n"/>
+      <c r="DN36" s="5" t="n"/>
+      <c r="DO36" s="5" t="n"/>
+      <c r="DP36" s="5" t="n"/>
+      <c r="DQ36" s="5" t="n"/>
+      <c r="DR36" s="5" t="n"/>
+      <c r="DS36" s="5" t="n"/>
+      <c r="DT36" s="5" t="n"/>
+      <c r="DU36" s="5" t="n"/>
+      <c r="DV36" s="5" t="n"/>
+      <c r="DW36" s="5" t="n"/>
+      <c r="DX36" s="5" t="n"/>
+      <c r="DY36" s="5" t="n"/>
+      <c r="DZ36" s="5" t="n"/>
+      <c r="EA36" s="5" t="n"/>
+      <c r="EB36" s="5" t="n"/>
+      <c r="EC36" s="5" t="n"/>
+      <c r="ED36" s="5" t="n"/>
+      <c r="EE36" s="6" t="n"/>
+      <c r="FB36" s="11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="FC36" s="5" t="n"/>
+      <c r="FD36" s="5" t="n"/>
+      <c r="FE36" s="6" t="n"/>
+      <c r="FF36" s="11" t="inlineStr">
+        <is>
+          <t>Для пиццы 2.22/1.2/1.0</t>
+        </is>
+      </c>
+      <c r="FG36" s="5" t="n"/>
+      <c r="FH36" s="5" t="n"/>
+      <c r="FI36" s="5" t="n"/>
+      <c r="FJ36" s="5" t="n"/>
+      <c r="FK36" s="5" t="n"/>
+      <c r="FL36" s="5" t="n"/>
+      <c r="FM36" s="5" t="n"/>
+      <c r="FN36" s="5" t="n"/>
+      <c r="FO36" s="5" t="n"/>
+      <c r="FP36" s="5" t="n"/>
+      <c r="FQ36" s="5" t="n"/>
+      <c r="FR36" s="5" t="n"/>
+      <c r="FS36" s="5" t="n"/>
+      <c r="FT36" s="5" t="n"/>
+      <c r="FU36" s="5" t="n"/>
+      <c r="FV36" s="5" t="n"/>
+      <c r="FW36" s="5" t="n"/>
+      <c r="FX36" s="5" t="n"/>
+      <c r="FY36" s="5" t="n"/>
+      <c r="FZ36" s="5" t="n"/>
+      <c r="GA36" s="5" t="n"/>
+      <c r="GB36" s="5" t="n"/>
+      <c r="GC36" s="5" t="n"/>
+      <c r="GD36" s="5" t="n"/>
+      <c r="GE36" s="5" t="n"/>
+      <c r="GF36" s="5" t="n"/>
+      <c r="GG36" s="5" t="n"/>
+      <c r="GH36" s="5" t="n"/>
+      <c r="GI36" s="5" t="n"/>
+      <c r="GJ36" s="5" t="n"/>
+      <c r="GK36" s="5" t="n"/>
+      <c r="GL36" s="5" t="n"/>
+      <c r="GM36" s="5" t="n"/>
+      <c r="GN36" s="5" t="n"/>
+      <c r="GO36" s="5" t="n"/>
+      <c r="GP36" s="5" t="n"/>
+      <c r="GQ36" s="5" t="n"/>
+      <c r="GR36" s="5" t="n"/>
+      <c r="GS36" s="5" t="n"/>
+      <c r="GT36" s="5" t="n"/>
+      <c r="GU36" s="5" t="n"/>
+      <c r="GV36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="24" t="n"/>
-      <c r="D37" s="25" t="n"/>
-      <c r="AY37" s="21" t="inlineStr">
+      <c r="B37" s="26" t="n"/>
+      <c r="D37" s="27" t="n"/>
+      <c r="CE37" s="23" t="inlineStr">
         <is>
           <t>плавление/формирование</t>
         </is>
       </c>
-      <c r="AZ37" s="4" t="n"/>
-      <c r="BA37" s="4" t="n"/>
-      <c r="BB37" s="4" t="n"/>
-      <c r="BC37" s="4" t="n"/>
-      <c r="BD37" s="4" t="n"/>
-      <c r="BE37" s="4" t="n"/>
-      <c r="BF37" s="4" t="n"/>
-      <c r="BG37" s="4" t="n"/>
-      <c r="BH37" s="4" t="n"/>
-      <c r="BI37" s="4" t="n"/>
-      <c r="BJ37" s="5" t="n"/>
-      <c r="BK37" s="6" t="inlineStr">
+      <c r="CF37" s="5" t="n"/>
+      <c r="CG37" s="5" t="n"/>
+      <c r="CH37" s="5" t="n"/>
+      <c r="CI37" s="5" t="n"/>
+      <c r="CJ37" s="5" t="n"/>
+      <c r="CK37" s="5" t="n"/>
+      <c r="CL37" s="5" t="n"/>
+      <c r="CM37" s="5" t="n"/>
+      <c r="CN37" s="5" t="n"/>
+      <c r="CO37" s="5" t="n"/>
+      <c r="CP37" s="5" t="n"/>
+      <c r="CQ37" s="5" t="n"/>
+      <c r="CR37" s="5" t="n"/>
+      <c r="CS37" s="5" t="n"/>
+      <c r="CT37" s="5" t="n"/>
+      <c r="CU37" s="5" t="n"/>
+      <c r="CV37" s="5" t="n"/>
+      <c r="CW37" s="5" t="n"/>
+      <c r="CX37" s="5" t="n"/>
+      <c r="CY37" s="5" t="n"/>
+      <c r="CZ37" s="5" t="n"/>
+      <c r="DA37" s="5" t="n"/>
+      <c r="DB37" s="5" t="n"/>
+      <c r="DC37" s="5" t="n"/>
+      <c r="DD37" s="5" t="n"/>
+      <c r="DE37" s="5" t="n"/>
+      <c r="DF37" s="5" t="n"/>
+      <c r="DG37" s="5" t="n"/>
+      <c r="DH37" s="5" t="n"/>
+      <c r="DI37" s="5" t="n"/>
+      <c r="DJ37" s="5" t="n"/>
+      <c r="DK37" s="5" t="n"/>
+      <c r="DL37" s="5" t="n"/>
+      <c r="DM37" s="6" t="n"/>
+      <c r="DN37" s="7" t="inlineStr">
         <is>
           <t>посолка</t>
         </is>
       </c>
-      <c r="BL37" s="4" t="n"/>
-      <c r="BM37" s="4" t="n"/>
-      <c r="BN37" s="4" t="n"/>
-      <c r="BO37" s="4" t="n"/>
-      <c r="BP37" s="4" t="n"/>
-      <c r="BQ37" s="4" t="n"/>
-      <c r="BR37" s="4" t="n"/>
-      <c r="BS37" s="4" t="n"/>
-      <c r="BT37" s="4" t="n"/>
-      <c r="BU37" s="4" t="n"/>
-      <c r="BV37" s="4" t="n"/>
-      <c r="BW37" s="4" t="n"/>
-      <c r="BX37" s="4" t="n"/>
-      <c r="BY37" s="4" t="n"/>
-      <c r="BZ37" s="4" t="n"/>
-      <c r="CA37" s="4" t="n"/>
-      <c r="CB37" s="5" t="n"/>
-      <c r="CW37" s="21" t="inlineStr">
+      <c r="DO37" s="5" t="n"/>
+      <c r="DP37" s="5" t="n"/>
+      <c r="DQ37" s="5" t="n"/>
+      <c r="DR37" s="5" t="n"/>
+      <c r="DS37" s="5" t="n"/>
+      <c r="DT37" s="5" t="n"/>
+      <c r="DU37" s="5" t="n"/>
+      <c r="DV37" s="5" t="n"/>
+      <c r="DW37" s="5" t="n"/>
+      <c r="DX37" s="5" t="n"/>
+      <c r="DY37" s="5" t="n"/>
+      <c r="DZ37" s="5" t="n"/>
+      <c r="EA37" s="5" t="n"/>
+      <c r="EB37" s="5" t="n"/>
+      <c r="EC37" s="5" t="n"/>
+      <c r="ED37" s="5" t="n"/>
+      <c r="EE37" s="6" t="n"/>
+      <c r="FB37" s="23" t="inlineStr">
         <is>
           <t>плавление/формирование</t>
         </is>
       </c>
-      <c r="CX37" s="4" t="n"/>
-      <c r="CY37" s="4" t="n"/>
-      <c r="CZ37" s="4" t="n"/>
-      <c r="DA37" s="4" t="n"/>
-      <c r="DB37" s="4" t="n"/>
-      <c r="DC37" s="4" t="n"/>
-      <c r="DD37" s="4" t="n"/>
-      <c r="DE37" s="4" t="n"/>
-      <c r="DF37" s="4" t="n"/>
-      <c r="DG37" s="4" t="n"/>
-      <c r="DH37" s="4" t="n"/>
-      <c r="DI37" s="4" t="n"/>
-      <c r="DJ37" s="4" t="n"/>
-      <c r="DK37" s="4" t="n"/>
-      <c r="DL37" s="4" t="n"/>
-      <c r="DM37" s="5" t="n"/>
-      <c r="DN37" s="6" t="inlineStr">
+      <c r="FC37" s="5" t="n"/>
+      <c r="FD37" s="5" t="n"/>
+      <c r="FE37" s="5" t="n"/>
+      <c r="FF37" s="5" t="n"/>
+      <c r="FG37" s="5" t="n"/>
+      <c r="FH37" s="5" t="n"/>
+      <c r="FI37" s="5" t="n"/>
+      <c r="FJ37" s="5" t="n"/>
+      <c r="FK37" s="5" t="n"/>
+      <c r="FL37" s="5" t="n"/>
+      <c r="FM37" s="5" t="n"/>
+      <c r="FN37" s="5" t="n"/>
+      <c r="FO37" s="5" t="n"/>
+      <c r="FP37" s="5" t="n"/>
+      <c r="FQ37" s="5" t="n"/>
+      <c r="FR37" s="5" t="n"/>
+      <c r="FS37" s="5" t="n"/>
+      <c r="FT37" s="5" t="n"/>
+      <c r="FU37" s="5" t="n"/>
+      <c r="FV37" s="5" t="n"/>
+      <c r="FW37" s="6" t="n"/>
+      <c r="FX37" s="7" t="inlineStr">
         <is>
           <t>посолка</t>
         </is>
       </c>
-      <c r="DO37" s="4" t="n"/>
-      <c r="DP37" s="4" t="n"/>
-      <c r="DQ37" s="4" t="n"/>
-      <c r="DR37" s="4" t="n"/>
-      <c r="DS37" s="4" t="n"/>
-      <c r="DT37" s="4" t="n"/>
-      <c r="DU37" s="4" t="n"/>
-      <c r="DV37" s="4" t="n"/>
-      <c r="DW37" s="4" t="n"/>
-      <c r="DX37" s="4" t="n"/>
-      <c r="DY37" s="4" t="n"/>
-      <c r="DZ37" s="4" t="n"/>
-      <c r="EA37" s="4" t="n"/>
-      <c r="EB37" s="4" t="n"/>
-      <c r="EC37" s="4" t="n"/>
-      <c r="ED37" s="4" t="n"/>
-      <c r="EE37" s="5" t="n"/>
+      <c r="FY37" s="5" t="n"/>
+      <c r="FZ37" s="5" t="n"/>
+      <c r="GA37" s="5" t="n"/>
+      <c r="GB37" s="5" t="n"/>
+      <c r="GC37" s="5" t="n"/>
+      <c r="GD37" s="5" t="n"/>
+      <c r="GE37" s="5" t="n"/>
+      <c r="GF37" s="5" t="n"/>
+      <c r="GG37" s="5" t="n"/>
+      <c r="GH37" s="5" t="n"/>
+      <c r="GI37" s="5" t="n"/>
+      <c r="GJ37" s="5" t="n"/>
+      <c r="GK37" s="5" t="n"/>
+      <c r="GL37" s="5" t="n"/>
+      <c r="GM37" s="5" t="n"/>
+      <c r="GN37" s="5" t="n"/>
+      <c r="GO37" s="5" t="n"/>
+      <c r="GP37" s="5" t="n"/>
+      <c r="GQ37" s="5" t="n"/>
+      <c r="GR37" s="5" t="n"/>
+      <c r="GS37" s="5" t="n"/>
+      <c r="GT37" s="5" t="n"/>
+      <c r="GU37" s="5" t="n"/>
+      <c r="GV37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="B38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="AY38" s="6" t="inlineStr">
+      <c r="B38" s="12" t="n"/>
+      <c r="C38" s="13" t="n"/>
+      <c r="D38" s="14" t="n"/>
+      <c r="CE38" s="7" t="inlineStr">
         <is>
           <t>посолка</t>
         </is>
       </c>
-      <c r="AZ38" s="4" t="n"/>
-      <c r="BA38" s="4" t="n"/>
-      <c r="BB38" s="4" t="n"/>
-      <c r="BC38" s="4" t="n"/>
-      <c r="BD38" s="4" t="n"/>
-      <c r="BE38" s="4" t="n"/>
-      <c r="BF38" s="4" t="n"/>
-      <c r="BG38" s="4" t="n"/>
-      <c r="BH38" s="4" t="n"/>
-      <c r="BI38" s="4" t="n"/>
-      <c r="BJ38" s="4" t="n"/>
-      <c r="BK38" s="4" t="n"/>
-      <c r="BL38" s="4" t="n"/>
-      <c r="BM38" s="4" t="n"/>
-      <c r="BN38" s="4" t="n"/>
-      <c r="BO38" s="4" t="n"/>
-      <c r="BP38" s="5" t="n"/>
-      <c r="CW38" s="6" t="inlineStr">
+      <c r="CF38" s="5" t="n"/>
+      <c r="CG38" s="5" t="n"/>
+      <c r="CH38" s="5" t="n"/>
+      <c r="CI38" s="5" t="n"/>
+      <c r="CJ38" s="5" t="n"/>
+      <c r="CK38" s="5" t="n"/>
+      <c r="CL38" s="5" t="n"/>
+      <c r="CM38" s="5" t="n"/>
+      <c r="CN38" s="5" t="n"/>
+      <c r="CO38" s="5" t="n"/>
+      <c r="CP38" s="5" t="n"/>
+      <c r="CQ38" s="5" t="n"/>
+      <c r="CR38" s="5" t="n"/>
+      <c r="CS38" s="5" t="n"/>
+      <c r="CT38" s="5" t="n"/>
+      <c r="CU38" s="5" t="n"/>
+      <c r="CV38" s="6" t="n"/>
+      <c r="FB38" s="7" t="inlineStr">
         <is>
           <t>посолка</t>
         </is>
       </c>
-      <c r="CX38" s="4" t="n"/>
-      <c r="CY38" s="4" t="n"/>
-      <c r="CZ38" s="4" t="n"/>
-      <c r="DA38" s="4" t="n"/>
-      <c r="DB38" s="4" t="n"/>
-      <c r="DC38" s="4" t="n"/>
-      <c r="DD38" s="4" t="n"/>
-      <c r="DE38" s="4" t="n"/>
-      <c r="DF38" s="4" t="n"/>
-      <c r="DG38" s="4" t="n"/>
-      <c r="DH38" s="4" t="n"/>
-      <c r="DI38" s="4" t="n"/>
-      <c r="DJ38" s="4" t="n"/>
-      <c r="DK38" s="4" t="n"/>
-      <c r="DL38" s="4" t="n"/>
-      <c r="DM38" s="4" t="n"/>
-      <c r="DN38" s="5" t="n"/>
+      <c r="FC38" s="5" t="n"/>
+      <c r="FD38" s="5" t="n"/>
+      <c r="FE38" s="5" t="n"/>
+      <c r="FF38" s="5" t="n"/>
+      <c r="FG38" s="5" t="n"/>
+      <c r="FH38" s="5" t="n"/>
+      <c r="FI38" s="5" t="n"/>
+      <c r="FJ38" s="5" t="n"/>
+      <c r="FK38" s="5" t="n"/>
+      <c r="FL38" s="5" t="n"/>
+      <c r="FM38" s="5" t="n"/>
+      <c r="FN38" s="5" t="n"/>
+      <c r="FO38" s="5" t="n"/>
+      <c r="FP38" s="5" t="n"/>
+      <c r="FQ38" s="5" t="n"/>
+      <c r="FR38" s="5" t="n"/>
+      <c r="FS38" s="5" t="n"/>
+      <c r="FT38" s="5" t="n"/>
+      <c r="FU38" s="5" t="n"/>
+      <c r="FV38" s="5" t="n"/>
+      <c r="FW38" s="5" t="n"/>
+      <c r="FX38" s="5" t="n"/>
+      <c r="FY38" s="5" t="n"/>
+      <c r="FZ38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="BK39" s="10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BL39" s="4" t="n"/>
-      <c r="BM39" s="4" t="n"/>
-      <c r="BN39" s="5" t="n"/>
-      <c r="BO39" s="10" t="inlineStr">
-        <is>
-          <t>Сулугуни / Сулугуни / Сулугуни / Сулугуни</t>
-        </is>
-      </c>
-      <c r="BP39" s="4" t="n"/>
-      <c r="BQ39" s="4" t="n"/>
-      <c r="BR39" s="4" t="n"/>
-      <c r="BS39" s="4" t="n"/>
-      <c r="BT39" s="4" t="n"/>
-      <c r="BU39" s="4" t="n"/>
-      <c r="BV39" s="4" t="n"/>
-      <c r="BW39" s="4" t="n"/>
-      <c r="BX39" s="4" t="n"/>
-      <c r="BY39" s="4" t="n"/>
-      <c r="BZ39" s="4" t="n"/>
-      <c r="CA39" s="4" t="n"/>
-      <c r="CB39" s="4" t="n"/>
-      <c r="CC39" s="4" t="n"/>
-      <c r="CD39" s="4" t="n"/>
-      <c r="CE39" s="4" t="n"/>
-      <c r="CF39" s="4" t="n"/>
-      <c r="CG39" s="4" t="n"/>
-      <c r="CH39" s="4" t="n"/>
-      <c r="CI39" s="4" t="n"/>
-      <c r="CJ39" s="4" t="n"/>
-      <c r="CK39" s="4" t="n"/>
-      <c r="CL39" s="4" t="n"/>
-      <c r="CM39" s="4" t="n"/>
-      <c r="CN39" s="4" t="n"/>
-      <c r="CO39" s="4" t="n"/>
-      <c r="CP39" s="4" t="n"/>
-      <c r="CQ39" s="4" t="n"/>
-      <c r="CR39" s="4" t="n"/>
-      <c r="CS39" s="4" t="n"/>
-      <c r="CT39" s="4" t="n"/>
-      <c r="CU39" s="4" t="n"/>
-      <c r="CV39" s="4" t="n"/>
-      <c r="CW39" s="4" t="n"/>
-      <c r="CX39" s="4" t="n"/>
-      <c r="CY39" s="5" t="n"/>
-      <c r="DN39" s="10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="DO39" s="4" t="n"/>
-      <c r="DP39" s="4" t="n"/>
-      <c r="DQ39" s="5" t="n"/>
-      <c r="DR39" s="10" t="inlineStr">
-        <is>
-          <t>Для пиццы / Для пиццы / Для пиццы</t>
-        </is>
-      </c>
-      <c r="DS39" s="4" t="n"/>
-      <c r="DT39" s="4" t="n"/>
-      <c r="DU39" s="4" t="n"/>
-      <c r="DV39" s="4" t="n"/>
-      <c r="DW39" s="4" t="n"/>
-      <c r="DX39" s="4" t="n"/>
-      <c r="DY39" s="4" t="n"/>
-      <c r="DZ39" s="4" t="n"/>
-      <c r="EA39" s="4" t="n"/>
-      <c r="EB39" s="4" t="n"/>
-      <c r="EC39" s="4" t="n"/>
-      <c r="ED39" s="4" t="n"/>
-      <c r="EE39" s="4" t="n"/>
-      <c r="EF39" s="4" t="n"/>
-      <c r="EG39" s="4" t="n"/>
-      <c r="EH39" s="4" t="n"/>
-      <c r="EI39" s="4" t="n"/>
-      <c r="EJ39" s="4" t="n"/>
-      <c r="EK39" s="4" t="n"/>
-      <c r="EL39" s="4" t="n"/>
-      <c r="EM39" s="4" t="n"/>
-      <c r="EN39" s="4" t="n"/>
-      <c r="EO39" s="4" t="n"/>
-      <c r="EP39" s="4" t="n"/>
-      <c r="EQ39" s="4" t="n"/>
-      <c r="ER39" s="4" t="n"/>
-      <c r="ES39" s="4" t="n"/>
-      <c r="ET39" s="4" t="n"/>
-      <c r="EU39" s="4" t="n"/>
-      <c r="EV39" s="4" t="n"/>
-      <c r="EW39" s="4" t="n"/>
-      <c r="EX39" s="4" t="n"/>
-      <c r="EY39" s="4" t="n"/>
+      <c r="EG39" s="11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="EH39" s="5" t="n"/>
+      <c r="EI39" s="5" t="n"/>
+      <c r="EJ39" s="6" t="n"/>
+      <c r="EK39" s="11" t="inlineStr">
+        <is>
+          <t>Для пиццы 3.68/0.12</t>
+        </is>
+      </c>
+      <c r="EL39" s="5" t="n"/>
+      <c r="EM39" s="5" t="n"/>
+      <c r="EN39" s="5" t="n"/>
+      <c r="EO39" s="5" t="n"/>
+      <c r="EP39" s="5" t="n"/>
+      <c r="EQ39" s="5" t="n"/>
+      <c r="ER39" s="5" t="n"/>
+      <c r="ES39" s="5" t="n"/>
+      <c r="ET39" s="5" t="n"/>
+      <c r="EU39" s="5" t="n"/>
+      <c r="EV39" s="5" t="n"/>
+      <c r="EW39" s="5" t="n"/>
+      <c r="EX39" s="5" t="n"/>
+      <c r="EY39" s="5" t="n"/>
       <c r="EZ39" s="5" t="n"/>
+      <c r="FA39" s="5" t="n"/>
+      <c r="FB39" s="5" t="n"/>
+      <c r="FC39" s="5" t="n"/>
+      <c r="FD39" s="5" t="n"/>
+      <c r="FE39" s="5" t="n"/>
+      <c r="FF39" s="5" t="n"/>
+      <c r="FG39" s="5" t="n"/>
+      <c r="FH39" s="5" t="n"/>
+      <c r="FI39" s="5" t="n"/>
+      <c r="FJ39" s="5" t="n"/>
+      <c r="FK39" s="5" t="n"/>
+      <c r="FL39" s="5" t="n"/>
+      <c r="FM39" s="5" t="n"/>
+      <c r="FN39" s="5" t="n"/>
+      <c r="FO39" s="5" t="n"/>
+      <c r="FP39" s="5" t="n"/>
+      <c r="FQ39" s="5" t="n"/>
+      <c r="FR39" s="5" t="n"/>
+      <c r="FS39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="BK40" s="21" t="inlineStr">
+      <c r="EG40" s="23" t="inlineStr">
         <is>
           <t>плавление/формирование</t>
         </is>
       </c>
-      <c r="BL40" s="4" t="n"/>
-      <c r="BM40" s="4" t="n"/>
-      <c r="BN40" s="4" t="n"/>
-      <c r="BO40" s="4" t="n"/>
-      <c r="BP40" s="4" t="n"/>
-      <c r="BQ40" s="4" t="n"/>
-      <c r="BR40" s="4" t="n"/>
-      <c r="BS40" s="4" t="n"/>
-      <c r="BT40" s="4" t="n"/>
-      <c r="BU40" s="4" t="n"/>
-      <c r="BV40" s="4" t="n"/>
-      <c r="BW40" s="4" t="n"/>
-      <c r="BX40" s="4" t="n"/>
-      <c r="BY40" s="4" t="n"/>
-      <c r="BZ40" s="4" t="n"/>
-      <c r="CA40" s="4" t="n"/>
-      <c r="CB40" s="4" t="n"/>
-      <c r="CC40" s="4" t="n"/>
-      <c r="CD40" s="4" t="n"/>
-      <c r="CE40" s="4" t="n"/>
-      <c r="CF40" s="4" t="n"/>
-      <c r="CG40" s="5" t="n"/>
-      <c r="CH40" s="6" t="inlineStr">
+      <c r="EH40" s="5" t="n"/>
+      <c r="EI40" s="5" t="n"/>
+      <c r="EJ40" s="5" t="n"/>
+      <c r="EK40" s="5" t="n"/>
+      <c r="EL40" s="5" t="n"/>
+      <c r="EM40" s="5" t="n"/>
+      <c r="EN40" s="5" t="n"/>
+      <c r="EO40" s="5" t="n"/>
+      <c r="EP40" s="5" t="n"/>
+      <c r="EQ40" s="5" t="n"/>
+      <c r="ER40" s="5" t="n"/>
+      <c r="ES40" s="5" t="n"/>
+      <c r="ET40" s="5" t="n"/>
+      <c r="EU40" s="5" t="n"/>
+      <c r="EV40" s="5" t="n"/>
+      <c r="EW40" s="5" t="n"/>
+      <c r="EX40" s="5" t="n"/>
+      <c r="EY40" s="5" t="n"/>
+      <c r="EZ40" s="5" t="n"/>
+      <c r="FA40" s="6" t="n"/>
+      <c r="FB40" s="7" t="inlineStr">
         <is>
           <t>посолка</t>
         </is>
       </c>
-      <c r="CI40" s="4" t="n"/>
-      <c r="CJ40" s="4" t="n"/>
-      <c r="CK40" s="4" t="n"/>
-      <c r="CL40" s="4" t="n"/>
-      <c r="CM40" s="4" t="n"/>
-      <c r="CN40" s="4" t="n"/>
-      <c r="CO40" s="4" t="n"/>
-      <c r="CP40" s="4" t="n"/>
-      <c r="CQ40" s="4" t="n"/>
-      <c r="CR40" s="4" t="n"/>
-      <c r="CS40" s="4" t="n"/>
-      <c r="CT40" s="4" t="n"/>
-      <c r="CU40" s="4" t="n"/>
-      <c r="CV40" s="4" t="n"/>
-      <c r="CW40" s="4" t="n"/>
-      <c r="CX40" s="4" t="n"/>
-      <c r="CY40" s="5" t="n"/>
-      <c r="DN40" s="21" t="inlineStr">
-        <is>
-          <t>плавление/формирование</t>
-        </is>
-      </c>
-      <c r="DO40" s="4" t="n"/>
-      <c r="DP40" s="4" t="n"/>
-      <c r="DQ40" s="4" t="n"/>
-      <c r="DR40" s="4" t="n"/>
-      <c r="DS40" s="4" t="n"/>
-      <c r="DT40" s="4" t="n"/>
-      <c r="DU40" s="4" t="n"/>
-      <c r="DV40" s="4" t="n"/>
-      <c r="DW40" s="4" t="n"/>
-      <c r="DX40" s="4" t="n"/>
-      <c r="DY40" s="4" t="n"/>
-      <c r="DZ40" s="4" t="n"/>
-      <c r="EA40" s="5" t="n"/>
-      <c r="EB40" s="6" t="inlineStr">
-        <is>
-          <t>посолка</t>
-        </is>
-      </c>
-      <c r="EC40" s="4" t="n"/>
-      <c r="ED40" s="4" t="n"/>
-      <c r="EE40" s="4" t="n"/>
-      <c r="EF40" s="4" t="n"/>
-      <c r="EG40" s="4" t="n"/>
-      <c r="EH40" s="4" t="n"/>
-      <c r="EI40" s="4" t="n"/>
-      <c r="EJ40" s="4" t="n"/>
-      <c r="EK40" s="4" t="n"/>
-      <c r="EL40" s="4" t="n"/>
-      <c r="EM40" s="4" t="n"/>
-      <c r="EN40" s="4" t="n"/>
-      <c r="EO40" s="4" t="n"/>
-      <c r="EP40" s="4" t="n"/>
-      <c r="EQ40" s="4" t="n"/>
-      <c r="ER40" s="4" t="n"/>
-      <c r="ES40" s="4" t="n"/>
-      <c r="ET40" s="4" t="n"/>
-      <c r="EU40" s="4" t="n"/>
-      <c r="EV40" s="4" t="n"/>
-      <c r="EW40" s="4" t="n"/>
-      <c r="EX40" s="4" t="n"/>
-      <c r="EY40" s="4" t="n"/>
-      <c r="EZ40" s="5" t="n"/>
+      <c r="FC40" s="5" t="n"/>
+      <c r="FD40" s="5" t="n"/>
+      <c r="FE40" s="5" t="n"/>
+      <c r="FF40" s="5" t="n"/>
+      <c r="FG40" s="5" t="n"/>
+      <c r="FH40" s="5" t="n"/>
+      <c r="FI40" s="5" t="n"/>
+      <c r="FJ40" s="5" t="n"/>
+      <c r="FK40" s="5" t="n"/>
+      <c r="FL40" s="5" t="n"/>
+      <c r="FM40" s="5" t="n"/>
+      <c r="FN40" s="5" t="n"/>
+      <c r="FO40" s="5" t="n"/>
+      <c r="FP40" s="5" t="n"/>
+      <c r="FQ40" s="5" t="n"/>
+      <c r="FR40" s="5" t="n"/>
+      <c r="FS40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="BK41" s="6" t="inlineStr">
+      <c r="EG41" s="7" t="inlineStr">
         <is>
           <t>посолка</t>
         </is>
       </c>
-      <c r="BL41" s="4" t="n"/>
-      <c r="BM41" s="4" t="n"/>
-      <c r="BN41" s="4" t="n"/>
-      <c r="BO41" s="4" t="n"/>
-      <c r="BP41" s="4" t="n"/>
-      <c r="BQ41" s="4" t="n"/>
-      <c r="BR41" s="4" t="n"/>
-      <c r="BS41" s="4" t="n"/>
-      <c r="BT41" s="4" t="n"/>
-      <c r="BU41" s="4" t="n"/>
-      <c r="BV41" s="4" t="n"/>
-      <c r="BW41" s="4" t="n"/>
-      <c r="BX41" s="4" t="n"/>
-      <c r="BY41" s="4" t="n"/>
-      <c r="BZ41" s="4" t="n"/>
-      <c r="CA41" s="4" t="n"/>
-      <c r="CB41" s="5" t="n"/>
-      <c r="DN41" s="6" t="inlineStr">
-        <is>
-          <t>посолка</t>
-        </is>
-      </c>
-      <c r="DO41" s="4" t="n"/>
-      <c r="DP41" s="4" t="n"/>
-      <c r="DQ41" s="4" t="n"/>
-      <c r="DR41" s="4" t="n"/>
-      <c r="DS41" s="4" t="n"/>
-      <c r="DT41" s="4" t="n"/>
-      <c r="DU41" s="4" t="n"/>
-      <c r="DV41" s="4" t="n"/>
-      <c r="DW41" s="4" t="n"/>
-      <c r="DX41" s="4" t="n"/>
-      <c r="DY41" s="4" t="n"/>
-      <c r="DZ41" s="4" t="n"/>
-      <c r="EA41" s="4" t="n"/>
-      <c r="EB41" s="4" t="n"/>
-      <c r="EC41" s="4" t="n"/>
-      <c r="ED41" s="4" t="n"/>
-      <c r="EE41" s="4" t="n"/>
-      <c r="EF41" s="4" t="n"/>
-      <c r="EG41" s="4" t="n"/>
-      <c r="EH41" s="4" t="n"/>
-      <c r="EI41" s="4" t="n"/>
-      <c r="EJ41" s="4" t="n"/>
-      <c r="EK41" s="4" t="n"/>
+      <c r="EH41" s="5" t="n"/>
+      <c r="EI41" s="5" t="n"/>
+      <c r="EJ41" s="5" t="n"/>
+      <c r="EK41" s="5" t="n"/>
       <c r="EL41" s="5" t="n"/>
+      <c r="EM41" s="5" t="n"/>
+      <c r="EN41" s="5" t="n"/>
+      <c r="EO41" s="5" t="n"/>
+      <c r="EP41" s="5" t="n"/>
+      <c r="EQ41" s="5" t="n"/>
+      <c r="ER41" s="5" t="n"/>
+      <c r="ES41" s="5" t="n"/>
+      <c r="ET41" s="5" t="n"/>
+      <c r="EU41" s="5" t="n"/>
+      <c r="EV41" s="5" t="n"/>
+      <c r="EW41" s="5" t="n"/>
+      <c r="EX41" s="6" t="n"/>
+    </row>
+    <row r="45">
+      <c r="F45" s="22" t="inlineStr">
+        <is>
+          <t>Бригадир упаковки +5 рабочих упаковки + наладчик</t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="n"/>
+      <c r="H45" s="5" t="n"/>
+      <c r="I45" s="5" t="n"/>
+      <c r="J45" s="5" t="n"/>
+      <c r="K45" s="5" t="n"/>
+      <c r="L45" s="5" t="n"/>
+      <c r="M45" s="5" t="n"/>
+      <c r="N45" s="5" t="n"/>
+      <c r="O45" s="5" t="n"/>
+      <c r="P45" s="5" t="n"/>
+      <c r="Q45" s="5" t="n"/>
+      <c r="R45" s="5" t="n"/>
+      <c r="S45" s="5" t="n"/>
+      <c r="T45" s="5" t="n"/>
+      <c r="U45" s="5" t="n"/>
+      <c r="V45" s="5" t="n"/>
+      <c r="W45" s="5" t="n"/>
+      <c r="X45" s="5" t="n"/>
+      <c r="Y45" s="5" t="n"/>
+      <c r="Z45" s="5" t="n"/>
+      <c r="AA45" s="5" t="n"/>
+      <c r="AB45" s="5" t="n"/>
+      <c r="AC45" s="5" t="n"/>
+      <c r="AD45" s="5" t="n"/>
+      <c r="AE45" s="5" t="n"/>
+      <c r="AF45" s="5" t="n"/>
+      <c r="AG45" s="5" t="n"/>
+      <c r="AH45" s="5" t="n"/>
+      <c r="AI45" s="5" t="n"/>
+      <c r="AJ45" s="5" t="n"/>
+      <c r="AK45" s="5" t="n"/>
+      <c r="AL45" s="5" t="n"/>
+      <c r="AM45" s="5" t="n"/>
+      <c r="AN45" s="5" t="n"/>
+      <c r="AO45" s="5" t="n"/>
+      <c r="AP45" s="5" t="n"/>
+      <c r="AQ45" s="5" t="n"/>
+      <c r="AR45" s="5" t="n"/>
+      <c r="AS45" s="5" t="n"/>
+      <c r="AT45" s="5" t="n"/>
+      <c r="AU45" s="5" t="n"/>
+      <c r="AV45" s="5" t="n"/>
+      <c r="AW45" s="5" t="n"/>
+      <c r="AX45" s="5" t="n"/>
+      <c r="AY45" s="5" t="n"/>
+      <c r="AZ45" s="5" t="n"/>
+      <c r="BA45" s="5" t="n"/>
+      <c r="BB45" s="5" t="n"/>
+      <c r="BC45" s="5" t="n"/>
+      <c r="BD45" s="5" t="n"/>
+      <c r="BE45" s="5" t="n"/>
+      <c r="BF45" s="5" t="n"/>
+      <c r="BG45" s="5" t="n"/>
+      <c r="BH45" s="5" t="n"/>
+      <c r="BI45" s="5" t="n"/>
+      <c r="BJ45" s="5" t="n"/>
+      <c r="BK45" s="5" t="n"/>
+      <c r="BL45" s="5" t="n"/>
+      <c r="BM45" s="5" t="n"/>
+      <c r="BN45" s="5" t="n"/>
+      <c r="BO45" s="5" t="n"/>
+      <c r="BP45" s="5" t="n"/>
+      <c r="BQ45" s="5" t="n"/>
+      <c r="BR45" s="5" t="n"/>
+      <c r="BS45" s="5" t="n"/>
+      <c r="BT45" s="5" t="n"/>
+      <c r="BU45" s="5" t="n"/>
+      <c r="BV45" s="5" t="n"/>
+      <c r="BW45" s="5" t="n"/>
+      <c r="BX45" s="5" t="n"/>
+      <c r="BY45" s="5" t="n"/>
+      <c r="BZ45" s="5" t="n"/>
+      <c r="CA45" s="5" t="n"/>
+      <c r="CB45" s="5" t="n"/>
+      <c r="CC45" s="5" t="n"/>
+      <c r="CD45" s="5" t="n"/>
+      <c r="CE45" s="5" t="n"/>
+      <c r="CF45" s="5" t="n"/>
+      <c r="CG45" s="5" t="n"/>
+      <c r="CH45" s="5" t="n"/>
+      <c r="CI45" s="5" t="n"/>
+      <c r="CJ45" s="5" t="n"/>
+      <c r="CK45" s="5" t="n"/>
+      <c r="CL45" s="5" t="n"/>
+      <c r="CM45" s="5" t="n"/>
+      <c r="CN45" s="5" t="n"/>
+      <c r="CO45" s="5" t="n"/>
+      <c r="CP45" s="5" t="n"/>
+      <c r="CQ45" s="5" t="n"/>
+      <c r="CR45" s="5" t="n"/>
+      <c r="CS45" s="5" t="n"/>
+      <c r="CT45" s="5" t="n"/>
+      <c r="CU45" s="5" t="n"/>
+      <c r="CV45" s="5" t="n"/>
+      <c r="CW45" s="5" t="n"/>
+      <c r="CX45" s="5" t="n"/>
+      <c r="CY45" s="5" t="n"/>
+      <c r="CZ45" s="5" t="n"/>
+      <c r="DA45" s="5" t="n"/>
+      <c r="DB45" s="5" t="n"/>
+      <c r="DC45" s="5" t="n"/>
+      <c r="DD45" s="5" t="n"/>
+      <c r="DE45" s="5" t="n"/>
+      <c r="DF45" s="5" t="n"/>
+      <c r="DG45" s="5" t="n"/>
+      <c r="DH45" s="5" t="n"/>
+      <c r="DI45" s="5" t="n"/>
+      <c r="DJ45" s="5" t="n"/>
+      <c r="DK45" s="5" t="n"/>
+      <c r="DL45" s="5" t="n"/>
+      <c r="DM45" s="5" t="n"/>
+      <c r="DN45" s="5" t="n"/>
+      <c r="DO45" s="5" t="n"/>
+      <c r="DP45" s="5" t="n"/>
+      <c r="DQ45" s="5" t="n"/>
+      <c r="DR45" s="5" t="n"/>
+      <c r="DS45" s="5" t="n"/>
+      <c r="DT45" s="5" t="n"/>
+      <c r="DU45" s="5" t="n"/>
+      <c r="DV45" s="5" t="n"/>
+      <c r="DW45" s="5" t="n"/>
+      <c r="DX45" s="5" t="n"/>
+      <c r="DY45" s="5" t="n"/>
+      <c r="DZ45" s="5" t="n"/>
+      <c r="EA45" s="5" t="n"/>
+      <c r="EB45" s="5" t="n"/>
+      <c r="EC45" s="5" t="n"/>
+      <c r="ED45" s="5" t="n"/>
+      <c r="EE45" s="5" t="n"/>
+      <c r="EF45" s="5" t="n"/>
+      <c r="EG45" s="5" t="n"/>
+      <c r="EH45" s="5" t="n"/>
+      <c r="EI45" s="5" t="n"/>
+      <c r="EJ45" s="5" t="n"/>
+      <c r="EK45" s="5" t="n"/>
+      <c r="EL45" s="5" t="n"/>
+      <c r="EM45" s="5" t="n"/>
+      <c r="EN45" s="5" t="n"/>
+      <c r="EO45" s="5" t="n"/>
+      <c r="EP45" s="5" t="n"/>
+      <c r="EQ45" s="5" t="n"/>
+      <c r="ER45" s="5" t="n"/>
+      <c r="ES45" s="5" t="n"/>
+      <c r="ET45" s="6" t="n"/>
+      <c r="EU45" s="28" t="inlineStr">
+        <is>
+          <t>бригадир + наладчик + 5 рабочих</t>
+        </is>
+      </c>
+      <c r="EV45" s="5" t="n"/>
+      <c r="EW45" s="5" t="n"/>
+      <c r="EX45" s="5" t="n"/>
+      <c r="EY45" s="5" t="n"/>
+      <c r="EZ45" s="5" t="n"/>
+      <c r="FA45" s="5" t="n"/>
+      <c r="FB45" s="5" t="n"/>
+      <c r="FC45" s="5" t="n"/>
+      <c r="FD45" s="5" t="n"/>
+      <c r="FE45" s="5" t="n"/>
+      <c r="FF45" s="5" t="n"/>
+      <c r="FG45" s="5" t="n"/>
+      <c r="FH45" s="5" t="n"/>
+      <c r="FI45" s="5" t="n"/>
+      <c r="FJ45" s="5" t="n"/>
+      <c r="FK45" s="5" t="n"/>
+      <c r="FL45" s="5" t="n"/>
+      <c r="FM45" s="5" t="n"/>
+      <c r="FN45" s="5" t="n"/>
+      <c r="FO45" s="5" t="n"/>
+      <c r="FP45" s="5" t="n"/>
+      <c r="FQ45" s="5" t="n"/>
+      <c r="FR45" s="5" t="n"/>
+      <c r="FS45" s="5" t="n"/>
+      <c r="FT45" s="5" t="n"/>
+      <c r="FU45" s="5" t="n"/>
+      <c r="FV45" s="5" t="n"/>
+      <c r="FW45" s="5" t="n"/>
+      <c r="FX45" s="5" t="n"/>
+      <c r="FY45" s="5" t="n"/>
+      <c r="FZ45" s="5" t="n"/>
+      <c r="GA45" s="5" t="n"/>
+      <c r="GB45" s="5" t="n"/>
+      <c r="GC45" s="5" t="n"/>
+      <c r="GD45" s="5" t="n"/>
+      <c r="GE45" s="5" t="n"/>
+      <c r="GF45" s="5" t="n"/>
+      <c r="GG45" s="5" t="n"/>
+      <c r="GH45" s="5" t="n"/>
+      <c r="GI45" s="5" t="n"/>
+      <c r="GJ45" s="5" t="n"/>
+      <c r="GK45" s="5" t="n"/>
+      <c r="GL45" s="5" t="n"/>
+      <c r="GM45" s="5" t="n"/>
+      <c r="GN45" s="5" t="n"/>
+      <c r="GO45" s="5" t="n"/>
+      <c r="GP45" s="5" t="n"/>
+      <c r="GQ45" s="5" t="n"/>
+      <c r="GR45" s="5" t="n"/>
+      <c r="GS45" s="5" t="n"/>
+      <c r="GT45" s="5" t="n"/>
+      <c r="GU45" s="5" t="n"/>
+      <c r="GV45" s="5" t="n"/>
+      <c r="GW45" s="5" t="n"/>
+      <c r="GX45" s="5" t="n"/>
+      <c r="GY45" s="5" t="n"/>
+      <c r="GZ45" s="5" t="n"/>
+      <c r="HA45" s="5" t="n"/>
+      <c r="HB45" s="5" t="n"/>
+      <c r="HC45" s="5" t="n"/>
+      <c r="HD45" s="5" t="n"/>
+      <c r="HE45" s="5" t="n"/>
+      <c r="HF45" s="5" t="n"/>
+      <c r="HG45" s="5" t="n"/>
+      <c r="HH45" s="5" t="n"/>
+      <c r="HI45" s="5" t="n"/>
+      <c r="HJ45" s="5" t="n"/>
+      <c r="HK45" s="5" t="n"/>
+      <c r="HL45" s="5" t="n"/>
+      <c r="HM45" s="5" t="n"/>
+      <c r="HN45" s="5" t="n"/>
+      <c r="HO45" s="5" t="n"/>
+      <c r="HP45" s="5" t="n"/>
+      <c r="HQ45" s="5" t="n"/>
+      <c r="HR45" s="5" t="n"/>
+      <c r="HS45" s="5" t="n"/>
+      <c r="HT45" s="5" t="n"/>
+      <c r="HU45" s="5" t="n"/>
+      <c r="HV45" s="5" t="n"/>
+      <c r="HW45" s="5" t="n"/>
+      <c r="HX45" s="5" t="n"/>
+      <c r="HY45" s="5" t="n"/>
+      <c r="HZ45" s="5" t="n"/>
+      <c r="IA45" s="5" t="n"/>
+      <c r="IB45" s="5" t="n"/>
+      <c r="IC45" s="5" t="n"/>
+      <c r="ID45" s="5" t="n"/>
+      <c r="IE45" s="5" t="n"/>
+      <c r="IF45" s="5" t="n"/>
+      <c r="IG45" s="5" t="n"/>
+      <c r="IH45" s="5" t="n"/>
+      <c r="II45" s="5" t="n"/>
+      <c r="IJ45" s="5" t="n"/>
+      <c r="IK45" s="5" t="n"/>
+      <c r="IL45" s="5" t="n"/>
+      <c r="IM45" s="5" t="n"/>
+      <c r="IN45" s="5" t="n"/>
+      <c r="IO45" s="5" t="n"/>
+      <c r="IP45" s="5" t="n"/>
+      <c r="IQ45" s="5" t="n"/>
+      <c r="IR45" s="5" t="n"/>
+      <c r="IS45" s="5" t="n"/>
+      <c r="IT45" s="5" t="n"/>
+      <c r="IU45" s="5" t="n"/>
+      <c r="IV45" s="5" t="n"/>
+      <c r="IW45" s="5" t="n"/>
+      <c r="IX45" s="5" t="n"/>
+      <c r="IY45" s="5" t="n"/>
+      <c r="IZ45" s="5" t="n"/>
+      <c r="JA45" s="5" t="n"/>
+      <c r="JB45" s="5" t="n"/>
+      <c r="JC45" s="5" t="n"/>
+      <c r="JD45" s="5" t="n"/>
+      <c r="JE45" s="5" t="n"/>
+      <c r="JF45" s="5" t="n"/>
+      <c r="JG45" s="5" t="n"/>
+      <c r="JH45" s="5" t="n"/>
+      <c r="JI45" s="5" t="n"/>
+      <c r="JJ45" s="5" t="n"/>
+      <c r="JK45" s="5" t="n"/>
+      <c r="JL45" s="5" t="n"/>
+      <c r="JM45" s="5" t="n"/>
+      <c r="JN45" s="5" t="n"/>
+      <c r="JO45" s="5" t="n"/>
+      <c r="JP45" s="6" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="18" t="inlineStr">
+      <c r="B46" s="19" t="inlineStr">
         <is>
           <t>Фасовка</t>
         </is>
       </c>
-      <c r="C46" s="8" t="n"/>
-      <c r="D46" s="9" t="n"/>
-      <c r="AV46" s="10" t="inlineStr">
+      <c r="C46" s="9" t="n"/>
+      <c r="D46" s="10" t="n"/>
+      <c r="AV46" s="11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AW46" s="4" t="n"/>
-      <c r="AX46" s="5" t="n"/>
-      <c r="AY46" s="10" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
-      <c r="AZ46" s="4" t="n"/>
-      <c r="BA46" s="4" t="n"/>
-      <c r="BB46" s="4" t="n"/>
-      <c r="BC46" s="4" t="n"/>
-      <c r="BD46" s="4" t="n"/>
-      <c r="BE46" s="5" t="n"/>
-      <c r="BQ46" s="10" t="inlineStr">
+      <c r="AW46" s="5" t="n"/>
+      <c r="AX46" s="6" t="n"/>
+      <c r="AY46" s="11" t="inlineStr">
+        <is>
+          <t>Умалат 2.24</t>
+        </is>
+      </c>
+      <c r="AZ46" s="5" t="n"/>
+      <c r="BA46" s="5" t="n"/>
+      <c r="BB46" s="5" t="n"/>
+      <c r="BC46" s="5" t="n"/>
+      <c r="BD46" s="5" t="n"/>
+      <c r="BE46" s="6" t="n"/>
+      <c r="CG46" s="11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="BR46" s="4" t="n"/>
-      <c r="BS46" s="5" t="n"/>
-      <c r="BT46" s="10" t="inlineStr">
-        <is>
-          <t>Сулугуни / Сулугуни</t>
-        </is>
-      </c>
-      <c r="BU46" s="4" t="n"/>
-      <c r="BV46" s="4" t="n"/>
-      <c r="BW46" s="4" t="n"/>
-      <c r="BX46" s="4" t="n"/>
-      <c r="BY46" s="4" t="n"/>
-      <c r="BZ46" s="4" t="n"/>
-      <c r="CA46" s="4" t="n"/>
-      <c r="CB46" s="5" t="n"/>
-      <c r="CC46" s="10" t="inlineStr">
+      <c r="CH46" s="5" t="n"/>
+      <c r="CI46" s="6" t="n"/>
+      <c r="CJ46" s="11" t="inlineStr">
+        <is>
+          <t>Умалат 2.24/1.8</t>
+        </is>
+      </c>
+      <c r="CK46" s="5" t="n"/>
+      <c r="CL46" s="5" t="n"/>
+      <c r="CM46" s="5" t="n"/>
+      <c r="CN46" s="5" t="n"/>
+      <c r="CO46" s="5" t="n"/>
+      <c r="CP46" s="5" t="n"/>
+      <c r="CQ46" s="5" t="n"/>
+      <c r="CR46" s="5" t="n"/>
+      <c r="CS46" s="5" t="n"/>
+      <c r="CT46" s="5" t="n"/>
+      <c r="CU46" s="5" t="n"/>
+      <c r="CV46" s="6" t="n"/>
+      <c r="CW46" s="11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="CD46" s="4" t="n"/>
-      <c r="CE46" s="5" t="n"/>
-      <c r="CF46" s="10" t="inlineStr">
-        <is>
-          <t>Сулугуни / Сулугуни / Сулугуни / Сулугуни</t>
-        </is>
-      </c>
-      <c r="CG46" s="4" t="n"/>
-      <c r="CH46" s="4" t="n"/>
-      <c r="CI46" s="4" t="n"/>
-      <c r="CJ46" s="4" t="n"/>
-      <c r="CK46" s="4" t="n"/>
-      <c r="CL46" s="4" t="n"/>
-      <c r="CM46" s="4" t="n"/>
-      <c r="CN46" s="4" t="n"/>
-      <c r="CO46" s="4" t="n"/>
-      <c r="CP46" s="4" t="n"/>
-      <c r="CQ46" s="4" t="n"/>
-      <c r="CR46" s="4" t="n"/>
-      <c r="CS46" s="4" t="n"/>
-      <c r="CT46" s="4" t="n"/>
-      <c r="CU46" s="4" t="n"/>
-      <c r="CV46" s="4" t="n"/>
-      <c r="CW46" s="4" t="n"/>
-      <c r="CX46" s="4" t="n"/>
-      <c r="CY46" s="5" t="n"/>
-      <c r="CZ46" s="10" t="inlineStr">
+      <c r="CX46" s="5" t="n"/>
+      <c r="CY46" s="6" t="n"/>
+      <c r="CZ46" s="11" t="inlineStr">
+        <is>
+          <t>Умалат 1.8/1.2/0.12/2.22</t>
+        </is>
+      </c>
+      <c r="DA46" s="5" t="n"/>
+      <c r="DB46" s="5" t="n"/>
+      <c r="DC46" s="5" t="n"/>
+      <c r="DD46" s="5" t="n"/>
+      <c r="DE46" s="5" t="n"/>
+      <c r="DF46" s="5" t="n"/>
+      <c r="DG46" s="5" t="n"/>
+      <c r="DH46" s="5" t="n"/>
+      <c r="DI46" s="5" t="n"/>
+      <c r="DJ46" s="5" t="n"/>
+      <c r="DK46" s="5" t="n"/>
+      <c r="DL46" s="5" t="n"/>
+      <c r="DM46" s="5" t="n"/>
+      <c r="DN46" s="5" t="n"/>
+      <c r="DO46" s="5" t="n"/>
+      <c r="DP46" s="5" t="n"/>
+      <c r="DQ46" s="5" t="n"/>
+      <c r="DR46" s="5" t="n"/>
+      <c r="DS46" s="5" t="n"/>
+      <c r="DT46" s="5" t="n"/>
+      <c r="DU46" s="5" t="n"/>
+      <c r="DV46" s="5" t="n"/>
+      <c r="DW46" s="5" t="n"/>
+      <c r="DX46" s="5" t="n"/>
+      <c r="DY46" s="5" t="n"/>
+      <c r="DZ46" s="5" t="n"/>
+      <c r="EA46" s="5" t="n"/>
+      <c r="EB46" s="5" t="n"/>
+      <c r="EC46" s="5" t="n"/>
+      <c r="ED46" s="5" t="n"/>
+      <c r="EE46" s="6" t="n"/>
+      <c r="EF46" s="11" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="DA46" s="4" t="n"/>
-      <c r="DB46" s="5" t="n"/>
-      <c r="DC46" s="10" t="inlineStr">
-        <is>
-          <t>Сулугуни / Для пиццы</t>
-        </is>
-      </c>
-      <c r="DD46" s="4" t="n"/>
-      <c r="DE46" s="4" t="n"/>
-      <c r="DF46" s="4" t="n"/>
-      <c r="DG46" s="4" t="n"/>
-      <c r="DH46" s="4" t="n"/>
-      <c r="DI46" s="4" t="n"/>
-      <c r="DJ46" s="4" t="n"/>
-      <c r="DK46" s="4" t="n"/>
-      <c r="DL46" s="4" t="n"/>
-      <c r="DM46" s="4" t="n"/>
-      <c r="DN46" s="5" t="n"/>
-      <c r="DO46" s="10" t="inlineStr">
+      <c r="EG46" s="5" t="n"/>
+      <c r="EH46" s="6" t="n"/>
+      <c r="EI46" s="11" t="inlineStr">
+        <is>
+          <t>Умалат 2.22/Unagrande 3.68</t>
+        </is>
+      </c>
+      <c r="EJ46" s="5" t="n"/>
+      <c r="EK46" s="5" t="n"/>
+      <c r="EL46" s="5" t="n"/>
+      <c r="EM46" s="5" t="n"/>
+      <c r="EN46" s="5" t="n"/>
+      <c r="EO46" s="5" t="n"/>
+      <c r="EP46" s="5" t="n"/>
+      <c r="EQ46" s="5" t="n"/>
+      <c r="ER46" s="5" t="n"/>
+      <c r="ES46" s="5" t="n"/>
+      <c r="ET46" s="5" t="n"/>
+      <c r="EU46" s="5" t="n"/>
+      <c r="EV46" s="5" t="n"/>
+      <c r="EW46" s="5" t="n"/>
+      <c r="EX46" s="6" t="n"/>
+      <c r="EY46" s="11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="DP46" s="4" t="n"/>
-      <c r="DQ46" s="5" t="n"/>
-      <c r="DR46" s="10" t="inlineStr">
-        <is>
-          <t>Для пиццы / Для пиццы</t>
-        </is>
-      </c>
-      <c r="DS46" s="4" t="n"/>
-      <c r="DT46" s="4" t="n"/>
-      <c r="DU46" s="4" t="n"/>
-      <c r="DV46" s="4" t="n"/>
-      <c r="DW46" s="4" t="n"/>
-      <c r="DX46" s="4" t="n"/>
-      <c r="DY46" s="4" t="n"/>
-      <c r="DZ46" s="4" t="n"/>
-      <c r="EA46" s="4" t="n"/>
-      <c r="EB46" s="4" t="n"/>
-      <c r="EC46" s="4" t="n"/>
-      <c r="ED46" s="4" t="n"/>
-      <c r="EE46" s="5" t="n"/>
-      <c r="EM46" s="10" t="inlineStr">
+      <c r="EZ46" s="5" t="n"/>
+      <c r="FA46" s="6" t="n"/>
+      <c r="FB46" s="11" t="inlineStr">
+        <is>
+          <t>Unagrande 3.68/0.12</t>
+        </is>
+      </c>
+      <c r="FC46" s="5" t="n"/>
+      <c r="FD46" s="5" t="n"/>
+      <c r="FE46" s="5" t="n"/>
+      <c r="FF46" s="5" t="n"/>
+      <c r="FG46" s="5" t="n"/>
+      <c r="FH46" s="5" t="n"/>
+      <c r="FI46" s="5" t="n"/>
+      <c r="FJ46" s="5" t="n"/>
+      <c r="FK46" s="5" t="n"/>
+      <c r="FL46" s="5" t="n"/>
+      <c r="FM46" s="5" t="n"/>
+      <c r="FN46" s="5" t="n"/>
+      <c r="FO46" s="5" t="n"/>
+      <c r="FP46" s="5" t="n"/>
+      <c r="FQ46" s="5" t="n"/>
+      <c r="FR46" s="5" t="n"/>
+      <c r="FS46" s="6" t="n"/>
+      <c r="GA46" s="11" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="EN46" s="4" t="n"/>
-      <c r="EO46" s="5" t="n"/>
-      <c r="EP46" s="10" t="inlineStr">
-        <is>
-          <t>Для пиццы / Для пиццы / Для пиццы</t>
-        </is>
-      </c>
-      <c r="EQ46" s="4" t="n"/>
-      <c r="ER46" s="4" t="n"/>
-      <c r="ES46" s="4" t="n"/>
-      <c r="ET46" s="4" t="n"/>
-      <c r="EU46" s="4" t="n"/>
-      <c r="EV46" s="4" t="n"/>
-      <c r="EW46" s="4" t="n"/>
-      <c r="EX46" s="4" t="n"/>
-      <c r="EY46" s="4" t="n"/>
-      <c r="EZ46" s="5" t="n"/>
+      <c r="GB46" s="5" t="n"/>
+      <c r="GC46" s="6" t="n"/>
+      <c r="GD46" s="11" t="inlineStr">
+        <is>
+          <t>Fine Life 2.22/Pretto 1.2/Metro Chef 1.0</t>
+        </is>
+      </c>
+      <c r="GE46" s="5" t="n"/>
+      <c r="GF46" s="5" t="n"/>
+      <c r="GG46" s="5" t="n"/>
+      <c r="GH46" s="5" t="n"/>
+      <c r="GI46" s="5" t="n"/>
+      <c r="GJ46" s="5" t="n"/>
+      <c r="GK46" s="5" t="n"/>
+      <c r="GL46" s="5" t="n"/>
+      <c r="GM46" s="5" t="n"/>
+      <c r="GN46" s="5" t="n"/>
+      <c r="GO46" s="5" t="n"/>
+      <c r="GP46" s="5" t="n"/>
+      <c r="GQ46" s="5" t="n"/>
+      <c r="GR46" s="5" t="n"/>
+      <c r="GS46" s="5" t="n"/>
+      <c r="GT46" s="5" t="n"/>
+      <c r="GU46" s="5" t="n"/>
+      <c r="GV46" s="6" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="AV47" s="22" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="AW47" s="4" t="n"/>
-      <c r="AX47" s="4" t="n"/>
-      <c r="AY47" s="4" t="n"/>
-      <c r="AZ47" s="4" t="n"/>
-      <c r="BA47" s="4" t="n"/>
-      <c r="BB47" s="4" t="n"/>
-      <c r="BC47" s="4" t="n"/>
-      <c r="BD47" s="4" t="n"/>
-      <c r="BE47" s="5" t="n"/>
-      <c r="BQ47" s="22" t="inlineStr">
-        <is>
-          <t>Умалат / Умалат</t>
-        </is>
-      </c>
-      <c r="BR47" s="4" t="n"/>
-      <c r="BS47" s="4" t="n"/>
-      <c r="BT47" s="4" t="n"/>
-      <c r="BU47" s="4" t="n"/>
-      <c r="BV47" s="4" t="n"/>
-      <c r="BW47" s="4" t="n"/>
-      <c r="BX47" s="4" t="n"/>
-      <c r="BY47" s="4" t="n"/>
-      <c r="BZ47" s="4" t="n"/>
-      <c r="CA47" s="4" t="n"/>
-      <c r="CB47" s="5" t="n"/>
-      <c r="CC47" s="22" t="inlineStr">
-        <is>
-          <t>Умалат / Умалат / Умалат / Умалат</t>
-        </is>
-      </c>
-      <c r="CD47" s="4" t="n"/>
-      <c r="CE47" s="4" t="n"/>
-      <c r="CF47" s="4" t="n"/>
-      <c r="CG47" s="4" t="n"/>
-      <c r="CH47" s="4" t="n"/>
-      <c r="CI47" s="4" t="n"/>
-      <c r="CJ47" s="4" t="n"/>
-      <c r="CK47" s="4" t="n"/>
-      <c r="CL47" s="4" t="n"/>
-      <c r="CM47" s="4" t="n"/>
-      <c r="CN47" s="4" t="n"/>
-      <c r="CO47" s="4" t="n"/>
-      <c r="CP47" s="4" t="n"/>
-      <c r="CQ47" s="4" t="n"/>
-      <c r="CR47" s="4" t="n"/>
-      <c r="CS47" s="4" t="n"/>
-      <c r="CT47" s="4" t="n"/>
-      <c r="CU47" s="4" t="n"/>
-      <c r="CV47" s="4" t="n"/>
-      <c r="CW47" s="4" t="n"/>
-      <c r="CX47" s="4" t="n"/>
+      <c r="B47" s="12" t="n"/>
+      <c r="C47" s="13" t="n"/>
+      <c r="D47" s="14" t="n"/>
+      <c r="AV47" s="24" t="inlineStr">
+        <is>
+          <t>фасовка/confezionamento</t>
+        </is>
+      </c>
+      <c r="AW47" s="5" t="n"/>
+      <c r="AX47" s="5" t="n"/>
+      <c r="AY47" s="5" t="n"/>
+      <c r="AZ47" s="5" t="n"/>
+      <c r="BA47" s="5" t="n"/>
+      <c r="BB47" s="5" t="n"/>
+      <c r="BC47" s="5" t="n"/>
+      <c r="BD47" s="5" t="n"/>
+      <c r="BE47" s="6" t="n"/>
+      <c r="CG47" s="24" t="inlineStr">
+        <is>
+          <t>фасовка/confezionamento</t>
+        </is>
+      </c>
+      <c r="CH47" s="5" t="n"/>
+      <c r="CI47" s="5" t="n"/>
+      <c r="CJ47" s="5" t="n"/>
+      <c r="CK47" s="5" t="n"/>
+      <c r="CL47" s="5" t="n"/>
+      <c r="CM47" s="5" t="n"/>
+      <c r="CN47" s="5" t="n"/>
+      <c r="CO47" s="5" t="n"/>
+      <c r="CP47" s="5" t="n"/>
+      <c r="CQ47" s="5" t="n"/>
+      <c r="CR47" s="5" t="n"/>
+      <c r="CS47" s="5" t="n"/>
+      <c r="CT47" s="5" t="n"/>
+      <c r="CU47" s="5" t="n"/>
+      <c r="CV47" s="6" t="n"/>
+      <c r="CW47" s="24" t="inlineStr">
+        <is>
+          <t>фасовка/confezionamento</t>
+        </is>
+      </c>
+      <c r="CX47" s="5" t="n"/>
       <c r="CY47" s="5" t="n"/>
-      <c r="CZ47" s="22" t="inlineStr">
-        <is>
-          <t>Умалат / Unagrande</t>
-        </is>
-      </c>
-      <c r="DA47" s="4" t="n"/>
-      <c r="DB47" s="4" t="n"/>
-      <c r="DC47" s="4" t="n"/>
-      <c r="DD47" s="4" t="n"/>
-      <c r="DE47" s="4" t="n"/>
-      <c r="DF47" s="4" t="n"/>
-      <c r="DG47" s="4" t="n"/>
-      <c r="DH47" s="4" t="n"/>
-      <c r="DI47" s="4" t="n"/>
-      <c r="DJ47" s="4" t="n"/>
-      <c r="DK47" s="4" t="n"/>
-      <c r="DL47" s="4" t="n"/>
-      <c r="DM47" s="4" t="n"/>
+      <c r="CZ47" s="5" t="n"/>
+      <c r="DA47" s="5" t="n"/>
+      <c r="DB47" s="5" t="n"/>
+      <c r="DC47" s="5" t="n"/>
+      <c r="DD47" s="5" t="n"/>
+      <c r="DE47" s="5" t="n"/>
+      <c r="DF47" s="5" t="n"/>
+      <c r="DG47" s="5" t="n"/>
+      <c r="DH47" s="5" t="n"/>
+      <c r="DI47" s="5" t="n"/>
+      <c r="DJ47" s="5" t="n"/>
+      <c r="DK47" s="5" t="n"/>
+      <c r="DL47" s="5" t="n"/>
+      <c r="DM47" s="5" t="n"/>
       <c r="DN47" s="5" t="n"/>
-      <c r="DO47" s="22" t="inlineStr">
-        <is>
-          <t>Unagrande / Unagrande</t>
-        </is>
-      </c>
-      <c r="DP47" s="4" t="n"/>
-      <c r="DQ47" s="4" t="n"/>
-      <c r="DR47" s="4" t="n"/>
-      <c r="DS47" s="4" t="n"/>
-      <c r="DT47" s="4" t="n"/>
-      <c r="DU47" s="4" t="n"/>
-      <c r="DV47" s="4" t="n"/>
-      <c r="DW47" s="4" t="n"/>
-      <c r="DX47" s="4" t="n"/>
-      <c r="DY47" s="4" t="n"/>
-      <c r="DZ47" s="4" t="n"/>
-      <c r="EA47" s="4" t="n"/>
-      <c r="EB47" s="4" t="n"/>
-      <c r="EC47" s="4" t="n"/>
-      <c r="ED47" s="4" t="n"/>
-      <c r="EE47" s="5" t="n"/>
-      <c r="EM47" s="22" t="inlineStr">
-        <is>
-          <t>Fine Life / Pretto / Metro Chef</t>
-        </is>
-      </c>
-      <c r="EN47" s="4" t="n"/>
-      <c r="EO47" s="4" t="n"/>
-      <c r="EP47" s="4" t="n"/>
-      <c r="EQ47" s="4" t="n"/>
-      <c r="ER47" s="4" t="n"/>
-      <c r="ES47" s="4" t="n"/>
-      <c r="ET47" s="4" t="n"/>
-      <c r="EU47" s="4" t="n"/>
-      <c r="EV47" s="4" t="n"/>
-      <c r="EW47" s="4" t="n"/>
-      <c r="EX47" s="4" t="n"/>
-      <c r="EY47" s="4" t="n"/>
+      <c r="DO47" s="5" t="n"/>
+      <c r="DP47" s="5" t="n"/>
+      <c r="DQ47" s="5" t="n"/>
+      <c r="DR47" s="5" t="n"/>
+      <c r="DS47" s="5" t="n"/>
+      <c r="DT47" s="5" t="n"/>
+      <c r="DU47" s="5" t="n"/>
+      <c r="DV47" s="5" t="n"/>
+      <c r="DW47" s="5" t="n"/>
+      <c r="DX47" s="5" t="n"/>
+      <c r="DY47" s="5" t="n"/>
+      <c r="DZ47" s="5" t="n"/>
+      <c r="EA47" s="5" t="n"/>
+      <c r="EB47" s="5" t="n"/>
+      <c r="EC47" s="5" t="n"/>
+      <c r="ED47" s="5" t="n"/>
+      <c r="EE47" s="6" t="n"/>
+      <c r="EF47" s="24" t="inlineStr">
+        <is>
+          <t>фасовка/confezionamento</t>
+        </is>
+      </c>
+      <c r="EG47" s="5" t="n"/>
+      <c r="EH47" s="5" t="n"/>
+      <c r="EI47" s="5" t="n"/>
+      <c r="EJ47" s="5" t="n"/>
+      <c r="EK47" s="5" t="n"/>
+      <c r="EL47" s="5" t="n"/>
+      <c r="EM47" s="5" t="n"/>
+      <c r="EN47" s="5" t="n"/>
+      <c r="EO47" s="5" t="n"/>
+      <c r="EP47" s="5" t="n"/>
+      <c r="EQ47" s="5" t="n"/>
+      <c r="ER47" s="5" t="n"/>
+      <c r="ES47" s="5" t="n"/>
+      <c r="ET47" s="5" t="n"/>
+      <c r="EU47" s="5" t="n"/>
+      <c r="EV47" s="5" t="n"/>
+      <c r="EW47" s="5" t="n"/>
+      <c r="EX47" s="6" t="n"/>
+      <c r="EY47" s="24" t="inlineStr">
+        <is>
+          <t>фасовка/confezionamento</t>
+        </is>
+      </c>
       <c r="EZ47" s="5" t="n"/>
+      <c r="FA47" s="5" t="n"/>
+      <c r="FB47" s="5" t="n"/>
+      <c r="FC47" s="5" t="n"/>
+      <c r="FD47" s="5" t="n"/>
+      <c r="FE47" s="5" t="n"/>
+      <c r="FF47" s="5" t="n"/>
+      <c r="FG47" s="5" t="n"/>
+      <c r="FH47" s="5" t="n"/>
+      <c r="FI47" s="5" t="n"/>
+      <c r="FJ47" s="5" t="n"/>
+      <c r="FK47" s="5" t="n"/>
+      <c r="FL47" s="5" t="n"/>
+      <c r="FM47" s="5" t="n"/>
+      <c r="FN47" s="5" t="n"/>
+      <c r="FO47" s="5" t="n"/>
+      <c r="FP47" s="5" t="n"/>
+      <c r="FQ47" s="5" t="n"/>
+      <c r="FR47" s="5" t="n"/>
+      <c r="FS47" s="6" t="n"/>
+      <c r="GA47" s="24" t="inlineStr">
+        <is>
+          <t>фасовка/confezionamento</t>
+        </is>
+      </c>
+      <c r="GB47" s="5" t="n"/>
+      <c r="GC47" s="5" t="n"/>
+      <c r="GD47" s="5" t="n"/>
+      <c r="GE47" s="5" t="n"/>
+      <c r="GF47" s="5" t="n"/>
+      <c r="GG47" s="5" t="n"/>
+      <c r="GH47" s="5" t="n"/>
+      <c r="GI47" s="5" t="n"/>
+      <c r="GJ47" s="5" t="n"/>
+      <c r="GK47" s="5" t="n"/>
+      <c r="GL47" s="5" t="n"/>
+      <c r="GM47" s="5" t="n"/>
+      <c r="GN47" s="5" t="n"/>
+      <c r="GO47" s="5" t="n"/>
+      <c r="GP47" s="5" t="n"/>
+      <c r="GQ47" s="5" t="n"/>
+      <c r="GR47" s="5" t="n"/>
+      <c r="GS47" s="5" t="n"/>
+      <c r="GT47" s="5" t="n"/>
+      <c r="GU47" s="5" t="n"/>
+      <c r="GV47" s="6" t="n"/>
     </row>
     <row r="48">
-      <c r="BX48" s="23" t="inlineStr"/>
-      <c r="CG48" s="23" t="inlineStr"/>
-      <c r="CV48" s="23" t="inlineStr"/>
-      <c r="CX48" s="23" t="inlineStr"/>
-      <c r="DC48" s="23" t="inlineStr"/>
-      <c r="DZ48" s="23" t="inlineStr"/>
-      <c r="EN48" s="23" t="inlineStr"/>
-      <c r="EX48" s="23" t="inlineStr"/>
+      <c r="CN48" s="18" t="inlineStr"/>
+      <c r="CO48" s="5" t="n"/>
+      <c r="CP48" s="5" t="n"/>
+      <c r="CQ48" s="5" t="n"/>
+      <c r="CR48" s="6" t="n"/>
+      <c r="DA48" s="18" t="inlineStr"/>
+      <c r="DB48" s="5" t="n"/>
+      <c r="DC48" s="5" t="n"/>
+      <c r="DD48" s="5" t="n"/>
+      <c r="DE48" s="6" t="n"/>
+      <c r="DT48" s="18" t="inlineStr"/>
+      <c r="DU48" s="5" t="n"/>
+      <c r="DV48" s="5" t="n"/>
+      <c r="DW48" s="5" t="n"/>
+      <c r="DX48" s="6" t="n"/>
+      <c r="DZ48" s="18" t="inlineStr"/>
+      <c r="EA48" s="5" t="n"/>
+      <c r="EB48" s="5" t="n"/>
+      <c r="EC48" s="5" t="n"/>
+      <c r="ED48" s="6" t="n"/>
+      <c r="EI48" s="18" t="inlineStr"/>
+      <c r="EJ48" s="5" t="n"/>
+      <c r="EK48" s="5" t="n"/>
+      <c r="EL48" s="5" t="n"/>
+      <c r="EM48" s="6" t="n"/>
+      <c r="FJ48" s="18" t="inlineStr"/>
+      <c r="FK48" s="5" t="n"/>
+      <c r="FL48" s="5" t="n"/>
+      <c r="FM48" s="5" t="n"/>
+      <c r="FN48" s="6" t="n"/>
+      <c r="FV48" s="18" t="inlineStr"/>
+      <c r="FW48" s="5" t="n"/>
+      <c r="FX48" s="5" t="n"/>
+      <c r="FY48" s="5" t="n"/>
+      <c r="FZ48" s="6" t="n"/>
+      <c r="GB48" s="18" t="inlineStr"/>
+      <c r="GC48" s="5" t="n"/>
+      <c r="GD48" s="5" t="n"/>
+      <c r="GE48" s="5" t="n"/>
+      <c r="GF48" s="6" t="n"/>
+      <c r="GP48" s="18" t="inlineStr"/>
+      <c r="GQ48" s="5" t="n"/>
+      <c r="GR48" s="5" t="n"/>
+      <c r="GS48" s="5" t="n"/>
+      <c r="GT48" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="724">
+  <mergeCells count="736">
+    <mergeCell ref="C2"/>
     <mergeCell ref="B6:D7"/>
     <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B12:D13"/>
     <mergeCell ref="B15:D16"/>
     <mergeCell ref="B18:D19"/>
-    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="C21"/>
+    <mergeCell ref="F23:ET23"/>
     <mergeCell ref="B24:D25"/>
+    <mergeCell ref="F28:ET28"/>
     <mergeCell ref="B29:D30"/>
+    <mergeCell ref="F32:ES32"/>
+    <mergeCell ref="ET32:JO32"/>
     <mergeCell ref="B33:D38"/>
+    <mergeCell ref="F45:ET45"/>
+    <mergeCell ref="EU45:JP45"/>
     <mergeCell ref="B46:D47"/>
     <mergeCell ref="K4:EY4"/>
     <mergeCell ref="EZ4:JS4"/>
@@ -7047,13 +8253,13 @@
     <mergeCell ref="W27:AA27"/>
     <mergeCell ref="AB27:AK27"/>
     <mergeCell ref="AL29:AN29"/>
-    <mergeCell ref="AO29:BF29"/>
-    <mergeCell ref="AL30:BF30"/>
-    <mergeCell ref="AO31"/>
-    <mergeCell ref="AS31"/>
-    <mergeCell ref="AV31"/>
-    <mergeCell ref="AX31"/>
-    <mergeCell ref="BA31"/>
+    <mergeCell ref="AO29:BV29"/>
+    <mergeCell ref="AL30:BV30"/>
+    <mergeCell ref="AO31:AS31"/>
+    <mergeCell ref="AW31:BA31"/>
+    <mergeCell ref="BD31:BH31"/>
+    <mergeCell ref="BJ31"/>
+    <mergeCell ref="BM31:BQ31"/>
     <mergeCell ref="W15:AB15"/>
     <mergeCell ref="AC15:AW15"/>
     <mergeCell ref="W16:AH16"/>
@@ -7069,89 +8275,57 @@
     <mergeCell ref="AV46:AX46"/>
     <mergeCell ref="AY46:BE46"/>
     <mergeCell ref="AV47:BE47"/>
-    <mergeCell ref="AL9:AQ9"/>
-    <mergeCell ref="AR9:BK9"/>
-    <mergeCell ref="AL10:AS10"/>
-    <mergeCell ref="AT10:AY10"/>
-    <mergeCell ref="AZ10:BF10"/>
-    <mergeCell ref="BG10:BI10"/>
-    <mergeCell ref="BJ10:BK10"/>
-    <mergeCell ref="AL24:AQ24"/>
-    <mergeCell ref="AR25:AU25"/>
-    <mergeCell ref="AV25:BF25"/>
-    <mergeCell ref="AR26:BF26"/>
-    <mergeCell ref="AR27:AV27"/>
-    <mergeCell ref="AW27:BF27"/>
-    <mergeCell ref="BG29:BI29"/>
-    <mergeCell ref="BJ29:BU29"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="AR18:AW18"/>
-    <mergeCell ref="AX18:BR18"/>
-    <mergeCell ref="AR19:BC19"/>
-    <mergeCell ref="BD19:BI19"/>
-    <mergeCell ref="BJ19:BM19"/>
-    <mergeCell ref="BN19:BP19"/>
-    <mergeCell ref="BQ19:BR19"/>
-    <mergeCell ref="AY36:BB36"/>
-    <mergeCell ref="BC36:CB36"/>
-    <mergeCell ref="AY37:BJ37"/>
-    <mergeCell ref="BK37:CB37"/>
-    <mergeCell ref="AY38:BP38"/>
-    <mergeCell ref="BQ46:BS46"/>
-    <mergeCell ref="BT46:CB46"/>
-    <mergeCell ref="BQ47:CB47"/>
-    <mergeCell ref="BX48"/>
-    <mergeCell ref="BD15:BI15"/>
-    <mergeCell ref="BJ15:CD15"/>
-    <mergeCell ref="BD16:BO16"/>
-    <mergeCell ref="BP16:BU16"/>
-    <mergeCell ref="BV16:BY16"/>
-    <mergeCell ref="BZ16:CB16"/>
-    <mergeCell ref="CC16:CD16"/>
-    <mergeCell ref="BK39:BN39"/>
-    <mergeCell ref="BO39:CY39"/>
-    <mergeCell ref="BK40:CG40"/>
-    <mergeCell ref="CH40:CY40"/>
-    <mergeCell ref="BK41:CB41"/>
-    <mergeCell ref="CC46:CE46"/>
-    <mergeCell ref="CF46:CY46"/>
-    <mergeCell ref="CC47:CY47"/>
-    <mergeCell ref="CG48"/>
-    <mergeCell ref="CV48"/>
-    <mergeCell ref="CX48"/>
-    <mergeCell ref="CA9:CF9"/>
-    <mergeCell ref="CG9:DA9"/>
-    <mergeCell ref="CA10:CL10"/>
-    <mergeCell ref="CM10:CR10"/>
-    <mergeCell ref="CS10:CV10"/>
-    <mergeCell ref="CW10:CY10"/>
-    <mergeCell ref="CZ10:DA10"/>
-    <mergeCell ref="CH33:CK33"/>
-    <mergeCell ref="CL33:DN33"/>
-    <mergeCell ref="CH34:CV34"/>
-    <mergeCell ref="CW34:DN34"/>
-    <mergeCell ref="CH35:CY35"/>
-    <mergeCell ref="CZ46:DB46"/>
-    <mergeCell ref="DC46:DN46"/>
-    <mergeCell ref="CZ47:DN47"/>
-    <mergeCell ref="DC48"/>
-    <mergeCell ref="BS12:BZ13"/>
-    <mergeCell ref="CP15:CU15"/>
-    <mergeCell ref="CV15:DP15"/>
-    <mergeCell ref="CP16:DA16"/>
-    <mergeCell ref="DB16:DG16"/>
-    <mergeCell ref="DH16:DK16"/>
-    <mergeCell ref="DL16:DN16"/>
-    <mergeCell ref="DO16:DP16"/>
-    <mergeCell ref="CW36:CZ36"/>
-    <mergeCell ref="DA36:EE36"/>
-    <mergeCell ref="CW37:DM37"/>
+    <mergeCell ref="BB6:BG6"/>
+    <mergeCell ref="BH6:CA6"/>
+    <mergeCell ref="BB7:BI7"/>
+    <mergeCell ref="BJ7:BO7"/>
+    <mergeCell ref="BP7:BV7"/>
+    <mergeCell ref="BW7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="BB24:BG24"/>
+    <mergeCell ref="BH25:BK25"/>
+    <mergeCell ref="BL25:BV25"/>
+    <mergeCell ref="BH26:BV26"/>
+    <mergeCell ref="BH27:BL27"/>
+    <mergeCell ref="BM27:BV27"/>
+    <mergeCell ref="BW29:BY29"/>
+    <mergeCell ref="BZ29:CK29"/>
+    <mergeCell ref="BW30:CK30"/>
+    <mergeCell ref="AL12:BA13"/>
+    <mergeCell ref="BH15:BM15"/>
+    <mergeCell ref="BN15:CH15"/>
+    <mergeCell ref="BH16:BS16"/>
+    <mergeCell ref="BT16:BY16"/>
+    <mergeCell ref="BZ16:CC16"/>
+    <mergeCell ref="CD16:CF16"/>
+    <mergeCell ref="CG16:CH16"/>
+    <mergeCell ref="BO33:BR33"/>
+    <mergeCell ref="BS33:CV33"/>
+    <mergeCell ref="BO34:CD34"/>
+    <mergeCell ref="CE34:CV34"/>
+    <mergeCell ref="BO35:CF35"/>
+    <mergeCell ref="CG46:CI46"/>
+    <mergeCell ref="CJ46:CV46"/>
+    <mergeCell ref="CG47:CV47"/>
+    <mergeCell ref="CN48:CR48"/>
+    <mergeCell ref="BX9:CC9"/>
+    <mergeCell ref="CD9:CX9"/>
+    <mergeCell ref="BX10:CI10"/>
+    <mergeCell ref="CJ10:CO10"/>
+    <mergeCell ref="CP10:CS10"/>
+    <mergeCell ref="CT10:CV10"/>
+    <mergeCell ref="CW10:CX10"/>
+    <mergeCell ref="CE36:CH36"/>
+    <mergeCell ref="CI36:EE36"/>
+    <mergeCell ref="CE37:DM37"/>
     <mergeCell ref="DN37:EE37"/>
-    <mergeCell ref="CW38:DN38"/>
-    <mergeCell ref="DO46:DQ46"/>
-    <mergeCell ref="DR46:EE46"/>
-    <mergeCell ref="DO47:EE47"/>
-    <mergeCell ref="DZ48"/>
+    <mergeCell ref="CE38:CV38"/>
+    <mergeCell ref="CW46:CY46"/>
+    <mergeCell ref="CZ46:EE46"/>
+    <mergeCell ref="CW47:EE47"/>
+    <mergeCell ref="DA48:DE48"/>
+    <mergeCell ref="DT48:DX48"/>
+    <mergeCell ref="DZ48:ED48"/>
     <mergeCell ref="DG9:DL9"/>
     <mergeCell ref="DM9:EG9"/>
     <mergeCell ref="DG10:DR10"/>
@@ -7159,17 +8333,53 @@
     <mergeCell ref="DY10:EB10"/>
     <mergeCell ref="EC10:EE10"/>
     <mergeCell ref="EF10:EG10"/>
-    <mergeCell ref="DN39:DQ39"/>
-    <mergeCell ref="DR39:EZ39"/>
-    <mergeCell ref="DN40:EA40"/>
-    <mergeCell ref="EB40:EZ40"/>
-    <mergeCell ref="DN41:EL41"/>
-    <mergeCell ref="EM46:EO46"/>
-    <mergeCell ref="EP46:EZ46"/>
-    <mergeCell ref="EM47:EZ47"/>
-    <mergeCell ref="EN48"/>
-    <mergeCell ref="EX48"/>
-    <mergeCell ref="DN12:EC13"/>
+    <mergeCell ref="DN33:DQ33"/>
+    <mergeCell ref="DR33:EX33"/>
+    <mergeCell ref="DN34:EF34"/>
+    <mergeCell ref="EG34:EX34"/>
+    <mergeCell ref="DN35:EE35"/>
+    <mergeCell ref="EF46:EH46"/>
+    <mergeCell ref="EI46:EX46"/>
+    <mergeCell ref="EF47:EX47"/>
+    <mergeCell ref="EI48:EM48"/>
+    <mergeCell ref="CQ12:DF13"/>
+    <mergeCell ref="DZ15:EE15"/>
+    <mergeCell ref="EF15:EZ15"/>
+    <mergeCell ref="DZ16:EK16"/>
+    <mergeCell ref="EL16:EQ16"/>
+    <mergeCell ref="ER16:EU16"/>
+    <mergeCell ref="EV16:EX16"/>
+    <mergeCell ref="EY16:EZ16"/>
+    <mergeCell ref="EG39:EJ39"/>
+    <mergeCell ref="EK39:FS39"/>
+    <mergeCell ref="EG40:FA40"/>
+    <mergeCell ref="FB40:FS40"/>
+    <mergeCell ref="EG41:EX41"/>
+    <mergeCell ref="EY46:FA46"/>
+    <mergeCell ref="FB46:FS46"/>
+    <mergeCell ref="EY47:FS47"/>
+    <mergeCell ref="FJ48:FN48"/>
+    <mergeCell ref="DR12:DY13"/>
+    <mergeCell ref="EU9:EZ9"/>
+    <mergeCell ref="FA9:FU9"/>
+    <mergeCell ref="EU10:FF10"/>
+    <mergeCell ref="FG10:FL10"/>
+    <mergeCell ref="FM10:FP10"/>
+    <mergeCell ref="FQ10:FS10"/>
+    <mergeCell ref="FT10:FU10"/>
+    <mergeCell ref="FB36:FE36"/>
+    <mergeCell ref="FF36:GV36"/>
+    <mergeCell ref="FB37:FW37"/>
+    <mergeCell ref="FX37:GV37"/>
+    <mergeCell ref="FB38:FZ38"/>
+    <mergeCell ref="FV48:FZ48"/>
+    <mergeCell ref="GA46:GC46"/>
+    <mergeCell ref="GD46:GV46"/>
+    <mergeCell ref="GA47:GV47"/>
+    <mergeCell ref="GB48:GF48"/>
+    <mergeCell ref="GP48:GT48"/>
+    <mergeCell ref="EM12:ET13"/>
+    <mergeCell ref="FB12:FQ13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
